--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3CB2D-9636-41C5-8DFC-4C11A4B9B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071FA04E-64A7-4433-B9DF-A57BB5F0FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="255">
   <si>
     <t>bike_name</t>
   </si>
@@ -58,21 +58,12 @@
     <t>2024 BMW S1000RR</t>
   </si>
   <si>
-    <t>2023 Slingshot SL Autodrive</t>
-  </si>
-  <si>
-    <t>2021 Slingshot R</t>
-  </si>
-  <si>
     <t>2022 Yamaha YZF-R1 Anniversary Edition</t>
   </si>
   <si>
     <t>2017 Yamaha YZF-R1M</t>
   </si>
   <si>
-    <t>2021 Slingshot SL Autodrive</t>
-  </si>
-  <si>
     <t>2024 Yamaha YZF-R1</t>
   </si>
   <si>
@@ -88,12 +79,6 @@
     <t>2024 Kawasaki Ninja ZX-10R KRT Edition</t>
   </si>
   <si>
-    <t>2023 Slingshot S with Tech Package</t>
-  </si>
-  <si>
-    <t>2022 Can-Am Spyder RT</t>
-  </si>
-  <si>
     <t>2023 Yamaha YZF-R1</t>
   </si>
   <si>
@@ -106,12 +91,6 @@
     <t>2025 Ducati Panigale V2</t>
   </si>
   <si>
-    <t>2019 Slingshot SLR</t>
-  </si>
-  <si>
-    <t>2020 Can-Am Spyder RT Limited</t>
-  </si>
-  <si>
     <t>2023 Kawasaki Ninja ZX-10R</t>
   </si>
   <si>
@@ -160,21 +139,12 @@
     <t>2024 Yamaha MT-10</t>
   </si>
   <si>
-    <t>2019 Can-Am Spyder RT Limited</t>
-  </si>
-  <si>
     <t>2023 Kawasaki Ninja ZX-14R</t>
   </si>
   <si>
     <t>2024 Kawasaki Ninja ZX-6R</t>
   </si>
   <si>
-    <t>2025 UBD TEXAS T-SHIRT</t>
-  </si>
-  <si>
-    <t>2025 UBD TEXAS HOODIE</t>
-  </si>
-  <si>
     <t>2023 Kawasaki Z125</t>
   </si>
   <si>
@@ -244,9 +214,6 @@
     <t>2023 Honda CB650R</t>
   </si>
   <si>
-    <t>2018 Slingshot GT LE</t>
-  </si>
-  <si>
     <t>2023 Kawasaki Vulcan 900</t>
   </si>
   <si>
@@ -430,9 +397,6 @@
     <t>2022 Aprilia RS 660 Limited Edition</t>
   </si>
   <si>
-    <t>2019 Can-Am Spyder F3-S SE6</t>
-  </si>
-  <si>
     <t>2021 Can-Am Ryker 600 ACE</t>
   </si>
   <si>
@@ -502,6 +466,51 @@
     <t>2023 Honda CRF450R</t>
   </si>
   <si>
+    <t>2025 Yamaha R9</t>
+  </si>
+  <si>
+    <t>2025 Aprilia RS 660 Factory</t>
+  </si>
+  <si>
+    <t>2025 Harley-Davidson Nightster</t>
+  </si>
+  <si>
+    <t>2025 BMW R18 Transcontinental</t>
+  </si>
+  <si>
+    <t>2025 Indian Scout 101</t>
+  </si>
+  <si>
+    <t>2025 Harley-Davidson Pan America 1250 ST</t>
+  </si>
+  <si>
+    <t>2025 Honda XL750 Transalp</t>
+  </si>
+  <si>
+    <t>2025 Kawasaki Versys-X 300</t>
+  </si>
+  <si>
+    <t>2025 Triumph Tiger 900 GT</t>
+  </si>
+  <si>
+    <t>2025 Aprilia Tuareg 660</t>
+  </si>
+  <si>
+    <t>2025 Royal Enfield Interceptor 650</t>
+  </si>
+  <si>
+    <t>2025 TVS Apache RTR 310</t>
+  </si>
+  <si>
+    <t>2025 Yamaha FZ S Hybrid</t>
+  </si>
+  <si>
+    <t>2025 Keeway RR 300</t>
+  </si>
+  <si>
+    <t>2025 Honda Rebel 500</t>
+  </si>
+  <si>
     <t>$667/MO</t>
   </si>
   <si>
@@ -526,9 +535,6 @@
     <t>$400/MO</t>
   </si>
   <si>
-    <t>$375/MO</t>
-  </si>
-  <si>
     <t>$358/MO</t>
   </si>
   <si>
@@ -586,9 +592,6 @@
     <t>$242/MO</t>
   </si>
   <si>
-    <t>$1/MO</t>
-  </si>
-  <si>
     <t>$43/MO</t>
   </si>
   <si>
@@ -733,15 +736,30 @@
     <t>$160/MO</t>
   </si>
   <si>
+    <t>$407/MO</t>
+  </si>
+  <si>
+    <t>$77/MO</t>
+  </si>
+  <si>
+    <t>$205/MO</t>
+  </si>
+  <si>
+    <t>$103/MO</t>
+  </si>
+  <si>
+    <t>$28/MO</t>
+  </si>
+  <si>
+    <t>$39/MO</t>
+  </si>
+  <si>
     <t>supersport</t>
   </si>
   <si>
     <t>touring</t>
   </si>
   <si>
-    <t>autocycle</t>
-  </si>
-  <si>
     <t>naked</t>
   </si>
   <si>
@@ -755,13 +773,25 @@
   </si>
   <si>
     <t>adventure</t>
+  </si>
+  <si>
+    <t>cruiser</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>commuter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,6 +806,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFEEF0FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -813,11 +849,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,20 +1159,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I326" sqref="I326"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,13 +1199,13 @@
         <v>39999</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>999</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1186,13 +1219,13 @@
         <v>35999</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3">
         <v>999</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1206,13 +1239,13 @@
         <v>34999</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4">
         <v>998</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1226,13 +1259,13 @@
         <v>28999</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D5">
         <v>1103</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1246,13 +1279,13 @@
         <v>27999</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <v>1832</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1266,13 +1299,13 @@
         <v>25499</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D7">
         <v>999</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1286,13 +1319,13 @@
         <v>24999</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D8">
         <v>999</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1303,16 +1336,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>23999</v>
+        <v>21499</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D9">
-        <v>1997</v>
+        <v>998</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1320,16 +1356,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>22499</v>
+        <v>20999</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D10">
-        <v>1997</v>
+        <v>998</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1337,16 +1376,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>21499</v>
+        <v>20499</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D11">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1357,53 +1396,53 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>20999</v>
+        <v>19999</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12">
-        <v>998</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>20499</v>
+        <v>19999</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>20499</v>
+        <v>19999</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1411,16 +1450,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>19999</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1434,13 +1473,13 @@
         <v>19999</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1448,19 +1487,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>19999</v>
+        <v>19499</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1468,36 +1507,39 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>19999</v>
+        <v>19499</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>19999</v>
+        <v>18999</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D19">
         <v>1000</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1505,19 +1547,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>19499</v>
+        <v>18599</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D20">
         <v>1000</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1525,19 +1567,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>19499</v>
+        <v>18499</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1545,19 +1587,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>19499</v>
+        <v>18499</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1565,33 +1610,36 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>18999</v>
+        <v>17999</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>959</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>18999</v>
+        <v>17999</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D24">
         <v>1000</v>
       </c>
       <c r="E24" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1599,19 +1647,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>18999</v>
+        <v>17999</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1619,16 +1670,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18599</v>
+        <v>17999</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D26">
         <v>1000</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1639,16 +1690,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>18499</v>
+        <v>17499</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D27">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1659,16 +1710,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>18499</v>
+        <v>16999</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D28">
         <v>1000</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1676,19 +1727,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D29">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1696,16 +1747,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="D30">
+        <v>1200</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1713,36 +1767,39 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D32">
         <v>1000</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1750,19 +1807,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D33">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1770,56 +1827,59 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>17999</v>
+        <v>16499</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>17499</v>
+        <v>16297</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>17499</v>
+        <v>15999</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D36">
         <v>1000</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1827,19 +1887,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>16999</v>
+        <v>15999</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D37">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1847,19 +1907,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>16999</v>
+        <v>15999</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>1000</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1867,19 +1927,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>16999</v>
+        <v>15999</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D39">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1887,19 +1947,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>16999</v>
+        <v>15499</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D40">
         <v>1000</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1907,19 +1967,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>16999</v>
+        <v>15499</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D41">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E41" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1927,19 +1987,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>16999</v>
+        <v>15498</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D42">
         <v>1000</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1947,39 +2007,39 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>16499</v>
+        <v>15299</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D43">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B44">
-        <v>16297</v>
+        <v>14999</v>
       </c>
       <c r="C44" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D44">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E44" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1987,19 +2047,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>15999</v>
+        <v>14999</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>1000</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2007,19 +2067,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>15999</v>
+        <v>14999</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D46">
         <v>600</v>
       </c>
       <c r="E46" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2027,76 +2087,79 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B47">
-        <v>15999</v>
+        <v>14999</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D47">
         <v>1000</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B48">
-        <v>15999</v>
+        <v>14999</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D48">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B49">
-        <v>15999</v>
+        <v>14899</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>188</v>
+      </c>
+      <c r="D49">
+        <v>1400</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>15499</v>
+        <v>14499</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D50">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2104,176 +2167,179 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51">
-        <v>15499</v>
+        <v>2599</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D51">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="E51" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>15498</v>
+        <v>2999</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D52">
-        <v>1000</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B53">
-        <v>15299</v>
+        <v>3999</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D53">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B54">
-        <v>14999</v>
+        <v>4299</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D54">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B55">
-        <v>14999</v>
+        <v>4499</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D55">
-        <v>1000</v>
+        <v>675</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>14999</v>
+        <v>4999</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D56">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B57">
-        <v>14999</v>
+        <v>5499</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E57" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>14999</v>
+        <v>5687</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>197</v>
+      </c>
+      <c r="D58">
+        <v>400</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>14999</v>
+        <v>5799</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D59">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2281,81 +2347,99 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B60">
-        <v>14899</v>
+        <v>5999</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D60">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>14499</v>
+        <v>6299</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D61">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62">
+        <v>6499</v>
+      </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62">
+        <v>650</v>
+      </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>6999</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>202</v>
+      </c>
+      <c r="D63">
+        <v>1100</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B64">
-        <v>60</v>
+        <v>7199</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>203</v>
+      </c>
+      <c r="D64">
+        <v>500</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -2363,59 +2447,59 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B65">
-        <v>2599</v>
+        <v>7299</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D65">
-        <v>125</v>
+        <v>1200</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B66">
-        <v>2999</v>
+        <v>7499</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D66">
-        <v>135</v>
+        <v>750</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B67">
-        <v>3999</v>
+        <v>7599</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D67">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2423,36 +2507,39 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B68">
-        <v>4299</v>
+        <v>7799</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D68">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B69">
-        <v>4499</v>
+        <v>7999</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>208</v>
+      </c>
+      <c r="D69">
+        <v>700</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -2460,19 +2547,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B70">
-        <v>4999</v>
+        <v>8199</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D70">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2480,36 +2567,39 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B71">
-        <v>5499</v>
+        <v>8499</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D71">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E71" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B72">
-        <v>5687</v>
+        <v>8699</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>211</v>
+      </c>
+      <c r="D72">
+        <v>900</v>
       </c>
       <c r="E72" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -2517,19 +2607,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B73">
-        <v>5799</v>
+        <v>8899</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D73">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2537,19 +2627,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B74">
-        <v>5999</v>
+        <v>8999</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D74">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -2557,39 +2647,39 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B75">
-        <v>6299</v>
+        <v>7999</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D75">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E75" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B76">
-        <v>6499</v>
+        <v>12999</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D76">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2597,39 +2687,39 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B77">
-        <v>6999</v>
+        <v>13999</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D77">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B78">
-        <v>7199</v>
+        <v>7999</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D78">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -2637,59 +2727,59 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B79">
-        <v>7299</v>
+        <v>7999</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D79">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B80">
-        <v>7499</v>
+        <v>8999</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D80">
         <v>750</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B81">
-        <v>7599</v>
+        <v>5999</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D81">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -2697,39 +2787,39 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B82">
-        <v>7799</v>
+        <v>7499</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D82">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B83">
-        <v>7999</v>
+        <v>12399</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D83">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -2737,110 +2827,119 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B84">
-        <v>8199</v>
+        <v>10599</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D84">
         <v>700</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B85">
-        <v>8499</v>
+        <v>11999</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D85">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E85" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B86">
-        <v>8699</v>
+        <v>7499</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D86">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B87">
-        <v>8899</v>
+        <v>6999</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D87">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B88">
-        <v>8999</v>
+        <v>7000</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D88">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="B89">
+        <v>8999</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89">
+        <v>900</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -2848,19 +2947,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B90">
-        <v>7999</v>
+        <v>14499</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D90">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -2868,59 +2967,59 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B91">
-        <v>12999</v>
+        <v>5999</v>
       </c>
       <c r="C91" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D91">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B92">
-        <v>13999</v>
+        <v>6999</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D92">
-        <v>600</v>
+        <v>790</v>
       </c>
       <c r="E92" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B93">
-        <v>7999</v>
+        <v>12899</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D93">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="E93" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -2928,19 +3027,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B94">
-        <v>7999</v>
+        <v>13499</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D94">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E94" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -2948,36 +3047,39 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B95">
-        <v>8999</v>
+        <v>7999</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D95">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E95" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F95">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B96">
-        <v>5999</v>
+        <v>6499</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="D96">
+        <v>500</v>
       </c>
       <c r="E96" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2985,39 +3087,39 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B97">
-        <v>7499</v>
+        <v>9399</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
-      </c>
-      <c r="D97">
-        <v>650</v>
+        <v>221</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1800</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B98">
-        <v>12399</v>
+        <v>9499</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D98">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E98" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -3025,59 +3127,59 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B99">
-        <v>10599</v>
+        <v>12999</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D99">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B100">
-        <v>11999</v>
+        <v>7999</v>
       </c>
       <c r="C100" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D100">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E100" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B101">
-        <v>7499</v>
+        <v>21000</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D101">
-        <v>300</v>
+        <v>1290</v>
       </c>
       <c r="E101" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -3085,147 +3187,159 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B102">
-        <v>6999</v>
+        <v>10499</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D102">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E102" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B103">
+        <v>10499</v>
+      </c>
+      <c r="C103" t="s">
+        <v>224</v>
       </c>
       <c r="D103">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="E103" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104">
-        <v>8999</v>
+        <v>10998</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D104">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>5499</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D105">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="E105" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B106">
-        <v>5999</v>
+        <v>11499</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>226</v>
+      </c>
+      <c r="D106">
+        <v>600</v>
       </c>
       <c r="E106" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B107">
-        <v>6999</v>
+        <v>7999</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D107">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="E107" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B108">
-        <v>12899</v>
+        <v>9999</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>223</v>
+      </c>
+      <c r="D108">
+        <v>700</v>
       </c>
       <c r="E108" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B109">
-        <v>13499</v>
+        <v>7999</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D109">
-        <v>1000</v>
+        <v>1312</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -3233,42 +3347,42 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B110">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D110">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B111">
-        <v>6499</v>
+        <v>6999</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D111">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E111" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,127 +3390,136 @@
         <v>95</v>
       </c>
       <c r="B112">
-        <v>9399</v>
+        <v>6499</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>201</v>
+      </c>
+      <c r="D112">
+        <v>650</v>
       </c>
       <c r="E112" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B113">
-        <v>9499</v>
+        <v>10999</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D113">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E113" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114">
-        <v>12999</v>
+        <v>10999</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>225</v>
+      </c>
+      <c r="D114">
+        <v>600</v>
       </c>
       <c r="E114" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B115">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>223</v>
+      </c>
+      <c r="D115">
+        <v>600</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>11999</v>
       </c>
       <c r="C116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D116">
-        <v>1290</v>
+        <v>750</v>
       </c>
       <c r="E116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F116">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B117">
-        <v>10499</v>
+        <v>6499</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D117">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="E117" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B118">
-        <v>10499</v>
+        <v>9399</v>
       </c>
       <c r="C118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D118">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E118" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3404,19 +3527,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119">
-        <v>10998</v>
+        <v>12999</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D119">
         <v>600</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3427,19 +3550,19 @@
         <v>102</v>
       </c>
       <c r="B120">
-        <v>5499</v>
+        <v>9499</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D120">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3447,16 +3570,16 @@
         <v>103</v>
       </c>
       <c r="B121">
-        <v>11499</v>
+        <v>13999</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D121">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3467,16 +3590,16 @@
         <v>104</v>
       </c>
       <c r="B122">
-        <v>7999</v>
+        <v>5999</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D122">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E122" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -3484,19 +3607,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B123">
-        <v>9999</v>
+        <v>13999</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D123">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3504,56 +3627,59 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B124">
-        <v>7999</v>
+        <v>13999</v>
       </c>
       <c r="C124" t="s">
-        <v>207</v>
+        <v>215</v>
+      </c>
+      <c r="D124">
+        <v>750</v>
       </c>
       <c r="E124" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B125">
-        <v>6999</v>
+        <v>8499</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D125">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="E125" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B126">
-        <v>6999</v>
+        <v>13299</v>
       </c>
       <c r="C126" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="D126">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3561,19 +3687,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B127">
-        <v>6499</v>
+        <v>10499</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D127">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3581,19 +3707,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="B128">
-        <v>10999</v>
+        <v>13999</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D128">
         <v>600</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3601,19 +3727,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B129">
-        <v>10999</v>
+        <v>14499</v>
       </c>
       <c r="C129" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D129">
         <v>600</v>
       </c>
       <c r="E129" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3621,19 +3747,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B130">
-        <v>9999</v>
+        <v>10999</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D130">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3641,19 +3767,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B131">
-        <v>11999</v>
+        <v>13999</v>
       </c>
       <c r="C131" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D131">
         <v>750</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3664,13 +3790,16 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>6499</v>
+        <v>10499</v>
       </c>
       <c r="C132" t="s">
-        <v>200</v>
+        <v>224</v>
+      </c>
+      <c r="D132">
+        <v>900</v>
       </c>
       <c r="E132" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -3681,19 +3810,19 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>9399</v>
+        <v>8999</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D133">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3701,19 +3830,19 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>12999</v>
+        <v>2999</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D134">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="E134" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3721,16 +3850,16 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>9499</v>
+        <v>10499</v>
       </c>
       <c r="C135" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D135">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E135" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -3741,16 +3870,16 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>13999</v>
+        <v>7999</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D136">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E136" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3761,16 +3890,19 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>5999</v>
+        <v>13999</v>
       </c>
       <c r="C137" t="s">
-        <v>198</v>
+        <v>215</v>
+      </c>
+      <c r="D137">
+        <v>600</v>
       </c>
       <c r="E137" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3778,36 +3910,36 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>13999</v>
+        <v>4499</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D138">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E138" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B139">
-        <v>13999</v>
+        <v>10999</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D139">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E139" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3818,36 +3950,36 @@
         <v>117</v>
       </c>
       <c r="B140">
-        <v>8499</v>
+        <v>12999</v>
       </c>
       <c r="C140" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D140">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B141">
-        <v>13299</v>
+        <v>10499</v>
       </c>
       <c r="C141" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D141">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E141" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3858,16 +3990,16 @@
         <v>118</v>
       </c>
       <c r="B142">
-        <v>10499</v>
+        <v>9199</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D142">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E142" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3875,19 +4007,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B143">
-        <v>13999</v>
+        <v>14499</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D143">
         <v>600</v>
       </c>
       <c r="E143" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3898,16 +4030,16 @@
         <v>119</v>
       </c>
       <c r="B144">
-        <v>14499</v>
+        <v>13999</v>
       </c>
       <c r="C144" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="D144">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E144" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3915,19 +4047,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B145">
-        <v>10999</v>
+        <v>14299</v>
       </c>
       <c r="C145" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D145">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E145" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3935,19 +4067,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B146">
-        <v>13999</v>
+        <v>12999</v>
       </c>
       <c r="C146" t="s">
         <v>214</v>
       </c>
       <c r="D146">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E146" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3955,10 +4087,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B147">
-        <v>10499</v>
+        <v>9999</v>
       </c>
       <c r="C147" t="s">
         <v>223</v>
@@ -3967,7 +4099,7 @@
         <v>900</v>
       </c>
       <c r="E147" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -3975,33 +4107,39 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B148">
-        <v>8999</v>
+        <v>11999</v>
       </c>
       <c r="C148" t="s">
-        <v>212</v>
+        <v>218</v>
+      </c>
+      <c r="D148">
+        <v>1000</v>
       </c>
       <c r="E148" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B149">
-        <v>2999</v>
+        <v>5999</v>
       </c>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>199</v>
+      </c>
+      <c r="D149">
+        <v>125</v>
       </c>
       <c r="E149" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -4009,39 +4147,39 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B150">
-        <v>10499</v>
+        <v>11499</v>
       </c>
       <c r="C150" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D150">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E150" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B151">
-        <v>7999</v>
+        <v>14499</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D151">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="E151" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4049,79 +4187,79 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B152">
-        <v>13999</v>
+        <v>9999</v>
       </c>
       <c r="C152" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D152">
         <v>600</v>
       </c>
       <c r="E152" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B153">
-        <v>4499</v>
+        <v>11999</v>
       </c>
       <c r="C153" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D153">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="E153" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B154">
-        <v>10999</v>
+        <v>6999</v>
       </c>
       <c r="C154" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D154">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E154" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B155">
-        <v>12999</v>
+        <v>8499</v>
       </c>
       <c r="C155" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D155">
-        <v>1000</v>
+        <v>1312</v>
       </c>
       <c r="E155" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -4129,19 +4267,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B156">
-        <v>10499</v>
+        <v>7999</v>
       </c>
       <c r="C156" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D156">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4149,19 +4287,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B157">
-        <v>9199</v>
+        <v>12999</v>
       </c>
       <c r="C157" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D157">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="E157" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4169,79 +4307,79 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="B158">
-        <v>14499</v>
+        <v>7499</v>
       </c>
       <c r="C158" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D158">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E158" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B159">
-        <v>13999</v>
+        <v>8999</v>
       </c>
       <c r="C159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D159">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="E159" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B160">
-        <v>14299</v>
+        <v>7999</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D160">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E160" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B161">
-        <v>12999</v>
+        <v>13999</v>
       </c>
       <c r="C161" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D161">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E161" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4252,19 +4390,19 @@
         <v>131</v>
       </c>
       <c r="B162">
-        <v>9999</v>
+        <v>10999</v>
       </c>
       <c r="C162" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D162">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E162" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4272,19 +4410,19 @@
         <v>132</v>
       </c>
       <c r="B163">
-        <v>11999</v>
+        <v>12499</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D163">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E163" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F163">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4292,76 +4430,79 @@
         <v>133</v>
       </c>
       <c r="B164">
-        <v>5999</v>
+        <v>8999</v>
       </c>
       <c r="C164" t="s">
-        <v>198</v>
+        <v>213</v>
+      </c>
+      <c r="D164">
+        <v>501</v>
       </c>
       <c r="E164" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B165">
-        <v>11499</v>
+        <v>12995</v>
       </c>
       <c r="C165" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D165">
-        <v>600</v>
+        <v>765</v>
       </c>
       <c r="E165" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B166">
-        <v>14499</v>
+        <v>17599</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="D166">
-        <v>1300</v>
+        <v>998</v>
       </c>
       <c r="E166" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B167">
-        <v>9999</v>
+        <v>17599</v>
       </c>
       <c r="C167" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D167">
-        <v>600</v>
+        <v>998</v>
       </c>
       <c r="E167" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4369,16 +4510,16 @@
         <v>135</v>
       </c>
       <c r="B168">
-        <v>11999</v>
+        <v>28999</v>
       </c>
       <c r="C168" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="D168">
-        <v>660</v>
+        <v>999</v>
       </c>
       <c r="E168" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4389,16 +4530,16 @@
         <v>136</v>
       </c>
       <c r="B169">
-        <v>12999</v>
+        <v>9799</v>
       </c>
       <c r="C169" t="s">
-        <v>213</v>
+        <v>232</v>
+      </c>
+      <c r="D169">
+        <v>450</v>
       </c>
       <c r="E169" t="s">
-        <v>238</v>
-      </c>
-      <c r="F169">
-        <v>3</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4406,19 +4547,16 @@
         <v>137</v>
       </c>
       <c r="B170">
-        <v>6999</v>
+        <v>14999</v>
       </c>
       <c r="C170" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D170">
-        <v>600</v>
+        <v>1084</v>
       </c>
       <c r="E170" t="s">
-        <v>240</v>
-      </c>
-      <c r="F170">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4426,13 +4564,16 @@
         <v>138</v>
       </c>
       <c r="B171">
-        <v>8499</v>
+        <v>19999</v>
       </c>
       <c r="C171" t="s">
-        <v>209</v>
+        <v>174</v>
+      </c>
+      <c r="D171">
+        <v>1301</v>
       </c>
       <c r="E171" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -4443,36 +4584,36 @@
         <v>139</v>
       </c>
       <c r="B172">
-        <v>7999</v>
+        <v>15495</v>
       </c>
       <c r="C172" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D172">
-        <v>500</v>
+        <v>937</v>
       </c>
       <c r="E172" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="B173">
-        <v>12999</v>
+        <v>18499</v>
       </c>
       <c r="C173" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="D173">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4480,219 +4621,207 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B174">
-        <v>7499</v>
+        <v>17995</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D174">
-        <v>700</v>
+        <v>937</v>
       </c>
       <c r="E174" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B175">
-        <v>8999</v>
+        <v>18499</v>
       </c>
       <c r="C175" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="D175">
-        <v>750</v>
+        <v>999</v>
       </c>
       <c r="E175" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B176">
-        <v>7999</v>
+        <v>9699</v>
       </c>
       <c r="C176" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D176">
-        <v>700</v>
+        <v>449</v>
       </c>
       <c r="E176" t="s">
-        <v>240</v>
-      </c>
-      <c r="F176">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="B177">
-        <v>13999</v>
+        <v>17995</v>
       </c>
       <c r="C177" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="D177">
-        <v>750</v>
+        <v>937</v>
       </c>
       <c r="E177" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B178">
-        <v>10999</v>
+        <v>14999</v>
       </c>
       <c r="C178" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="D178">
-        <v>600</v>
+        <v>1084</v>
       </c>
       <c r="E178" t="s">
-        <v>237</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B179">
-        <v>12499</v>
+        <v>19999</v>
       </c>
       <c r="C179" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="D179">
-        <v>700</v>
+        <v>1301</v>
       </c>
       <c r="E179" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B180">
-        <v>8999</v>
+        <v>25995</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D180">
-        <v>501</v>
+        <v>1158</v>
       </c>
       <c r="E180" t="s">
-        <v>242</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B181">
-        <v>12995</v>
+        <v>9799</v>
       </c>
       <c r="C181" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D181">
-        <v>765</v>
+        <v>450</v>
       </c>
       <c r="E181" t="s">
-        <v>240</v>
-      </c>
-      <c r="F181">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B182">
-        <v>17599</v>
+        <v>12995</v>
       </c>
       <c r="C182" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D182">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E182" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="B183">
-        <v>17599</v>
+        <v>12499</v>
       </c>
       <c r="C183" t="s">
         <v>230</v>
       </c>
       <c r="D183">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E183" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B184">
         <v>28999</v>
       </c>
       <c r="C184" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D184">
         <v>999</v>
       </c>
       <c r="E184" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4700,73 +4829,76 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B185">
-        <v>9799</v>
+        <v>14999</v>
       </c>
       <c r="C185" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D185">
-        <v>450</v>
+        <v>1084</v>
       </c>
       <c r="E185" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="B186">
-        <v>14999</v>
+        <v>17399</v>
       </c>
       <c r="C186" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D186">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="E186" t="s">
         <v>244</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B187">
-        <v>19999</v>
+        <v>17995</v>
       </c>
       <c r="C187" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D187">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E187" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B188">
-        <v>15495</v>
+        <v>12995</v>
       </c>
       <c r="C188" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="D188">
-        <v>937</v>
+        <v>765</v>
       </c>
       <c r="E188" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -4774,124 +4906,121 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B189">
-        <v>18499</v>
+        <v>12995</v>
       </c>
       <c r="C189" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="D189">
-        <v>999</v>
+        <v>765</v>
       </c>
       <c r="E189" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B190">
-        <v>17995</v>
+        <v>20995</v>
       </c>
       <c r="C190" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D190">
-        <v>937</v>
+        <v>1254</v>
       </c>
       <c r="E190" t="s">
-        <v>242</v>
-      </c>
-      <c r="F190">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B191">
-        <v>18499</v>
+        <v>12499</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D191">
-        <v>999</v>
+        <v>692</v>
       </c>
       <c r="E191" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B192">
-        <v>9699</v>
+        <v>11299</v>
       </c>
       <c r="C192" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D192">
         <v>449</v>
       </c>
       <c r="E192" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B193">
-        <v>17995</v>
+        <v>13999</v>
       </c>
       <c r="C193" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D193">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E193" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B194">
-        <v>14999</v>
+        <v>9699</v>
       </c>
       <c r="C194" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="D194">
-        <v>1084</v>
+        <v>449</v>
       </c>
       <c r="E194" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B195">
-        <v>19999</v>
+        <v>20999</v>
       </c>
       <c r="C195" t="s">
         <v>172</v>
@@ -4900,44 +5029,44 @@
         <v>1301</v>
       </c>
       <c r="E195" t="s">
-        <v>240</v>
-      </c>
-      <c r="F195">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B196">
-        <v>25995</v>
+        <v>12499</v>
       </c>
       <c r="C196" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D196">
-        <v>1158</v>
+        <v>692</v>
       </c>
       <c r="E196" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B197">
-        <v>9799</v>
+        <v>9699</v>
       </c>
       <c r="C197" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D197">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E197" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,383 +5074,395 @@
         <v>146</v>
       </c>
       <c r="B198">
-        <v>12995</v>
+        <v>12399</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D198">
-        <v>765</v>
+        <v>690</v>
       </c>
       <c r="E198" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B199">
-        <v>12499</v>
+        <v>9699</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D199">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E199" t="s">
-        <v>242</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B200">
-        <v>28999</v>
+        <v>9799</v>
       </c>
       <c r="C200" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="D200">
-        <v>999</v>
+        <v>450</v>
       </c>
       <c r="E200" t="s">
-        <v>237</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B201">
-        <v>14999</v>
+        <v>8999</v>
       </c>
       <c r="C201" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="D201">
-        <v>1084</v>
+        <v>501</v>
       </c>
       <c r="E201" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B202">
-        <v>17399</v>
+        <v>19999</v>
       </c>
       <c r="C202" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="D202">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E202" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B203">
-        <v>17995</v>
+        <v>9599</v>
       </c>
       <c r="C203" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D203">
-        <v>937</v>
+        <v>449</v>
       </c>
       <c r="E203" t="s">
-        <v>242</v>
-      </c>
-      <c r="F203">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B204">
-        <v>12995</v>
+        <v>9599</v>
       </c>
       <c r="C204" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D204">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="E204" t="s">
-        <v>240</v>
-      </c>
-      <c r="F204">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B205">
-        <v>12995</v>
+        <v>12499</v>
       </c>
       <c r="C205" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D205">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E205" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B206">
-        <v>20995</v>
+        <v>17599</v>
       </c>
       <c r="C206" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="D206">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E206" t="s">
         <v>244</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B207">
-        <v>12499</v>
+        <v>12995</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D207">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="E207" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B208">
-        <v>11299</v>
+        <v>12499</v>
       </c>
       <c r="C208" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D208">
-        <v>449</v>
+        <v>692</v>
       </c>
       <c r="E208" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B209">
-        <v>13999</v>
+        <v>17599</v>
       </c>
       <c r="C209" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D209">
         <v>998</v>
       </c>
       <c r="E209" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B210">
-        <v>9699</v>
+        <v>17995</v>
       </c>
       <c r="C210" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="D210">
-        <v>449</v>
+        <v>937</v>
       </c>
       <c r="E210" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B211">
-        <v>20999</v>
+        <v>15495</v>
       </c>
       <c r="C211" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D211">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E211" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B212">
-        <v>12499</v>
+        <v>15495</v>
       </c>
       <c r="C212" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D212">
-        <v>692</v>
+        <v>937</v>
       </c>
       <c r="E212" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="B213">
-        <v>9699</v>
+        <v>18499</v>
       </c>
       <c r="C213" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="D213">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B214">
-        <v>12399</v>
+        <v>28999</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D214">
-        <v>690</v>
+        <v>999</v>
       </c>
       <c r="E214" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="B215">
-        <v>9699</v>
+        <v>18499</v>
       </c>
       <c r="C215" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="D215">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E215" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B216">
-        <v>9799</v>
+        <v>8999</v>
       </c>
       <c r="C216" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D216">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="E216" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B217">
-        <v>8999</v>
+        <v>13999</v>
       </c>
       <c r="C217" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D217">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E217" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B218">
-        <v>19999</v>
+        <v>20999</v>
       </c>
       <c r="C218" t="s">
         <v>172</v>
@@ -5330,121 +5471,121 @@
         <v>1301</v>
       </c>
       <c r="E218" t="s">
-        <v>240</v>
-      </c>
-      <c r="F218">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B219">
-        <v>9599</v>
+        <v>12499</v>
       </c>
       <c r="C219" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D219">
-        <v>449</v>
+        <v>692</v>
       </c>
       <c r="E219" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B220">
-        <v>9599</v>
+        <v>12499</v>
       </c>
       <c r="C220" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D220">
-        <v>449</v>
+        <v>692</v>
       </c>
       <c r="E220" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B221">
-        <v>12499</v>
+        <v>14999</v>
       </c>
       <c r="C221" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="D221">
-        <v>692</v>
+        <v>1084</v>
       </c>
       <c r="E221" t="s">
-        <v>242</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="B222">
-        <v>17599</v>
+        <v>19999</v>
       </c>
       <c r="C222" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="D222">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E222" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B223">
-        <v>12995</v>
+        <v>12499</v>
       </c>
       <c r="C223" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D223">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E223" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B224">
-        <v>12499</v>
+        <v>12399</v>
       </c>
       <c r="C224" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D224">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E224" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -5452,19 +5593,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B225">
-        <v>17599</v>
+        <v>17399</v>
       </c>
       <c r="C225" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D225">
         <v>998</v>
       </c>
       <c r="E225" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -5472,59 +5613,59 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B226">
-        <v>17995</v>
+        <v>19999</v>
       </c>
       <c r="C226" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D226">
-        <v>937</v>
+        <v>1301</v>
       </c>
       <c r="E226" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B227">
-        <v>15495</v>
+        <v>28999</v>
       </c>
       <c r="C227" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D227">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E227" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="B228">
-        <v>15495</v>
+        <v>13999</v>
       </c>
       <c r="C228" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D228">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E228" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -5532,59 +5673,56 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B229">
-        <v>18499</v>
+        <v>9599</v>
       </c>
       <c r="C229" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="D229">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E229" t="s">
-        <v>237</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="B230">
-        <v>28999</v>
+        <v>13999</v>
       </c>
       <c r="C230" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="D230">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E230" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B231">
-        <v>18499</v>
+        <v>17399</v>
       </c>
       <c r="C231" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="D231">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E231" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -5592,76 +5730,79 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B232">
-        <v>8999</v>
+        <v>19999</v>
       </c>
       <c r="C232" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="D232">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E232" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B233">
-        <v>13999</v>
+        <v>12499</v>
       </c>
       <c r="C233" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D233">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E233" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="B234">
-        <v>20999</v>
+        <v>13999</v>
       </c>
       <c r="C234" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D234">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E234" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B235">
-        <v>12499</v>
+        <v>12399</v>
       </c>
       <c r="C235" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D235">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E235" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -5669,19 +5810,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B236">
-        <v>12499</v>
+        <v>17995</v>
       </c>
       <c r="C236" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D236">
-        <v>692</v>
+        <v>937</v>
       </c>
       <c r="E236" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -5689,116 +5830,110 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B237">
         <v>14999</v>
       </c>
       <c r="C237" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D237">
         <v>1084</v>
       </c>
       <c r="E237" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="B238">
-        <v>19999</v>
+        <v>17399</v>
       </c>
       <c r="C238" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="D238">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E238" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B239">
-        <v>12499</v>
+        <v>20995</v>
       </c>
       <c r="C239" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="D239">
-        <v>692</v>
+        <v>1254</v>
       </c>
       <c r="E239" t="s">
-        <v>242</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B240">
-        <v>12399</v>
+        <v>19999</v>
       </c>
       <c r="C240" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="D240">
-        <v>690</v>
+        <v>1301</v>
       </c>
       <c r="E240" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B241">
-        <v>17399</v>
+        <v>9799</v>
       </c>
       <c r="C241" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D241">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E241" t="s">
-        <v>237</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B242">
         <v>19999</v>
       </c>
       <c r="C242" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D242">
         <v>1301</v>
       </c>
       <c r="E242" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -5806,19 +5941,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B243">
-        <v>28999</v>
+        <v>18499</v>
       </c>
       <c r="C243" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="D243">
         <v>999</v>
       </c>
       <c r="E243" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -5826,19 +5961,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B244">
         <v>13999</v>
       </c>
       <c r="C244" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D244">
         <v>998</v>
       </c>
       <c r="E244" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F244">
         <v>2</v>
@@ -5846,36 +5981,36 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B245">
-        <v>9599</v>
+        <v>20999</v>
       </c>
       <c r="C245" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D245">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E245" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B246">
-        <v>13999</v>
+        <v>15495</v>
       </c>
       <c r="C246" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="D246">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E246" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -5883,30 +6018,27 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="B247">
-        <v>17399</v>
+        <v>9699</v>
       </c>
       <c r="C247" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D247">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E247" t="s">
-        <v>237</v>
-      </c>
-      <c r="F247">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B248">
-        <v>19999</v>
+        <v>20999</v>
       </c>
       <c r="C248" t="s">
         <v>172</v>
@@ -5915,605 +6047,602 @@
         <v>1301</v>
       </c>
       <c r="E248" t="s">
-        <v>240</v>
-      </c>
-      <c r="F248">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B249">
-        <v>12499</v>
+        <v>9599</v>
       </c>
       <c r="C249" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D249">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E249" t="s">
-        <v>242</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B250">
-        <v>13999</v>
+        <v>17599</v>
       </c>
       <c r="C250" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D250">
         <v>998</v>
       </c>
       <c r="E250" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B251">
-        <v>12399</v>
+        <v>12995</v>
       </c>
       <c r="C251" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D251">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="E251" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B252">
-        <v>17995</v>
+        <v>9699</v>
       </c>
       <c r="C252" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="D252">
-        <v>937</v>
+        <v>449</v>
       </c>
       <c r="E252" t="s">
-        <v>242</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="B253">
-        <v>14999</v>
+        <v>18499</v>
       </c>
       <c r="C253" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D253">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="E253" t="s">
         <v>244</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B254">
-        <v>17399</v>
+        <v>25995</v>
       </c>
       <c r="C254" t="s">
         <v>234</v>
       </c>
       <c r="D254">
-        <v>998</v>
+        <v>1158</v>
       </c>
       <c r="E254" t="s">
-        <v>237</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="B255">
-        <v>20995</v>
+        <v>17399</v>
       </c>
       <c r="C255" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="D255">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E255" t="s">
         <v>244</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="B256">
-        <v>19999</v>
+        <v>17599</v>
       </c>
       <c r="C256" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D256">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E256" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B257">
-        <v>9799</v>
+        <v>9599</v>
       </c>
       <c r="C257" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D257">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E257" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B258">
-        <v>19999</v>
+        <v>11299</v>
       </c>
       <c r="C258" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="D258">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E258" t="s">
-        <v>240</v>
-      </c>
-      <c r="F258">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B259">
-        <v>18499</v>
+        <v>9599</v>
       </c>
       <c r="C259" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="D259">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E259" t="s">
-        <v>237</v>
-      </c>
-      <c r="F259">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B260">
-        <v>13999</v>
+        <v>20999</v>
       </c>
       <c r="C260" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D260">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E260" t="s">
-        <v>240</v>
-      </c>
-      <c r="F260">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B261">
-        <v>20999</v>
+        <v>25995</v>
       </c>
       <c r="C261" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="D261">
-        <v>1301</v>
+        <v>1158</v>
       </c>
       <c r="E261" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B262">
-        <v>15495</v>
+        <v>8999</v>
       </c>
       <c r="C262" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="D262">
-        <v>937</v>
+        <v>501</v>
       </c>
       <c r="E262" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="B263">
-        <v>9699</v>
+        <v>17399</v>
       </c>
       <c r="C263" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D263">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E263" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B264">
-        <v>20999</v>
+        <v>12995</v>
       </c>
       <c r="C264" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D264">
-        <v>1301</v>
+        <v>765</v>
       </c>
       <c r="E264" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F264">
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B265">
-        <v>9599</v>
+        <v>8999</v>
       </c>
       <c r="C265" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D265">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="E265" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B266">
-        <v>17599</v>
+        <v>12399</v>
       </c>
       <c r="C266" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D266">
-        <v>998</v>
+        <v>690</v>
       </c>
       <c r="E266" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B267">
-        <v>12995</v>
+        <v>20995</v>
       </c>
       <c r="C267" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="D267">
-        <v>765</v>
+        <v>1254</v>
       </c>
       <c r="E267" t="s">
-        <v>240</v>
-      </c>
-      <c r="F267">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="B268">
-        <v>9699</v>
+        <v>17399</v>
       </c>
       <c r="C268" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D268">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E268" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B269">
-        <v>18499</v>
+        <v>9799</v>
       </c>
       <c r="C269" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D269">
-        <v>999</v>
+        <v>450</v>
       </c>
       <c r="E269" t="s">
-        <v>237</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B270">
-        <v>25995</v>
+        <v>9599</v>
       </c>
       <c r="C270" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D270">
-        <v>1158</v>
+        <v>449</v>
       </c>
       <c r="E270" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="B271">
-        <v>17399</v>
+        <v>9599</v>
       </c>
       <c r="C271" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D271">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E271" t="s">
-        <v>237</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B272">
-        <v>17599</v>
+        <v>9799</v>
       </c>
       <c r="C272" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D272">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E272" t="s">
-        <v>237</v>
-      </c>
-      <c r="F272">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B273">
-        <v>9599</v>
+        <v>12399</v>
       </c>
       <c r="C273" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D273">
-        <v>449</v>
+        <v>690</v>
       </c>
       <c r="E273" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B274">
-        <v>11299</v>
+        <v>12995</v>
       </c>
       <c r="C274" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D274">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="E274" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="B275">
-        <v>9599</v>
+        <v>18499</v>
       </c>
       <c r="C275" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D275">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E275" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="B276">
-        <v>20999</v>
+        <v>13999</v>
       </c>
       <c r="C276" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D276">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E276" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B277">
-        <v>25995</v>
+        <v>17995</v>
       </c>
       <c r="C277" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="D277">
-        <v>1158</v>
+        <v>937</v>
       </c>
       <c r="E277" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B278">
-        <v>8999</v>
+        <v>9799</v>
       </c>
       <c r="C278" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="D278">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="E278" t="s">
-        <v>242</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="B279">
-        <v>17399</v>
+        <v>12995</v>
       </c>
       <c r="C279" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D279">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E279" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B280">
-        <v>12995</v>
+        <v>19999</v>
       </c>
       <c r="C280" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="D280">
-        <v>765</v>
+        <v>1301</v>
       </c>
       <c r="E280" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -6521,301 +6650,295 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="B281">
-        <v>8999</v>
+        <v>18499</v>
       </c>
       <c r="C281" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="D281">
-        <v>501</v>
+        <v>999</v>
       </c>
       <c r="E281" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B282">
-        <v>12399</v>
+        <v>25995</v>
       </c>
       <c r="C282" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="D282">
-        <v>690</v>
+        <v>1158</v>
       </c>
       <c r="E282" t="s">
-        <v>242</v>
-      </c>
-      <c r="F282">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B283">
-        <v>20995</v>
+        <v>17599</v>
       </c>
       <c r="C283" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="D283">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E283" t="s">
         <v>244</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B284">
-        <v>17399</v>
+        <v>17995</v>
       </c>
       <c r="C284" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="D284">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E284" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B285">
-        <v>9799</v>
+        <v>14999</v>
       </c>
       <c r="C285" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D285">
-        <v>450</v>
+        <v>1084</v>
       </c>
       <c r="E285" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="B286">
-        <v>9599</v>
+        <v>13999</v>
       </c>
       <c r="C286" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D286">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E286" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B287">
-        <v>9599</v>
+        <v>17995</v>
       </c>
       <c r="C287" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="D287">
-        <v>449</v>
+        <v>937</v>
       </c>
       <c r="E287" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B288">
-        <v>9799</v>
+        <v>20995</v>
       </c>
       <c r="C288" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="D288">
-        <v>450</v>
+        <v>1254</v>
       </c>
       <c r="E288" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="B289">
-        <v>12399</v>
+        <v>17599</v>
       </c>
       <c r="C289" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D289">
-        <v>690</v>
+        <v>998</v>
       </c>
       <c r="E289" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B290">
-        <v>12995</v>
+        <v>25995</v>
       </c>
       <c r="C290" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D290">
-        <v>765</v>
+        <v>1158</v>
       </c>
       <c r="E290" t="s">
-        <v>240</v>
-      </c>
-      <c r="F290">
-        <v>2</v>
+        <v>250</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="B291">
-        <v>18499</v>
+        <v>20999</v>
       </c>
       <c r="C291" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D291">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E291" t="s">
-        <v>237</v>
-      </c>
-      <c r="F291">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B292">
-        <v>13999</v>
+        <v>8999</v>
       </c>
       <c r="C292" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D292">
-        <v>998</v>
+        <v>501</v>
       </c>
       <c r="E292" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B293">
-        <v>17995</v>
+        <v>14999</v>
       </c>
       <c r="C293" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D293">
-        <v>937</v>
+        <v>1084</v>
       </c>
       <c r="E293" t="s">
-        <v>242</v>
-      </c>
-      <c r="F293">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B294">
-        <v>9799</v>
+        <v>20999</v>
       </c>
       <c r="C294" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="D294">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E294" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B295">
-        <v>12995</v>
+        <v>9699</v>
       </c>
       <c r="C295" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D295">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="E295" t="s">
-        <v>240</v>
-      </c>
-      <c r="F295">
-        <v>2</v>
+        <v>249</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B296">
-        <v>19999</v>
+        <v>12995</v>
       </c>
       <c r="C296" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="D296">
-        <v>1301</v>
+        <v>765</v>
       </c>
       <c r="E296" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F296">
         <v>2</v>
@@ -6823,76 +6946,76 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="B297">
-        <v>18499</v>
+        <v>14999</v>
       </c>
       <c r="C297" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D297">
-        <v>999</v>
+        <v>1084</v>
       </c>
       <c r="E297" t="s">
-        <v>237</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B298">
-        <v>25995</v>
+        <v>19999</v>
       </c>
       <c r="C298" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="D298">
-        <v>1158</v>
+        <v>1301</v>
       </c>
       <c r="E298" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="B299">
-        <v>17599</v>
+        <v>19999</v>
       </c>
       <c r="C299" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="D299">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E299" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B300">
-        <v>17995</v>
+        <v>8999</v>
       </c>
       <c r="C300" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="D300">
-        <v>937</v>
+        <v>501</v>
       </c>
       <c r="E300" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -6900,93 +7023,96 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="B301">
-        <v>14999</v>
+        <v>13999</v>
       </c>
       <c r="C301" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="D301">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="E301" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B302">
-        <v>13999</v>
+        <v>28999</v>
       </c>
       <c r="C302" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="D302">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E302" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="B303">
-        <v>17995</v>
+        <v>13999</v>
       </c>
       <c r="C303" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D303">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E303" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B304">
         <v>20995</v>
       </c>
       <c r="C304" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D304">
         <v>1254</v>
       </c>
       <c r="E304" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B305">
-        <v>17599</v>
+        <v>18499</v>
       </c>
       <c r="C305" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="D305">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E305" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -6994,164 +7120,176 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B306">
-        <v>25995</v>
+        <v>28999</v>
       </c>
       <c r="C306" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="D306">
-        <v>1158</v>
+        <v>999</v>
       </c>
       <c r="E306" t="s">
         <v>244</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B307">
         <v>20999</v>
       </c>
       <c r="C307" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D307">
         <v>1301</v>
       </c>
       <c r="E307" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B308">
-        <v>8999</v>
+        <v>17399</v>
       </c>
       <c r="C308" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="D308">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E308" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B309">
-        <v>14999</v>
+        <v>28999</v>
       </c>
       <c r="C309" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D309">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="E309" t="s">
         <v>244</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B310">
-        <v>20999</v>
+        <v>19999</v>
       </c>
       <c r="C310" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D310">
         <v>1301</v>
       </c>
       <c r="E310" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="F310">
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B311">
-        <v>9699</v>
+        <v>9799</v>
       </c>
       <c r="C311" t="s">
         <v>232</v>
       </c>
       <c r="D311">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E311" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B312">
-        <v>12995</v>
+        <v>28999</v>
       </c>
       <c r="C312" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="D312">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E312" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B313">
-        <v>14999</v>
+        <v>13000</v>
       </c>
       <c r="C313" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D313">
-        <v>1084</v>
+        <v>890</v>
       </c>
       <c r="E313" t="s">
         <v>244</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B314">
-        <v>19999</v>
+        <v>13999</v>
       </c>
       <c r="C314" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="D314">
-        <v>1301</v>
+        <v>660</v>
       </c>
       <c r="E314" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -7159,96 +7297,96 @@
         <v>150</v>
       </c>
       <c r="B315">
-        <v>19999</v>
+        <v>9999</v>
       </c>
       <c r="C315" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D315">
-        <v>1301</v>
+        <v>975</v>
       </c>
       <c r="E315" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F315">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B316">
-        <v>8999</v>
+        <v>24395</v>
       </c>
       <c r="C316" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="D316">
-        <v>501</v>
+        <v>1802</v>
       </c>
       <c r="E316" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F316">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="B317">
-        <v>13999</v>
+        <v>20000</v>
       </c>
       <c r="C317" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="D317">
-        <v>998</v>
+        <v>1251</v>
       </c>
       <c r="E317" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F317">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B318">
-        <v>28999</v>
+        <v>24000</v>
       </c>
       <c r="C318" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D318">
-        <v>999</v>
+        <v>1250</v>
       </c>
       <c r="E318" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="B319">
-        <v>13999</v>
+        <v>13300</v>
       </c>
       <c r="C319" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D319">
-        <v>998</v>
+        <v>755</v>
       </c>
       <c r="E319" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F319">
         <v>2</v>
@@ -7259,170 +7397,159 @@
         <v>155</v>
       </c>
       <c r="B320">
-        <v>20995</v>
+        <v>4600</v>
       </c>
       <c r="C320" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="D320">
-        <v>1254</v>
+        <v>296</v>
       </c>
       <c r="E320" t="s">
-        <v>244</v>
+        <v>250</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="B321">
-        <v>18499</v>
+        <v>12500</v>
       </c>
       <c r="C321" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D321">
-        <v>999</v>
+        <v>888</v>
       </c>
       <c r="E321" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B322">
-        <v>28999</v>
+        <v>12299</v>
       </c>
       <c r="C322" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="D322">
-        <v>999</v>
+        <v>660</v>
       </c>
       <c r="E322" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B323">
-        <v>20999</v>
+        <v>6200</v>
       </c>
       <c r="C323" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="D323">
-        <v>1301</v>
+        <v>648</v>
       </c>
       <c r="E323" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="B324">
-        <v>17399</v>
+        <v>4000</v>
       </c>
       <c r="C324" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D324">
-        <v>998</v>
+        <v>310</v>
       </c>
       <c r="E324" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B325">
-        <v>28999</v>
+        <v>1700</v>
       </c>
       <c r="C325" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="D325">
-        <v>999</v>
+        <v>149</v>
       </c>
       <c r="E325" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B326">
-        <v>19999</v>
+        <v>2350</v>
       </c>
       <c r="C326" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="D326">
-        <v>1301</v>
+        <v>300</v>
       </c>
       <c r="E326" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F326">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B327">
-        <v>9799</v>
+        <v>6000</v>
       </c>
       <c r="C327" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="D327">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="E327" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>147</v>
-      </c>
-      <c r="B328">
-        <v>28999</v>
-      </c>
-      <c r="C328" t="s">
-        <v>163</v>
-      </c>
-      <c r="D328">
-        <v>999</v>
-      </c>
-      <c r="E328" t="s">
-        <v>237</v>
-      </c>
-      <c r="F328">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="F327">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071FA04E-64A7-4433-B9DF-A57BB5F0FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F2448-F5D2-459A-845B-4DB527107B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="253">
   <si>
     <t>bike_name</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>2024 Yamaha YZF-R1</t>
-  </si>
-  <si>
-    <t>2019 Slingshot SL</t>
-  </si>
-  <si>
-    <t>2022 Slingshot SL</t>
   </si>
   <si>
     <t>2024 Kawasaki ZX-10R 40th Anniversary Edition</t>
@@ -1159,16 +1153,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1199,13 +1197,13 @@
         <v>39999</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>999</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1219,13 +1217,13 @@
         <v>35999</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3">
         <v>999</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1239,13 +1237,13 @@
         <v>34999</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>998</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1259,13 +1257,13 @@
         <v>28999</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>1103</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1279,13 +1277,13 @@
         <v>27999</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>1832</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1299,13 +1297,13 @@
         <v>25499</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>999</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1319,13 +1317,13 @@
         <v>24999</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>999</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1339,13 +1337,13 @@
         <v>21499</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D9">
         <v>998</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1359,13 +1357,13 @@
         <v>20999</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>998</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1379,13 +1377,13 @@
         <v>20499</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1393,19 +1391,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>19999</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1416,13 +1417,13 @@
         <v>19999</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1430,19 +1431,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>19999</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1453,33 +1454,36 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>19999</v>
+        <v>19499</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>19999</v>
+        <v>19499</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1487,19 +1491,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>19499</v>
+        <v>18999</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1507,10 +1511,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>19499</v>
+        <v>18599</v>
       </c>
       <c r="C18" t="s">
         <v>175</v>
@@ -1519,7 +1523,7 @@
         <v>1000</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1530,16 +1534,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18999</v>
+        <v>18499</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1550,16 +1554,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>18599</v>
+        <v>18499</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20">
         <v>1000</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1570,16 +1574,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>18499</v>
+        <v>17999</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21">
-        <v>1100</v>
+        <v>959</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1590,16 +1594,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>18499</v>
+        <v>17999</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22">
         <v>1000</v>
       </c>
       <c r="E22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1607,19 +1611,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>17999</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1627,19 +1631,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>17999</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24">
         <v>1000</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1647,19 +1651,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>17999</v>
+        <v>17499</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25">
         <v>1000</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1670,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>17999</v>
+        <v>16999</v>
       </c>
       <c r="C26" t="s">
         <v>179</v>
@@ -1679,7 +1683,7 @@
         <v>1000</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1687,19 +1691,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>17499</v>
+        <v>16999</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27">
         <v>1000</v>
       </c>
       <c r="E27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1707,22 +1711,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>16999</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E28" t="s">
         <v>244</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,13 +1737,13 @@
         <v>16999</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D29">
         <v>1000</v>
       </c>
       <c r="E29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1753,16 +1757,16 @@
         <v>16999</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1773,13 +1777,13 @@
         <v>16999</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31">
         <v>1000</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1787,30 +1791,30 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>16999</v>
+        <v>16499</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E32" t="s">
         <v>244</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>16999</v>
+        <v>16297</v>
       </c>
       <c r="C33" t="s">
         <v>181</v>
@@ -1819,7 +1823,7 @@
         <v>1000</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1827,39 +1831,39 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>16499</v>
+        <v>15999</v>
       </c>
       <c r="C34" t="s">
         <v>182</v>
       </c>
       <c r="D34">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>16297</v>
+        <v>15999</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1867,19 +1871,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>15999</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D36">
         <v>1000</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1887,39 +1891,39 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>15999</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D37">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E37" t="s">
         <v>244</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>15999</v>
+        <v>15499</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38">
         <v>1000</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1930,36 +1934,36 @@
         <v>33</v>
       </c>
       <c r="B39">
-        <v>15999</v>
+        <v>15499</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>15499</v>
+        <v>15498</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40">
         <v>1000</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1967,19 +1971,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>15499</v>
+        <v>15299</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1987,19 +1991,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>15498</v>
+        <v>14999</v>
       </c>
       <c r="C42" t="s">
         <v>185</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2007,19 +2011,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B43">
-        <v>15299</v>
+        <v>14999</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>1000</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2033,13 +2037,13 @@
         <v>14999</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D44">
         <v>600</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2053,7 +2057,7 @@
         <v>14999</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45">
         <v>1000</v>
@@ -2062,24 +2066,24 @@
         <v>244</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>14999</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D46">
         <v>600</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2087,30 +2091,30 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47">
-        <v>14999</v>
+        <v>14899</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>14999</v>
+        <v>14499</v>
       </c>
       <c r="C48" t="s">
         <v>187</v>
@@ -2119,7 +2123,7 @@
         <v>600</v>
       </c>
       <c r="E48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2130,19 +2134,19 @@
         <v>39</v>
       </c>
       <c r="B49">
-        <v>14899</v>
+        <v>2599</v>
       </c>
       <c r="C49" t="s">
         <v>188</v>
       </c>
       <c r="D49">
-        <v>1400</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
         <v>244</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,19 +2154,19 @@
         <v>40</v>
       </c>
       <c r="B50">
-        <v>14499</v>
+        <v>2999</v>
       </c>
       <c r="C50" t="s">
         <v>189</v>
       </c>
       <c r="D50">
-        <v>600</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
         <v>244</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2170,16 +2174,16 @@
         <v>41</v>
       </c>
       <c r="B51">
-        <v>2599</v>
+        <v>3999</v>
       </c>
       <c r="C51" t="s">
         <v>190</v>
       </c>
       <c r="D51">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="E51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -2190,16 +2194,16 @@
         <v>42</v>
       </c>
       <c r="B52">
-        <v>2999</v>
+        <v>4299</v>
       </c>
       <c r="C52" t="s">
         <v>191</v>
       </c>
       <c r="D52">
-        <v>135</v>
+        <v>950</v>
       </c>
       <c r="E52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2210,16 +2214,16 @@
         <v>43</v>
       </c>
       <c r="B53">
-        <v>3999</v>
+        <v>4499</v>
       </c>
       <c r="C53" t="s">
         <v>192</v>
       </c>
       <c r="D53">
-        <v>300</v>
+        <v>675</v>
       </c>
       <c r="E53" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -2230,16 +2234,16 @@
         <v>44</v>
       </c>
       <c r="B54">
-        <v>4299</v>
+        <v>4999</v>
       </c>
       <c r="C54" t="s">
         <v>193</v>
       </c>
       <c r="D54">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -2250,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="B55">
-        <v>4499</v>
+        <v>5499</v>
       </c>
       <c r="C55" t="s">
         <v>194</v>
       </c>
       <c r="D55">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2270,16 +2274,16 @@
         <v>46</v>
       </c>
       <c r="B56">
-        <v>4999</v>
+        <v>5687</v>
       </c>
       <c r="C56" t="s">
         <v>195</v>
       </c>
       <c r="D56">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -2290,16 +2294,16 @@
         <v>47</v>
       </c>
       <c r="B57">
-        <v>5499</v>
+        <v>5799</v>
       </c>
       <c r="C57" t="s">
         <v>196</v>
       </c>
       <c r="D57">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2310,16 +2314,16 @@
         <v>48</v>
       </c>
       <c r="B58">
-        <v>5687</v>
+        <v>5999</v>
       </c>
       <c r="C58" t="s">
         <v>197</v>
       </c>
       <c r="D58">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2330,16 +2334,16 @@
         <v>49</v>
       </c>
       <c r="B59">
-        <v>5799</v>
+        <v>6299</v>
       </c>
       <c r="C59" t="s">
         <v>198</v>
       </c>
       <c r="D59">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2347,42 +2351,42 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60">
-        <v>5999</v>
+        <v>6499</v>
       </c>
       <c r="C60" t="s">
         <v>199</v>
       </c>
       <c r="D60">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>6299</v>
+        <v>6999</v>
       </c>
       <c r="C61" t="s">
         <v>200</v>
       </c>
       <c r="D61">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E61" t="s">
         <v>244</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2390,19 +2394,19 @@
         <v>51</v>
       </c>
       <c r="B62">
-        <v>6499</v>
+        <v>7199</v>
       </c>
       <c r="C62" t="s">
         <v>201</v>
       </c>
       <c r="D62">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E62" t="s">
         <v>244</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2410,19 +2414,19 @@
         <v>52</v>
       </c>
       <c r="B63">
-        <v>6999</v>
+        <v>7299</v>
       </c>
       <c r="C63" t="s">
         <v>202</v>
       </c>
       <c r="D63">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E63" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2430,19 +2434,19 @@
         <v>53</v>
       </c>
       <c r="B64">
-        <v>7199</v>
+        <v>7499</v>
       </c>
       <c r="C64" t="s">
         <v>203</v>
       </c>
       <c r="D64">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,19 +2454,19 @@
         <v>54</v>
       </c>
       <c r="B65">
-        <v>7299</v>
+        <v>7599</v>
       </c>
       <c r="C65" t="s">
         <v>204</v>
       </c>
       <c r="D65">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E65" t="s">
         <v>244</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2470,7 +2474,7 @@
         <v>55</v>
       </c>
       <c r="B66">
-        <v>7499</v>
+        <v>7799</v>
       </c>
       <c r="C66" t="s">
         <v>205</v>
@@ -2479,10 +2483,10 @@
         <v>750</v>
       </c>
       <c r="E66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2490,7 +2494,7 @@
         <v>56</v>
       </c>
       <c r="B67">
-        <v>7599</v>
+        <v>7999</v>
       </c>
       <c r="C67" t="s">
         <v>206</v>
@@ -2499,7 +2503,7 @@
         <v>700</v>
       </c>
       <c r="E67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2510,19 +2514,19 @@
         <v>57</v>
       </c>
       <c r="B68">
-        <v>7799</v>
+        <v>8199</v>
       </c>
       <c r="C68" t="s">
         <v>207</v>
       </c>
       <c r="D68">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E68" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2530,16 +2534,16 @@
         <v>58</v>
       </c>
       <c r="B69">
-        <v>7999</v>
+        <v>8499</v>
       </c>
       <c r="C69" t="s">
         <v>208</v>
       </c>
       <c r="D69">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -2550,16 +2554,16 @@
         <v>59</v>
       </c>
       <c r="B70">
-        <v>8199</v>
+        <v>8699</v>
       </c>
       <c r="C70" t="s">
         <v>209</v>
       </c>
       <c r="D70">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2570,19 +2574,19 @@
         <v>60</v>
       </c>
       <c r="B71">
-        <v>8499</v>
+        <v>8899</v>
       </c>
       <c r="C71" t="s">
         <v>210</v>
       </c>
       <c r="D71">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E71" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2590,16 +2594,16 @@
         <v>61</v>
       </c>
       <c r="B72">
-        <v>8699</v>
+        <v>8999</v>
       </c>
       <c r="C72" t="s">
         <v>211</v>
       </c>
       <c r="D72">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -2610,19 +2614,19 @@
         <v>62</v>
       </c>
       <c r="B73">
-        <v>8899</v>
+        <v>7999</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D73">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E73" t="s">
         <v>244</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2630,79 +2634,79 @@
         <v>63</v>
       </c>
       <c r="B74">
-        <v>8999</v>
+        <v>12999</v>
       </c>
       <c r="C74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>7999</v>
+        <v>13999</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D75">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76">
-        <v>12999</v>
+        <v>7999</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D76">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E76" t="s">
         <v>244</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B77">
-        <v>13999</v>
+        <v>7999</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D77">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E77" t="s">
         <v>244</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2710,19 +2714,19 @@
         <v>66</v>
       </c>
       <c r="B78">
-        <v>7999</v>
+        <v>8999</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D78">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2730,16 +2734,16 @@
         <v>67</v>
       </c>
       <c r="B79">
-        <v>7999</v>
+        <v>5999</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D79">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -2750,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="B80">
-        <v>8999</v>
+        <v>7499</v>
       </c>
       <c r="C80" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D80">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E80" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,16 +2774,16 @@
         <v>69</v>
       </c>
       <c r="B81">
-        <v>5999</v>
+        <v>12399</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D81">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="E81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -2790,16 +2794,16 @@
         <v>70</v>
       </c>
       <c r="B82">
-        <v>7499</v>
+        <v>10599</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D82">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2810,19 +2814,19 @@
         <v>71</v>
       </c>
       <c r="B83">
-        <v>12399</v>
+        <v>11999</v>
       </c>
       <c r="C83" t="s">
         <v>216</v>
       </c>
       <c r="D83">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E83" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2830,19 +2834,19 @@
         <v>72</v>
       </c>
       <c r="B84">
-        <v>10599</v>
+        <v>7499</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D84">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,19 +2854,19 @@
         <v>73</v>
       </c>
       <c r="B85">
-        <v>11999</v>
+        <v>6999</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D85">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E85" t="s">
         <v>244</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2870,16 +2874,16 @@
         <v>74</v>
       </c>
       <c r="B86">
-        <v>7499</v>
+        <v>7000</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D86">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -2890,16 +2894,16 @@
         <v>75</v>
       </c>
       <c r="B87">
-        <v>6999</v>
+        <v>8999</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D87">
         <v>900</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -2910,19 +2914,19 @@
         <v>76</v>
       </c>
       <c r="B88">
-        <v>7000</v>
+        <v>14499</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D88">
-        <v>390</v>
+        <v>1200</v>
       </c>
       <c r="E88" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2930,16 +2934,16 @@
         <v>77</v>
       </c>
       <c r="B89">
-        <v>8999</v>
+        <v>5999</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D89">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -2950,19 +2954,19 @@
         <v>78</v>
       </c>
       <c r="B90">
-        <v>14499</v>
+        <v>6999</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D90">
-        <v>1200</v>
+        <v>790</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2970,16 +2974,16 @@
         <v>79</v>
       </c>
       <c r="B91">
-        <v>5999</v>
+        <v>12899</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D91">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -2987,59 +2991,59 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B92">
-        <v>6999</v>
+        <v>13499</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="D92">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93">
-        <v>12899</v>
+        <v>7999</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D93">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B94">
-        <v>13499</v>
+        <v>6499</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D94">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -3050,19 +3054,19 @@
         <v>82</v>
       </c>
       <c r="B95">
-        <v>7999</v>
+        <v>9399</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95">
-        <v>500</v>
+        <v>219</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1800</v>
       </c>
       <c r="E95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3070,16 +3074,16 @@
         <v>83</v>
       </c>
       <c r="B96">
-        <v>6499</v>
+        <v>9499</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D96">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -3090,16 +3094,16 @@
         <v>84</v>
       </c>
       <c r="B97">
-        <v>9399</v>
+        <v>12999</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="2">
+        <v>212</v>
+      </c>
+      <c r="D97">
         <v>1800</v>
       </c>
       <c r="E97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -3110,16 +3114,16 @@
         <v>85</v>
       </c>
       <c r="B98">
-        <v>9499</v>
+        <v>7999</v>
       </c>
       <c r="C98" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D98">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -3130,19 +3134,19 @@
         <v>86</v>
       </c>
       <c r="B99">
-        <v>12999</v>
+        <v>21000</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D99">
-        <v>1800</v>
+        <v>1290</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3150,19 +3154,19 @@
         <v>87</v>
       </c>
       <c r="B100">
-        <v>7999</v>
+        <v>10499</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D100">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3170,36 +3174,36 @@
         <v>88</v>
       </c>
       <c r="B101">
-        <v>21000</v>
+        <v>10499</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B102">
-        <v>10499</v>
+        <v>10998</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D102">
         <v>600</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3207,19 +3211,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103">
-        <v>10499</v>
+        <v>5499</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D103">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3227,19 +3231,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104">
-        <v>10998</v>
+        <v>11499</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D104">
         <v>600</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3250,36 +3254,36 @@
         <v>91</v>
       </c>
       <c r="B105">
-        <v>5499</v>
+        <v>7999</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D105">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E105" t="s">
         <v>244</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B106">
-        <v>11499</v>
+        <v>9999</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D106">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3287,19 +3291,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107">
         <v>7999</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D107">
-        <v>900</v>
+        <v>1312</v>
       </c>
       <c r="E107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -3307,79 +3311,79 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B108">
-        <v>9999</v>
+        <v>6999</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D108">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E108" t="s">
         <v>244</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D109">
-        <v>1312</v>
+        <v>650</v>
       </c>
       <c r="E109" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B110">
-        <v>6999</v>
+        <v>6499</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D110">
         <v>650</v>
       </c>
       <c r="E110" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B111">
-        <v>6999</v>
+        <v>10999</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D111">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E111" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3387,19 +3391,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112">
-        <v>6499</v>
+        <v>10999</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="D112">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E112" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3407,19 +3411,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B113">
-        <v>10999</v>
+        <v>9999</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D113">
         <v>600</v>
       </c>
       <c r="E113" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3430,16 +3434,16 @@
         <v>96</v>
       </c>
       <c r="B114">
-        <v>10999</v>
+        <v>11999</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D114">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E114" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3450,19 +3454,19 @@
         <v>97</v>
       </c>
       <c r="B115">
-        <v>9999</v>
+        <v>6499</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D115">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="E115" t="s">
         <v>244</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3470,16 +3474,16 @@
         <v>98</v>
       </c>
       <c r="B116">
-        <v>11999</v>
+        <v>9399</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D116">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3490,19 +3494,19 @@
         <v>99</v>
       </c>
       <c r="B117">
-        <v>6499</v>
+        <v>12999</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D117">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3510,19 +3514,19 @@
         <v>100</v>
       </c>
       <c r="B118">
-        <v>9399</v>
+        <v>9499</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D118">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="E118" t="s">
         <v>244</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3530,16 +3534,16 @@
         <v>101</v>
       </c>
       <c r="B119">
-        <v>12999</v>
+        <v>13999</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D119">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3550,16 +3554,16 @@
         <v>102</v>
       </c>
       <c r="B120">
-        <v>9499</v>
+        <v>5999</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D120">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -3573,13 +3577,13 @@
         <v>13999</v>
       </c>
       <c r="C121" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D121">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E121" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3587,59 +3591,59 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B122">
-        <v>5999</v>
+        <v>13999</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D122">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E122" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123">
-        <v>13999</v>
+        <v>8499</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D123">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="E123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B124">
-        <v>13999</v>
+        <v>13299</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D124">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3647,39 +3651,39 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125">
-        <v>8499</v>
+        <v>10499</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D125">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F125">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B126">
-        <v>13299</v>
+        <v>13999</v>
       </c>
       <c r="C126" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D126">
         <v>600</v>
       </c>
       <c r="E126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3687,19 +3691,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127">
-        <v>10499</v>
+        <v>14499</v>
       </c>
       <c r="C127" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="D127">
         <v>600</v>
       </c>
       <c r="E127" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3707,19 +3711,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B128">
-        <v>13999</v>
+        <v>10999</v>
       </c>
       <c r="C128" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D128">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3727,19 +3731,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B129">
-        <v>14499</v>
+        <v>13999</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D129">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3747,42 +3751,42 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B130">
-        <v>10999</v>
+        <v>10499</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D130">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E130" t="s">
         <v>244</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B131">
-        <v>13999</v>
+        <v>8999</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D131">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="E131" t="s">
         <v>244</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3790,16 +3794,16 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>10499</v>
+        <v>2999</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D132">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="E132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -3810,16 +3814,16 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>8999</v>
+        <v>10499</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D133">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -3830,19 +3834,19 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>2999</v>
+        <v>7999</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D134">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="E134" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3850,19 +3854,19 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>10499</v>
+        <v>13999</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D135">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E135" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3870,36 +3874,36 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>7999</v>
+        <v>4499</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D136">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E136" t="s">
         <v>244</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B137">
-        <v>13999</v>
+        <v>10999</v>
       </c>
       <c r="C137" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D137">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E137" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3907,19 +3911,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B138">
-        <v>4499</v>
+        <v>12999</v>
       </c>
       <c r="C138" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D138">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -3927,19 +3931,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B139">
-        <v>10999</v>
+        <v>10499</v>
       </c>
       <c r="C139" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D139">
         <v>700</v>
       </c>
       <c r="E139" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3947,39 +3951,39 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B140">
-        <v>12999</v>
+        <v>9199</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D140">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E140" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B141">
-        <v>10499</v>
+        <v>14499</v>
       </c>
       <c r="C141" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="D141">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E141" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3987,19 +3991,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B142">
-        <v>9199</v>
+        <v>13999</v>
       </c>
       <c r="C142" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D142">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4007,19 +4011,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B143">
-        <v>14499</v>
+        <v>14299</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="D143">
         <v>600</v>
       </c>
       <c r="E143" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4027,19 +4031,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B144">
-        <v>13999</v>
+        <v>12999</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D144">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="E144" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4047,42 +4051,42 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="B145">
-        <v>14299</v>
+        <v>9999</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D145">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E145" t="s">
         <v>244</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B146">
-        <v>12999</v>
+        <v>11999</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D146">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4090,16 +4094,16 @@
         <v>120</v>
       </c>
       <c r="B147">
-        <v>9999</v>
+        <v>5999</v>
       </c>
       <c r="C147" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="D147">
-        <v>900</v>
+        <v>125</v>
       </c>
       <c r="E147" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -4107,53 +4111,53 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B148">
-        <v>11999</v>
+        <v>11499</v>
       </c>
       <c r="C148" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D148">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E148" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F148">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B149">
-        <v>5999</v>
+        <v>14499</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D149">
-        <v>125</v>
+        <v>1300</v>
       </c>
       <c r="E149" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B150">
-        <v>11499</v>
+        <v>9999</v>
       </c>
       <c r="C150" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D150">
         <v>600</v>
@@ -4162,24 +4166,24 @@
         <v>244</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B151">
-        <v>14499</v>
+        <v>11999</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D151">
-        <v>1300</v>
+        <v>660</v>
       </c>
       <c r="E151" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4190,16 +4194,16 @@
         <v>123</v>
       </c>
       <c r="B152">
-        <v>9999</v>
+        <v>6999</v>
       </c>
       <c r="C152" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="D152">
         <v>600</v>
       </c>
       <c r="E152" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -4210,19 +4214,19 @@
         <v>124</v>
       </c>
       <c r="B153">
-        <v>11999</v>
+        <v>8499</v>
       </c>
       <c r="C153" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D153">
-        <v>660</v>
+        <v>1312</v>
       </c>
       <c r="E153" t="s">
         <v>244</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4230,19 +4234,19 @@
         <v>125</v>
       </c>
       <c r="B154">
-        <v>6999</v>
+        <v>7999</v>
       </c>
       <c r="C154" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D154">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E154" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,19 +4254,19 @@
         <v>126</v>
       </c>
       <c r="B155">
-        <v>8499</v>
+        <v>12999</v>
       </c>
       <c r="C155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D155">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="E155" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4270,56 +4274,56 @@
         <v>127</v>
       </c>
       <c r="B156">
-        <v>7999</v>
+        <v>7499</v>
       </c>
       <c r="C156" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D156">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E156" t="s">
         <v>244</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="B157">
-        <v>12999</v>
+        <v>8999</v>
       </c>
       <c r="C157" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D157">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E157" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B158">
-        <v>7499</v>
+        <v>7999</v>
       </c>
       <c r="C158" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D158">
         <v>700</v>
       </c>
       <c r="E158" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -4327,10 +4331,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B159">
-        <v>8999</v>
+        <v>13999</v>
       </c>
       <c r="C159" t="s">
         <v>213</v>
@@ -4339,50 +4343,50 @@
         <v>750</v>
       </c>
       <c r="E159" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F159">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B160">
-        <v>7999</v>
+        <v>10999</v>
       </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D160">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E160" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B161">
-        <v>13999</v>
+        <v>12499</v>
       </c>
       <c r="C161" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D161">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E161" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4390,19 +4394,19 @@
         <v>131</v>
       </c>
       <c r="B162">
-        <v>10999</v>
+        <v>8999</v>
       </c>
       <c r="C162" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D162">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="E162" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4410,76 +4414,76 @@
         <v>132</v>
       </c>
       <c r="B163">
-        <v>12499</v>
+        <v>12995</v>
       </c>
       <c r="C163" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D163">
-        <v>700</v>
+        <v>765</v>
       </c>
       <c r="E163" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B164">
-        <v>8999</v>
+        <v>17599</v>
       </c>
       <c r="C164" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D164">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E164" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B165">
-        <v>12995</v>
+        <v>17599</v>
       </c>
       <c r="C165" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D165">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E165" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="B166">
-        <v>17599</v>
+        <v>28999</v>
       </c>
       <c r="C166" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="D166">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E166" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4487,22 +4491,22 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="B167">
-        <v>17599</v>
+        <v>9799</v>
       </c>
       <c r="C167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D167">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E167" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4510,19 +4514,16 @@
         <v>135</v>
       </c>
       <c r="B168">
-        <v>28999</v>
+        <v>14999</v>
       </c>
       <c r="C168" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D168">
-        <v>999</v>
+        <v>1084</v>
       </c>
       <c r="E168" t="s">
-        <v>244</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4530,16 +4531,19 @@
         <v>136</v>
       </c>
       <c r="B169">
-        <v>9799</v>
+        <v>19999</v>
       </c>
       <c r="C169" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="D169">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E169" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4547,47 +4551,50 @@
         <v>137</v>
       </c>
       <c r="B170">
-        <v>14999</v>
+        <v>15495</v>
       </c>
       <c r="C170" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D170">
-        <v>1084</v>
+        <v>937</v>
       </c>
       <c r="E170" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="B171">
-        <v>19999</v>
+        <v>18499</v>
       </c>
       <c r="C171" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D171">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E171" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172">
-        <v>15495</v>
+        <v>17995</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D172">
         <v>937</v>
@@ -4596,24 +4603,24 @@
         <v>246</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B173">
         <v>18499</v>
       </c>
       <c r="C173" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D173">
         <v>999</v>
       </c>
       <c r="E173" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4621,207 +4628,210 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B174">
-        <v>17995</v>
+        <v>9699</v>
       </c>
       <c r="C174" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="D174">
-        <v>937</v>
+        <v>449</v>
       </c>
       <c r="E174" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="B175">
-        <v>18499</v>
+        <v>17995</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D175">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="E175" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B176">
-        <v>9699</v>
+        <v>14999</v>
       </c>
       <c r="C176" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="D176">
-        <v>449</v>
+        <v>1084</v>
       </c>
       <c r="E176" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B177">
-        <v>17995</v>
+        <v>19999</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D177">
-        <v>937</v>
+        <v>1301</v>
       </c>
       <c r="E177" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B178">
-        <v>14999</v>
+        <v>25995</v>
       </c>
       <c r="C178" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="D178">
-        <v>1084</v>
+        <v>1158</v>
       </c>
       <c r="E178" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B179">
-        <v>19999</v>
+        <v>9799</v>
       </c>
       <c r="C179" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="D179">
-        <v>1301</v>
+        <v>450</v>
       </c>
       <c r="E179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B180">
-        <v>25995</v>
+        <v>12995</v>
       </c>
       <c r="C180" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D180">
-        <v>1158</v>
+        <v>765</v>
       </c>
       <c r="E180" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B181">
-        <v>9799</v>
+        <v>12499</v>
       </c>
       <c r="C181" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D181">
-        <v>450</v>
+        <v>692</v>
       </c>
       <c r="E181" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B182">
-        <v>12995</v>
+        <v>28999</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="D182">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E182" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B183">
-        <v>12499</v>
+        <v>14999</v>
       </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D183">
-        <v>692</v>
+        <v>1084</v>
       </c>
       <c r="E183" t="s">
         <v>248</v>
       </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B184">
-        <v>28999</v>
+        <v>17399</v>
       </c>
       <c r="C184" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="D184">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E184" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4829,224 +4839,227 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B185">
-        <v>14999</v>
+        <v>17995</v>
       </c>
       <c r="C185" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D185">
-        <v>1084</v>
+        <v>937</v>
       </c>
       <c r="E185" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B186">
-        <v>17399</v>
+        <v>12995</v>
       </c>
       <c r="C186" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D186">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E186" t="s">
         <v>244</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B187">
-        <v>17995</v>
+        <v>12995</v>
       </c>
       <c r="C187" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D187">
-        <v>937</v>
+        <v>765</v>
       </c>
       <c r="E187" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B188">
-        <v>12995</v>
+        <v>20995</v>
       </c>
       <c r="C188" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="D188">
-        <v>765</v>
+        <v>1254</v>
       </c>
       <c r="E188" t="s">
-        <v>246</v>
-      </c>
-      <c r="F188">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B189">
-        <v>12995</v>
+        <v>12499</v>
       </c>
       <c r="C189" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D189">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E189" t="s">
         <v>246</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B190">
-        <v>20995</v>
+        <v>11299</v>
       </c>
       <c r="C190" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="D190">
-        <v>1254</v>
+        <v>449</v>
       </c>
       <c r="E190" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B191">
-        <v>12499</v>
+        <v>13999</v>
       </c>
       <c r="C191" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D191">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E191" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B192">
-        <v>11299</v>
+        <v>9699</v>
       </c>
       <c r="C192" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D192">
         <v>449</v>
       </c>
       <c r="E192" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F192">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="B193">
-        <v>13999</v>
+        <v>20999</v>
       </c>
       <c r="C193" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="D193">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E193" t="s">
-        <v>246</v>
-      </c>
-      <c r="F193">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B194">
-        <v>9699</v>
+        <v>12499</v>
       </c>
       <c r="C194" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D194">
-        <v>449</v>
+        <v>692</v>
       </c>
       <c r="E194" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B195">
-        <v>20999</v>
+        <v>9699</v>
       </c>
       <c r="C195" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D195">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E195" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B196">
-        <v>12499</v>
+        <v>12399</v>
       </c>
       <c r="C196" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D196">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E196" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -5054,56 +5067,62 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B197">
         <v>9699</v>
       </c>
       <c r="C197" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D197">
         <v>449</v>
       </c>
       <c r="E197" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B198">
-        <v>12399</v>
+        <v>9799</v>
       </c>
       <c r="C198" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D198">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="E198" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B199">
-        <v>9699</v>
+        <v>8999</v>
       </c>
       <c r="C199" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D199">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="E199" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -5111,90 +5130,99 @@
         <v>136</v>
       </c>
       <c r="B200">
-        <v>9799</v>
+        <v>19999</v>
       </c>
       <c r="C200" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="D200">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E200" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B201">
-        <v>8999</v>
+        <v>9599</v>
       </c>
       <c r="C201" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D201">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="E201" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B202">
-        <v>19999</v>
+        <v>9599</v>
       </c>
       <c r="C202" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="D202">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B203">
-        <v>9599</v>
+        <v>12499</v>
       </c>
       <c r="C203" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D203">
-        <v>449</v>
+        <v>692</v>
       </c>
       <c r="E203" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="B204">
-        <v>9599</v>
+        <v>17599</v>
       </c>
       <c r="C204" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D204">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E204" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5202,76 +5230,76 @@
         <v>132</v>
       </c>
       <c r="B205">
-        <v>12499</v>
+        <v>12995</v>
       </c>
       <c r="C205" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D205">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="E205" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="B206">
-        <v>17599</v>
+        <v>12499</v>
       </c>
       <c r="C206" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D206">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E206" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="B207">
-        <v>12995</v>
+        <v>17599</v>
       </c>
       <c r="C207" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D207">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E207" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B208">
-        <v>12499</v>
+        <v>17995</v>
       </c>
       <c r="C208" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="D208">
-        <v>692</v>
+        <v>937</v>
       </c>
       <c r="E208" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -5279,99 +5307,99 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="B209">
-        <v>17599</v>
+        <v>15495</v>
       </c>
       <c r="C209" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="D209">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E209" t="s">
         <v>244</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B210">
-        <v>17995</v>
+        <v>15495</v>
       </c>
       <c r="C210" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D210">
         <v>937</v>
       </c>
       <c r="E210" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="B211">
-        <v>15495</v>
+        <v>18499</v>
       </c>
       <c r="C211" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D211">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B212">
-        <v>15495</v>
+        <v>28999</v>
       </c>
       <c r="C212" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D212">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B213">
         <v>18499</v>
       </c>
       <c r="C213" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5379,233 +5407,233 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B214">
-        <v>28999</v>
+        <v>8999</v>
       </c>
       <c r="C214" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="D214">
-        <v>999</v>
+        <v>501</v>
       </c>
       <c r="E214" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B215">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C215" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="D215">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E215" t="s">
         <v>244</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B216">
-        <v>8999</v>
+        <v>20999</v>
       </c>
       <c r="C216" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="D216">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E216" t="s">
         <v>248</v>
       </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B217">
-        <v>13999</v>
+        <v>12499</v>
       </c>
       <c r="C217" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D217">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E217" t="s">
         <v>246</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B218">
-        <v>20999</v>
+        <v>12499</v>
       </c>
       <c r="C218" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D218">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="E218" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B219">
-        <v>12499</v>
+        <v>14999</v>
       </c>
       <c r="C219" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D219">
-        <v>692</v>
+        <v>1084</v>
       </c>
       <c r="E219" t="s">
         <v>248</v>
       </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B220">
-        <v>12499</v>
+        <v>19999</v>
       </c>
       <c r="C220" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="D220">
-        <v>692</v>
+        <v>1301</v>
       </c>
       <c r="E220" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B221">
-        <v>14999</v>
+        <v>12499</v>
       </c>
       <c r="C221" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="D221">
-        <v>1084</v>
+        <v>692</v>
       </c>
       <c r="E221" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B222">
-        <v>19999</v>
+        <v>12399</v>
       </c>
       <c r="C222" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="D222">
-        <v>1301</v>
+        <v>690</v>
       </c>
       <c r="E222" t="s">
         <v>246</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B223">
-        <v>12499</v>
+        <v>17399</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D223">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E223" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B224">
-        <v>12399</v>
+        <v>19999</v>
       </c>
       <c r="C224" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="D224">
-        <v>690</v>
+        <v>1301</v>
       </c>
       <c r="E224" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="B225">
-        <v>17399</v>
+        <v>28999</v>
       </c>
       <c r="C225" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="D225">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -5613,19 +5641,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B226">
-        <v>19999</v>
+        <v>13999</v>
       </c>
       <c r="C226" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D226">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E226" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -5633,39 +5661,39 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B227">
-        <v>28999</v>
+        <v>9599</v>
       </c>
       <c r="C227" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="D227">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E227" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B228">
         <v>13999</v>
       </c>
       <c r="C228" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D228">
         <v>998</v>
       </c>
       <c r="E228" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -5673,36 +5701,39 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="B229">
-        <v>9599</v>
+        <v>17399</v>
       </c>
       <c r="C229" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D229">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E229" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B230">
-        <v>13999</v>
+        <v>19999</v>
       </c>
       <c r="C230" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="D230">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E230" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -5710,39 +5741,39 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B231">
-        <v>17399</v>
+        <v>12499</v>
       </c>
       <c r="C231" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D231">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E231" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B232">
-        <v>19999</v>
+        <v>13999</v>
       </c>
       <c r="C232" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D232">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -5750,19 +5781,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B233">
-        <v>12499</v>
+        <v>12399</v>
       </c>
       <c r="C233" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D233">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E233" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -5770,133 +5801,139 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B234">
-        <v>13999</v>
+        <v>17995</v>
       </c>
       <c r="C234" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D234">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E234" t="s">
         <v>246</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B235">
-        <v>12399</v>
+        <v>14999</v>
       </c>
       <c r="C235" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="D235">
-        <v>690</v>
+        <v>1084</v>
       </c>
       <c r="E235" t="s">
         <v>248</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B236">
-        <v>17995</v>
+        <v>17399</v>
       </c>
       <c r="C236" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D236">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E236" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B237">
-        <v>14999</v>
+        <v>20995</v>
       </c>
       <c r="C237" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D237">
-        <v>1084</v>
+        <v>1254</v>
       </c>
       <c r="E237" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B238">
-        <v>17399</v>
+        <v>19999</v>
       </c>
       <c r="C238" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="D238">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E238" t="s">
         <v>244</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B239">
-        <v>20995</v>
+        <v>9799</v>
       </c>
       <c r="C239" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D239">
-        <v>1254</v>
+        <v>450</v>
       </c>
       <c r="E239" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="F239">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B240">
         <v>19999</v>
       </c>
       <c r="C240" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D240">
         <v>1301</v>
       </c>
       <c r="E240" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F240">
         <v>2</v>
@@ -5904,36 +5941,39 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="B241">
-        <v>9799</v>
+        <v>18499</v>
       </c>
       <c r="C241" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="D241">
-        <v>450</v>
+        <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B242">
-        <v>19999</v>
+        <v>13999</v>
       </c>
       <c r="C242" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D242">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E242" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -5941,39 +5981,39 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B243">
-        <v>18499</v>
+        <v>20999</v>
       </c>
       <c r="C243" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D243">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E243" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B244">
-        <v>13999</v>
+        <v>15495</v>
       </c>
       <c r="C244" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="D244">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E244" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F244">
         <v>2</v>
@@ -5981,36 +6021,39 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B245">
-        <v>20999</v>
+        <v>9699</v>
       </c>
       <c r="C245" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="D245">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E245" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B246">
-        <v>15495</v>
+        <v>20999</v>
       </c>
       <c r="C246" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D246">
-        <v>937</v>
+        <v>1301</v>
       </c>
       <c r="E246" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -6018,127 +6061,139 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B247">
-        <v>9699</v>
+        <v>9599</v>
       </c>
       <c r="C247" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D247">
         <v>449</v>
       </c>
       <c r="E247" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B248">
-        <v>20999</v>
+        <v>17599</v>
       </c>
       <c r="C248" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="D248">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E248" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B249">
-        <v>9599</v>
+        <v>12995</v>
       </c>
       <c r="C249" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D249">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="E249" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B250">
-        <v>17599</v>
+        <v>9699</v>
       </c>
       <c r="C250" t="s">
         <v>231</v>
       </c>
       <c r="D250">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E250" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B251">
-        <v>12995</v>
+        <v>18499</v>
       </c>
       <c r="C251" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="D251">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B252">
-        <v>9699</v>
+        <v>25995</v>
       </c>
       <c r="C252" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D252">
-        <v>449</v>
+        <v>1158</v>
       </c>
       <c r="E252" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B253">
-        <v>18499</v>
+        <v>17399</v>
       </c>
       <c r="C253" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D253">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E253" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6146,386 +6201,419 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="B254">
-        <v>25995</v>
+        <v>17599</v>
       </c>
       <c r="C254" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D254">
-        <v>1158</v>
+        <v>998</v>
       </c>
       <c r="E254" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B255">
-        <v>17399</v>
+        <v>9599</v>
       </c>
       <c r="C255" t="s">
         <v>235</v>
       </c>
       <c r="D255">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E255" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B256">
-        <v>17599</v>
+        <v>11299</v>
       </c>
       <c r="C256" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D256">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E256" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B257">
         <v>9599</v>
       </c>
       <c r="C257" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D257">
         <v>449</v>
       </c>
       <c r="E257" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B258">
-        <v>11299</v>
+        <v>20999</v>
       </c>
       <c r="C258" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="D258">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E258" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B259">
-        <v>9599</v>
+        <v>25995</v>
       </c>
       <c r="C259" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D259">
-        <v>449</v>
+        <v>1158</v>
       </c>
       <c r="E259" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B260">
-        <v>20999</v>
+        <v>8999</v>
       </c>
       <c r="C260" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D260">
-        <v>1301</v>
+        <v>501</v>
       </c>
       <c r="E260" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B261">
-        <v>25995</v>
+        <v>17399</v>
       </c>
       <c r="C261" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D261">
-        <v>1158</v>
+        <v>998</v>
       </c>
       <c r="E261" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B262">
-        <v>8999</v>
+        <v>12995</v>
       </c>
       <c r="C262" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D262">
-        <v>501</v>
+        <v>765</v>
       </c>
       <c r="E262" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="B263">
-        <v>17399</v>
+        <v>8999</v>
       </c>
       <c r="C263" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D263">
-        <v>998</v>
+        <v>501</v>
       </c>
       <c r="E263" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B264">
-        <v>12995</v>
+        <v>12399</v>
       </c>
       <c r="C264" t="s">
         <v>214</v>
       </c>
       <c r="D264">
-        <v>765</v>
+        <v>690</v>
       </c>
       <c r="E264" t="s">
         <v>246</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B265">
-        <v>8999</v>
+        <v>20995</v>
       </c>
       <c r="C265" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="D265">
-        <v>501</v>
+        <v>1254</v>
       </c>
       <c r="E265" t="s">
         <v>248</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B266">
-        <v>12399</v>
+        <v>17399</v>
       </c>
       <c r="C266" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D266">
-        <v>690</v>
+        <v>998</v>
       </c>
       <c r="E266" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B267">
-        <v>20995</v>
+        <v>9799</v>
       </c>
       <c r="C267" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D267">
-        <v>1254</v>
+        <v>450</v>
       </c>
       <c r="E267" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="B268">
-        <v>17399</v>
+        <v>9599</v>
       </c>
       <c r="C268" t="s">
         <v>235</v>
       </c>
       <c r="D268">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E268" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B269">
-        <v>9799</v>
+        <v>9599</v>
       </c>
       <c r="C269" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D269">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E269" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B270">
-        <v>9599</v>
+        <v>9799</v>
       </c>
       <c r="C270" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D270">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E270" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B271">
-        <v>9599</v>
+        <v>12399</v>
       </c>
       <c r="C271" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D271">
-        <v>449</v>
+        <v>690</v>
       </c>
       <c r="E271" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B272">
-        <v>9799</v>
+        <v>12995</v>
       </c>
       <c r="C272" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D272">
-        <v>450</v>
+        <v>765</v>
       </c>
       <c r="E272" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="F272">
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="B273">
-        <v>12399</v>
+        <v>18499</v>
       </c>
       <c r="C273" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D273">
-        <v>690</v>
+        <v>999</v>
       </c>
       <c r="E273" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="B274">
-        <v>12995</v>
+        <v>13999</v>
       </c>
       <c r="C274" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D274">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E274" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -6533,62 +6621,62 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="B275">
-        <v>18499</v>
+        <v>17995</v>
       </c>
       <c r="C275" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D275">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="E275" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B276">
-        <v>13999</v>
+        <v>9799</v>
       </c>
       <c r="C276" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D276">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E276" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B277">
-        <v>17995</v>
+        <v>12995</v>
       </c>
       <c r="C277" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D277">
-        <v>937</v>
+        <v>765</v>
       </c>
       <c r="E277" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,53 +6684,56 @@
         <v>136</v>
       </c>
       <c r="B278">
-        <v>9799</v>
+        <v>19999</v>
       </c>
       <c r="C278" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="D278">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E278" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="F278">
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B279">
-        <v>12995</v>
+        <v>18499</v>
       </c>
       <c r="C279" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="D279">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E279" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B280">
-        <v>19999</v>
+        <v>25995</v>
       </c>
       <c r="C280" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="D280">
-        <v>1301</v>
+        <v>1158</v>
       </c>
       <c r="E280" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F280">
         <v>2</v>
@@ -6650,19 +6741,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B281">
-        <v>18499</v>
+        <v>17599</v>
       </c>
       <c r="C281" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="D281">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E281" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6670,93 +6761,99 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B282">
-        <v>25995</v>
+        <v>17995</v>
       </c>
       <c r="C282" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="D282">
-        <v>1158</v>
+        <v>937</v>
       </c>
       <c r="E282" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="B283">
-        <v>17599</v>
+        <v>14999</v>
       </c>
       <c r="C283" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D283">
-        <v>998</v>
+        <v>1084</v>
       </c>
       <c r="E283" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B284">
-        <v>17995</v>
+        <v>13999</v>
       </c>
       <c r="C284" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="D284">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E284" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B285">
-        <v>14999</v>
+        <v>17995</v>
       </c>
       <c r="C285" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D285">
-        <v>1084</v>
+        <v>937</v>
       </c>
       <c r="E285" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B286">
-        <v>13999</v>
+        <v>20995</v>
       </c>
       <c r="C286" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="D286">
-        <v>998</v>
+        <v>1254</v>
       </c>
       <c r="E286" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F286">
         <v>2</v>
@@ -6764,181 +6861,199 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="B287">
-        <v>17995</v>
+        <v>17599</v>
       </c>
       <c r="C287" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="D287">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E287" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B288">
-        <v>20995</v>
+        <v>25995</v>
       </c>
       <c r="C288" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="D288">
-        <v>1254</v>
+        <v>1158</v>
       </c>
       <c r="E288" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B289">
-        <v>17599</v>
+        <v>20999</v>
       </c>
       <c r="C289" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="D289">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E289" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B290">
-        <v>25995</v>
+        <v>8999</v>
       </c>
       <c r="C290" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D290">
-        <v>1158</v>
+        <v>501</v>
       </c>
       <c r="E290" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B291">
-        <v>20999</v>
+        <v>14999</v>
       </c>
       <c r="C291" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D291">
-        <v>1301</v>
+        <v>1084</v>
       </c>
       <c r="E291" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B292">
-        <v>8999</v>
+        <v>20999</v>
       </c>
       <c r="C292" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="D292">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E292" t="s">
         <v>248</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B293">
-        <v>14999</v>
+        <v>9699</v>
       </c>
       <c r="C293" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="D293">
-        <v>1084</v>
+        <v>449</v>
       </c>
       <c r="E293" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="F293">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B294">
-        <v>20999</v>
+        <v>12995</v>
       </c>
       <c r="C294" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="D294">
-        <v>1301</v>
+        <v>765</v>
       </c>
       <c r="E294" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B295">
-        <v>9699</v>
+        <v>14999</v>
       </c>
       <c r="C295" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="D295">
-        <v>449</v>
+        <v>1084</v>
       </c>
       <c r="E295" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B296">
-        <v>12995</v>
+        <v>19999</v>
       </c>
       <c r="C296" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D296">
-        <v>765</v>
+        <v>1301</v>
       </c>
       <c r="E296" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F296">
         <v>2</v>
@@ -6946,56 +7061,59 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B297">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="C297" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D297">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E297" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B298">
-        <v>19999</v>
+        <v>8999</v>
       </c>
       <c r="C298" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="D298">
-        <v>1301</v>
+        <v>501</v>
       </c>
       <c r="E298" t="s">
         <v>246</v>
       </c>
       <c r="F298">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B299">
-        <v>19999</v>
+        <v>13999</v>
       </c>
       <c r="C299" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="D299">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E299" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F299">
         <v>2</v>
@@ -7006,36 +7124,36 @@
         <v>133</v>
       </c>
       <c r="B300">
-        <v>8999</v>
+        <v>28999</v>
       </c>
       <c r="C300" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D300">
-        <v>501</v>
+        <v>999</v>
       </c>
       <c r="E300" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B301">
         <v>13999</v>
       </c>
       <c r="C301" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D301">
         <v>998</v>
       </c>
       <c r="E301" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -7043,96 +7161,96 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B302">
-        <v>28999</v>
+        <v>20995</v>
       </c>
       <c r="C302" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D302">
-        <v>999</v>
+        <v>1254</v>
       </c>
       <c r="E302" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B303">
-        <v>13999</v>
+        <v>18499</v>
       </c>
       <c r="C303" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D303">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E303" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B304">
-        <v>20995</v>
+        <v>28999</v>
       </c>
       <c r="C304" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D304">
-        <v>1254</v>
+        <v>999</v>
       </c>
       <c r="E304" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="B305">
-        <v>18499</v>
+        <v>20999</v>
       </c>
       <c r="C305" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D305">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E305" t="s">
-        <v>244</v>
-      </c>
-      <c r="F305">
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="B306">
-        <v>28999</v>
+        <v>17399</v>
       </c>
       <c r="C306" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="D306">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E306" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -7140,113 +7258,119 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B307">
-        <v>20999</v>
+        <v>28999</v>
       </c>
       <c r="C307" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D307">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E307" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B308">
-        <v>17399</v>
+        <v>19999</v>
       </c>
       <c r="C308" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="D308">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E308" t="s">
         <v>244</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B309">
-        <v>28999</v>
+        <v>9799</v>
       </c>
       <c r="C309" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="D309">
-        <v>999</v>
+        <v>450</v>
       </c>
       <c r="E309" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F309">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B310">
-        <v>19999</v>
+        <v>28999</v>
       </c>
       <c r="C310" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D310">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E310" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B311">
-        <v>9799</v>
+        <v>13000</v>
       </c>
       <c r="C311" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D311">
-        <v>450</v>
+        <v>890</v>
       </c>
       <c r="E311" t="s">
-        <v>249</v>
+        <v>242</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B312">
-        <v>28999</v>
+        <v>13999</v>
       </c>
       <c r="C312" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="D312">
-        <v>999</v>
+        <v>660</v>
       </c>
       <c r="E312" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -7257,19 +7381,19 @@
         <v>148</v>
       </c>
       <c r="B313">
-        <v>13000</v>
+        <v>9999</v>
       </c>
       <c r="C313" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D313">
-        <v>890</v>
+        <v>975</v>
       </c>
       <c r="E313" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -7277,19 +7401,19 @@
         <v>149</v>
       </c>
       <c r="B314">
-        <v>13999</v>
+        <v>24395</v>
       </c>
       <c r="C314" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D314">
-        <v>660</v>
+        <v>1802</v>
       </c>
       <c r="E314" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F314">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -7297,16 +7421,16 @@
         <v>150</v>
       </c>
       <c r="B315">
-        <v>9999</v>
+        <v>20000</v>
       </c>
       <c r="C315" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="D315">
-        <v>975</v>
+        <v>1251</v>
       </c>
       <c r="E315" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F315">
         <v>4</v>
@@ -7317,19 +7441,19 @@
         <v>151</v>
       </c>
       <c r="B316">
-        <v>24395</v>
+        <v>24000</v>
       </c>
       <c r="C316" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="D316">
-        <v>1802</v>
+        <v>1250</v>
       </c>
       <c r="E316" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F316">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -7337,19 +7461,19 @@
         <v>152</v>
       </c>
       <c r="B317">
-        <v>20000</v>
+        <v>13300</v>
       </c>
       <c r="C317" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="D317">
-        <v>1251</v>
+        <v>755</v>
       </c>
       <c r="E317" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F317">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -7357,16 +7481,16 @@
         <v>153</v>
       </c>
       <c r="B318">
-        <v>24000</v>
+        <v>4600</v>
       </c>
       <c r="C318" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="D318">
-        <v>1250</v>
+        <v>296</v>
       </c>
       <c r="E318" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F318">
         <v>2</v>
@@ -7377,16 +7501,16 @@
         <v>154</v>
       </c>
       <c r="B319">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="C319" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D319">
-        <v>755</v>
+        <v>888</v>
       </c>
       <c r="E319" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F319">
         <v>2</v>
@@ -7397,16 +7521,16 @@
         <v>155</v>
       </c>
       <c r="B320">
-        <v>4600</v>
+        <v>12299</v>
       </c>
       <c r="C320" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D320">
-        <v>296</v>
+        <v>660</v>
       </c>
       <c r="E320" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F320">
         <v>2</v>
@@ -7417,19 +7541,19 @@
         <v>156</v>
       </c>
       <c r="B321">
-        <v>12500</v>
+        <v>6200</v>
       </c>
       <c r="C321" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D321">
-        <v>888</v>
+        <v>648</v>
       </c>
       <c r="E321" t="s">
         <v>250</v>
       </c>
       <c r="F321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -7437,19 +7561,19 @@
         <v>157</v>
       </c>
       <c r="B322">
-        <v>12299</v>
+        <v>4000</v>
       </c>
       <c r="C322" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D322">
-        <v>660</v>
+        <v>310</v>
       </c>
       <c r="E322" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -7457,19 +7581,19 @@
         <v>158</v>
       </c>
       <c r="B323">
-        <v>6200</v>
+        <v>1700</v>
       </c>
       <c r="C323" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D323">
-        <v>648</v>
+        <v>149</v>
       </c>
       <c r="E323" t="s">
         <v>252</v>
       </c>
       <c r="F323">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -7477,19 +7601,19 @@
         <v>159</v>
       </c>
       <c r="B324">
-        <v>4000</v>
+        <v>2350</v>
       </c>
       <c r="C324" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="D324">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E324" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F324">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -7497,58 +7621,18 @@
         <v>160</v>
       </c>
       <c r="B325">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="C325" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="D325">
-        <v>149</v>
+        <v>471</v>
       </c>
       <c r="E325" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F325">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>161</v>
-      </c>
-      <c r="B326">
-        <v>2350</v>
-      </c>
-      <c r="C326" t="s">
-        <v>243</v>
-      </c>
-      <c r="D326">
-        <v>300</v>
-      </c>
-      <c r="E326" t="s">
-        <v>254</v>
-      </c>
-      <c r="F326">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>162</v>
-      </c>
-      <c r="B327">
-        <v>6000</v>
-      </c>
-      <c r="C327" t="s">
-        <v>199</v>
-      </c>
-      <c r="D327">
-        <v>471</v>
-      </c>
-      <c r="E327" t="s">
-        <v>251</v>
-      </c>
-      <c r="F327">
         <v>4</v>
       </c>
     </row>

--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F2448-F5D2-459A-845B-4DB527107B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC1BB2-051E-4799-A628-B3A8CADFA55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="243">
   <si>
     <t>bike_name</t>
   </si>
@@ -43,48 +43,102 @@
     <t>2024 BMW M 1000 RR</t>
   </si>
   <si>
+    <t>$667/MO</t>
+  </si>
+  <si>
+    <t>supersport</t>
+  </si>
+  <si>
     <t>2022 BMW M 1000 RR 50th Anniversary Edition</t>
   </si>
   <si>
+    <t>$600/MO</t>
+  </si>
+  <si>
     <t>2022 Kawasaki Ninja H2</t>
   </si>
   <si>
+    <t>$583/MO</t>
+  </si>
+  <si>
     <t>2023 Ducati Panigale V4S</t>
   </si>
   <si>
+    <t>$483/MO</t>
+  </si>
+  <si>
     <t>2010 Honda Gold Wing Trike and Trailer</t>
   </si>
   <si>
+    <t>$467/MO</t>
+  </si>
+  <si>
+    <t>touring</t>
+  </si>
+  <si>
     <t>2024 BMW S1000RR</t>
   </si>
   <si>
+    <t>$425/MO</t>
+  </si>
+  <si>
+    <t>$417/MO</t>
+  </si>
+  <si>
     <t>2022 Yamaha YZF-R1 Anniversary Edition</t>
   </si>
   <si>
+    <t>$358/MO</t>
+  </si>
+  <si>
     <t>2017 Yamaha YZF-R1M</t>
   </si>
   <si>
+    <t>$350/MO</t>
+  </si>
+  <si>
     <t>2024 Yamaha YZF-R1</t>
   </si>
   <si>
+    <t>$342/MO</t>
+  </si>
+  <si>
+    <t>$333/MO</t>
+  </si>
+  <si>
     <t>2024 Kawasaki ZX-10R 40th Anniversary Edition</t>
   </si>
   <si>
     <t>2024 Kawasaki Ninja ZX-10R KRT Edition</t>
   </si>
   <si>
+    <t>$325/MO</t>
+  </si>
+  <si>
+    <t>$317/MO</t>
+  </si>
+  <si>
     <t>2023 Yamaha YZF-R1</t>
   </si>
   <si>
+    <t>$310/MO</t>
+  </si>
+  <si>
     <t>2020 Aprilia RSV4 Factory 1100</t>
   </si>
   <si>
+    <t>$308/MO</t>
+  </si>
+  <si>
     <t>2023 Kawasaki Ninja ZX-10R KRT Edition</t>
   </si>
   <si>
     <t>2025 Ducati Panigale V2</t>
   </si>
   <si>
+    <t>$300/MO</t>
+  </si>
+  <si>
     <t>2023 Kawasaki Ninja ZX-10R</t>
   </si>
   <si>
@@ -94,12 +148,21 @@
     <t>2023 Honda CBR1000RR</t>
   </si>
   <si>
+    <t>$292/MO</t>
+  </si>
+  <si>
     <t>2023 Suzuki GSX-R1000R</t>
   </si>
   <si>
+    <t>$283/MO</t>
+  </si>
+  <si>
     <t>2023 Suzuki Hayabusa</t>
   </si>
   <si>
+    <t>naked</t>
+  </si>
+  <si>
     <t>2023 Suzuki GSX-R1000</t>
   </si>
   <si>
@@ -109,9 +172,18 @@
     <t>2016 Yamaha YZF-R1 60th Anniversary</t>
   </si>
   <si>
+    <t>$275/MO</t>
+  </si>
+  <si>
     <t>2022 Suzuki GSX-R1000R</t>
   </si>
   <si>
+    <t>$272/MO</t>
+  </si>
+  <si>
+    <t>$267/MO</t>
+  </si>
+  <si>
     <t>2019 Yamaha YZF-R6</t>
   </si>
   <si>
@@ -121,9 +193,18 @@
     <t>2018 Suzuki GSX-R1000R</t>
   </si>
   <si>
+    <t>$258/MO</t>
+  </si>
+  <si>
     <t>2020 Yamaha YZF-R6</t>
   </si>
   <si>
+    <t>$255/MO</t>
+  </si>
+  <si>
+    <t>$250/MO</t>
+  </si>
+  <si>
     <t>2022 Honda CBR1000RR</t>
   </si>
   <si>
@@ -136,84 +217,171 @@
     <t>2023 Kawasaki Ninja ZX-14R</t>
   </si>
   <si>
+    <t>$248/MO</t>
+  </si>
+  <si>
     <t>2024 Kawasaki Ninja ZX-6R</t>
   </si>
   <si>
+    <t>$242/MO</t>
+  </si>
+  <si>
     <t>2023 Kawasaki Z125</t>
   </si>
   <si>
+    <t>$43/MO</t>
+  </si>
+  <si>
     <t>2022 Benelli TNT 135</t>
   </si>
   <si>
+    <t>$50/MO</t>
+  </si>
+  <si>
     <t>2022 Kawasaki KLX 300R</t>
   </si>
   <si>
+    <t>$67/MO</t>
+  </si>
+  <si>
     <t>2010 Yamaha V Star 950</t>
   </si>
   <si>
+    <t>$72/MO</t>
+  </si>
+  <si>
     <t>2021 Royal Enfield Himalayan</t>
   </si>
   <si>
+    <t>$75/MO</t>
+  </si>
+  <si>
     <t>2013 Kawasaki Vulcan 900 Custom</t>
   </si>
   <si>
+    <t>$83/MO</t>
+  </si>
+  <si>
     <t>2021 Honda CBR300</t>
   </si>
   <si>
+    <t>$92/MO</t>
+  </si>
+  <si>
     <t>2022 Kawasaki Vulcan S</t>
   </si>
   <si>
+    <t>$95/MO</t>
+  </si>
+  <si>
     <t>2023 Kawasaki Ninja 400</t>
   </si>
   <si>
+    <t>$97/MO</t>
+  </si>
+  <si>
     <t>2023 Yamaha MT-03</t>
   </si>
   <si>
+    <t>$100/MO</t>
+  </si>
+  <si>
     <t>2023 Yamaha YZF-R3</t>
   </si>
   <si>
+    <t>$105/MO</t>
+  </si>
+  <si>
+    <t>$108/MO</t>
+  </si>
+  <si>
     <t>2023 Kawasaki Z650</t>
   </si>
   <si>
+    <t>$117/MO</t>
+  </si>
+  <si>
     <t>2022 Honda Rebel 1100</t>
   </si>
   <si>
+    <t>$120/MO</t>
+  </si>
+  <si>
     <t>2024 Kawasaki Ninja 500</t>
   </si>
   <si>
+    <t>$122/MO</t>
+  </si>
+  <si>
     <t>2016 Honda VFR1200X</t>
   </si>
   <si>
+    <t>$125/MO</t>
+  </si>
+  <si>
     <t>2018 Yamaha MT-07</t>
   </si>
   <si>
+    <t>$127/MO</t>
+  </si>
+  <si>
     <t>2020 Suzuki GSX-S750</t>
   </si>
   <si>
+    <t>$130/MO</t>
+  </si>
+  <si>
+    <t>dirtbike</t>
+  </si>
+  <si>
     <t>2021 Yamaha MT-07</t>
   </si>
   <si>
+    <t>$133/MO</t>
+  </si>
+  <si>
     <t>2022 Yamaha MT-07</t>
   </si>
   <si>
+    <t>$137/MO</t>
+  </si>
+  <si>
     <t>2020 Can-Am Ryker 900 Ace</t>
   </si>
   <si>
+    <t>$142/MO</t>
+  </si>
+  <si>
     <t>2021 Kawasaki Vulcan 900</t>
   </si>
   <si>
+    <t>$145/MO</t>
+  </si>
+  <si>
     <t>2024 Kawasaki Ninja 650 ABS</t>
   </si>
   <si>
+    <t>$148/MO</t>
+  </si>
+  <si>
     <t>2023 Honda CB650R</t>
   </si>
   <si>
+    <t>$150/MO</t>
+  </si>
+  <si>
     <t>2023 Kawasaki Vulcan 900</t>
   </si>
   <si>
     <t>2022 Suzuki GSX-R750</t>
   </si>
   <si>
+    <t>$217/MO</t>
+  </si>
+  <si>
+    <t>$233/MO</t>
+  </si>
+  <si>
     <t>2021 Can-Am Ryker 900 ACE</t>
   </si>
   <si>
@@ -232,12 +400,21 @@
     <t>2023 Yamaha MT-10</t>
   </si>
   <si>
+    <t>$207/MO</t>
+  </si>
+  <si>
     <t>2024 Yamaha YZF-R7</t>
   </si>
   <si>
+    <t>$177/MO</t>
+  </si>
+  <si>
     <t>2016 Yamaha YZF-R6</t>
   </si>
   <si>
+    <t>$200/MO</t>
+  </si>
+  <si>
     <t>2022 Husqvarna TX300I</t>
   </si>
   <si>
@@ -262,6 +439,12 @@
     <t>2022 Harley-Davidson Pan America</t>
   </si>
   <si>
+    <t>$215/MO</t>
+  </si>
+  <si>
+    <t>$225/MO</t>
+  </si>
+  <si>
     <t>2023 Honda CBR500R</t>
   </si>
   <si>
@@ -271,9 +454,15 @@
     <t>2013 Honda Gold Wing</t>
   </si>
   <si>
+    <t>$157/MO</t>
+  </si>
+  <si>
     <t>2022 Can-Am Ryker Rally 900</t>
   </si>
   <si>
+    <t>$158/MO</t>
+  </si>
+  <si>
     <t>2016 Honda Gold Wing</t>
   </si>
   <si>
@@ -283,18 +472,30 @@
     <t>2019 KTM Super Duke 1290 GT</t>
   </si>
   <si>
+    <t>$167/MO</t>
+  </si>
+  <si>
     <t>2023 Suzuki GSX-R600</t>
   </si>
   <si>
+    <t>$175/MO</t>
+  </si>
+  <si>
     <t>2022 Suzuki GSX-R600</t>
   </si>
   <si>
+    <t>$183/MO</t>
+  </si>
+  <si>
     <t>2020 Kawasaki Versys 650 ABS</t>
   </si>
   <si>
     <t>2023 Kawasaki Ninja ZX-6R</t>
   </si>
   <si>
+    <t>$192/MO</t>
+  </si>
+  <si>
     <t>2019 Yamaha MT-09</t>
   </si>
   <si>
@@ -337,6 +538,9 @@
     <t>2019 Honda CRF450L</t>
   </si>
   <si>
+    <t>$222/MO</t>
+  </si>
+  <si>
     <t>2018 Kawasaki Ninja ZX-6R</t>
   </si>
   <si>
@@ -373,9 +577,15 @@
     <t>2024 Kawasaki Ninja 650 KRT Edition</t>
   </si>
   <si>
+    <t>$153/MO</t>
+  </si>
+  <si>
     <t>2024 Aprilia RS 660 Extrema</t>
   </si>
   <si>
+    <t>$238/MO</t>
+  </si>
+  <si>
     <t>2023 Triumph Tiger 900 GT Pro</t>
   </si>
   <si>
@@ -415,21 +625,39 @@
     <t>2023 Husqvarna 701 Supermoto</t>
   </si>
   <si>
+    <t>$208/MO</t>
+  </si>
+  <si>
+    <t>supermoto</t>
+  </si>
+  <si>
     <t>2023 SWM SM 500R</t>
   </si>
   <si>
     <t>2023 Triumph Street Triple RS</t>
   </si>
   <si>
+    <t>$293/MO</t>
+  </si>
+  <si>
     <t>2023 Honda CBR1000RR-R Fireblade SP</t>
   </si>
   <si>
     <t>2023 Yamaha YZ450F</t>
   </si>
   <si>
+    <t>$163/MO</t>
+  </si>
+  <si>
+    <t>dirt</t>
+  </si>
+  <si>
     <t>2023 Honda Africa Twin CRF1100L</t>
   </si>
   <si>
+    <t>adventure</t>
+  </si>
+  <si>
     <t>2023 KTM 1290 Super Duke R</t>
   </si>
   <si>
@@ -442,15 +670,27 @@
     <t>2023 Kawasaki KX450</t>
   </si>
   <si>
+    <t>$162/MO</t>
+  </si>
+  <si>
     <t>2023 Ducati Multistrada V4 S</t>
   </si>
   <si>
+    <t>$433/MO</t>
+  </si>
+  <si>
+    <t>$290/MO</t>
+  </si>
+  <si>
     <t>2023 BMW R 1250 GS Adventure</t>
   </si>
   <si>
     <t>2023 KTM 450 SX-F</t>
   </si>
   <si>
+    <t>$188/MO</t>
+  </si>
+  <si>
     <t>2023 KTM 1290 Super Adventure R</t>
   </si>
   <si>
@@ -460,6 +700,9 @@
     <t>2023 Honda CRF450R</t>
   </si>
   <si>
+    <t>$160/MO</t>
+  </si>
+  <si>
     <t>2025 Yamaha R9</t>
   </si>
   <si>
@@ -469,323 +712,50 @@
     <t>2025 Harley-Davidson Nightster</t>
   </si>
   <si>
+    <t>cruiser</t>
+  </si>
+  <si>
     <t>2025 BMW R18 Transcontinental</t>
   </si>
   <si>
+    <t>$407/MO</t>
+  </si>
+  <si>
     <t>2025 Indian Scout 101</t>
   </si>
   <si>
     <t>2025 Harley-Davidson Pan America 1250 ST</t>
   </si>
   <si>
+    <t>$400/MO</t>
+  </si>
+  <si>
     <t>2025 Honda XL750 Transalp</t>
   </si>
   <si>
     <t>2025 Kawasaki Versys-X 300</t>
   </si>
   <si>
+    <t>$77/MO</t>
+  </si>
+  <si>
     <t>2025 Triumph Tiger 900 GT</t>
   </si>
   <si>
     <t>2025 Aprilia Tuareg 660</t>
   </si>
   <si>
-    <t>2025 Royal Enfield Interceptor 650</t>
-  </si>
-  <si>
-    <t>2025 TVS Apache RTR 310</t>
-  </si>
-  <si>
-    <t>2025 Yamaha FZ S Hybrid</t>
-  </si>
-  <si>
-    <t>2025 Keeway RR 300</t>
+    <t>$205/MO</t>
   </si>
   <si>
     <t>2025 Honda Rebel 500</t>
-  </si>
-  <si>
-    <t>$667/MO</t>
-  </si>
-  <si>
-    <t>$600/MO</t>
-  </si>
-  <si>
-    <t>$583/MO</t>
-  </si>
-  <si>
-    <t>$483/MO</t>
-  </si>
-  <si>
-    <t>$467/MO</t>
-  </si>
-  <si>
-    <t>$425/MO</t>
-  </si>
-  <si>
-    <t>$417/MO</t>
-  </si>
-  <si>
-    <t>$400/MO</t>
-  </si>
-  <si>
-    <t>$358/MO</t>
-  </si>
-  <si>
-    <t>$350/MO</t>
-  </si>
-  <si>
-    <t>$342/MO</t>
-  </si>
-  <si>
-    <t>$333/MO</t>
-  </si>
-  <si>
-    <t>$325/MO</t>
-  </si>
-  <si>
-    <t>$317/MO</t>
-  </si>
-  <si>
-    <t>$310/MO</t>
-  </si>
-  <si>
-    <t>$308/MO</t>
-  </si>
-  <si>
-    <t>$300/MO</t>
-  </si>
-  <si>
-    <t>$292/MO</t>
-  </si>
-  <si>
-    <t>$283/MO</t>
-  </si>
-  <si>
-    <t>$275/MO</t>
-  </si>
-  <si>
-    <t>$272/MO</t>
-  </si>
-  <si>
-    <t>$267/MO</t>
-  </si>
-  <si>
-    <t>$258/MO</t>
-  </si>
-  <si>
-    <t>$255/MO</t>
-  </si>
-  <si>
-    <t>$250/MO</t>
-  </si>
-  <si>
-    <t>$248/MO</t>
-  </si>
-  <si>
-    <t>$242/MO</t>
-  </si>
-  <si>
-    <t>$43/MO</t>
-  </si>
-  <si>
-    <t>$50/MO</t>
-  </si>
-  <si>
-    <t>$67/MO</t>
-  </si>
-  <si>
-    <t>$72/MO</t>
-  </si>
-  <si>
-    <t>$75/MO</t>
-  </si>
-  <si>
-    <t>$83/MO</t>
-  </si>
-  <si>
-    <t>$92/MO</t>
-  </si>
-  <si>
-    <t>$95/MO</t>
-  </si>
-  <si>
-    <t>$97/MO</t>
-  </si>
-  <si>
-    <t>$100/MO</t>
-  </si>
-  <si>
-    <t>$105/MO</t>
-  </si>
-  <si>
-    <t>$108/MO</t>
-  </si>
-  <si>
-    <t>$117/MO</t>
-  </si>
-  <si>
-    <t>$120/MO</t>
-  </si>
-  <si>
-    <t>$122/MO</t>
-  </si>
-  <si>
-    <t>$125/MO</t>
-  </si>
-  <si>
-    <t>$127/MO</t>
-  </si>
-  <si>
-    <t>$130/MO</t>
-  </si>
-  <si>
-    <t>$133/MO</t>
-  </si>
-  <si>
-    <t>$137/MO</t>
-  </si>
-  <si>
-    <t>$142/MO</t>
-  </si>
-  <si>
-    <t>$145/MO</t>
-  </si>
-  <si>
-    <t>$148/MO</t>
-  </si>
-  <si>
-    <t>$150/MO</t>
-  </si>
-  <si>
-    <t>$217/MO</t>
-  </si>
-  <si>
-    <t>$233/MO</t>
-  </si>
-  <si>
-    <t>$207/MO</t>
-  </si>
-  <si>
-    <t>$177/MO</t>
-  </si>
-  <si>
-    <t>$200/MO</t>
-  </si>
-  <si>
-    <t>$215/MO</t>
-  </si>
-  <si>
-    <t>$225/MO</t>
-  </si>
-  <si>
-    <t>$157/MO</t>
-  </si>
-  <si>
-    <t>$158/MO</t>
-  </si>
-  <si>
-    <t>$167/MO</t>
-  </si>
-  <si>
-    <t>$175/MO</t>
-  </si>
-  <si>
-    <t>$183/MO</t>
-  </si>
-  <si>
-    <t>$192/MO</t>
-  </si>
-  <si>
-    <t>$222/MO</t>
-  </si>
-  <si>
-    <t>$153/MO</t>
-  </si>
-  <si>
-    <t>$238/MO</t>
-  </si>
-  <si>
-    <t>$208/MO</t>
-  </si>
-  <si>
-    <t>$293/MO</t>
-  </si>
-  <si>
-    <t>$163/MO</t>
-  </si>
-  <si>
-    <t>$162/MO</t>
-  </si>
-  <si>
-    <t>$433/MO</t>
-  </si>
-  <si>
-    <t>$290/MO</t>
-  </si>
-  <si>
-    <t>$188/MO</t>
-  </si>
-  <si>
-    <t>$160/MO</t>
-  </si>
-  <si>
-    <t>$407/MO</t>
-  </si>
-  <si>
-    <t>$77/MO</t>
-  </si>
-  <si>
-    <t>$205/MO</t>
-  </si>
-  <si>
-    <t>$103/MO</t>
-  </si>
-  <si>
-    <t>$28/MO</t>
-  </si>
-  <si>
-    <t>$39/MO</t>
-  </si>
-  <si>
-    <t>supersport</t>
-  </si>
-  <si>
-    <t>touring</t>
-  </si>
-  <si>
-    <t>naked</t>
-  </si>
-  <si>
-    <t>dirtbike</t>
-  </si>
-  <si>
-    <t>supermoto</t>
-  </si>
-  <si>
-    <t>dirt</t>
-  </si>
-  <si>
-    <t>adventure</t>
-  </si>
-  <si>
-    <t>cruiser</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>commuter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,16 +766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFEEF0FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -843,12 +804,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,9 +827,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -907,7 +867,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -941,7 +901,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -976,10 +935,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1153,20 +1111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1197,13 +1152,13 @@
         <v>39999</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>999</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1211,19 +1166,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>35999</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>999</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1231,19 +1186,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>34999</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>998</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1251,19 +1206,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>28999</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1103</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1271,19 +1226,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>27999</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1832</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1291,19 +1246,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>25499</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>999</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1311,19 +1266,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>24999</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>999</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1331,19 +1286,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>21499</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>998</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1351,19 +1306,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>20999</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>998</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1371,19 +1326,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>20499</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>1000</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1391,19 +1346,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>19999</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1411,19 +1366,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>19999</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1431,19 +1386,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>19999</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1000</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1451,19 +1406,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>19499</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1471,19 +1426,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>19499</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>1000</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1491,19 +1446,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>18999</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>1000</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1511,19 +1466,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>18599</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <v>1000</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1531,19 +1486,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>18499</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>1100</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1551,19 +1506,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>18499</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D20">
         <v>1000</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1571,19 +1526,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>17999</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>959</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1591,19 +1546,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>17999</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>1000</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1611,19 +1566,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>17999</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>1000</v>
       </c>
       <c r="E23" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1631,19 +1586,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>17999</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>1000</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1651,19 +1606,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>17499</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>1000</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1671,19 +1626,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>16999</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>1000</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1691,19 +1646,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>16999</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>1000</v>
       </c>
       <c r="E27" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1711,19 +1666,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>16999</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>1200</v>
       </c>
       <c r="E28" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1731,19 +1686,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>16999</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D29">
         <v>1000</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1751,19 +1706,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>16999</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>1000</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1771,19 +1726,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>16999</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>1000</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1791,19 +1746,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>16499</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>1200</v>
       </c>
       <c r="E32" t="s">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1811,19 +1766,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>16297</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <v>1000</v>
       </c>
       <c r="E33" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1831,19 +1786,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>15999</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>1000</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1851,19 +1806,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>15999</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="D35">
         <v>600</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1871,19 +1826,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>15999</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>1000</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1891,19 +1846,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>15999</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>1000</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1911,19 +1866,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>15499</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D38">
         <v>1000</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1931,19 +1886,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>15499</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>600</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1951,19 +1906,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>15498</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>1000</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1971,19 +1926,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>15299</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>1000</v>
       </c>
       <c r="E41" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1991,19 +1946,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>14999</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>600</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2011,19 +1966,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>14999</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>1000</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2031,19 +1986,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>14999</v>
       </c>
       <c r="C44" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>600</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2051,19 +2006,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>14999</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>1000</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -2071,19 +2026,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>14999</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>600</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2091,19 +2046,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>14899</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="D47">
         <v>1400</v>
       </c>
       <c r="E47" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2111,19 +2066,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>14499</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D48">
         <v>600</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2131,19 +2086,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>2599</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="D49">
         <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -2151,19 +2106,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>2999</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2171,19 +2126,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>3999</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="D51">
         <v>300</v>
       </c>
       <c r="E51" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -2191,19 +2146,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>4299</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="D52">
         <v>950</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2211,19 +2166,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>4499</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="D53">
         <v>675</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -2231,19 +2186,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>4999</v>
       </c>
       <c r="C54" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <v>900</v>
       </c>
       <c r="E54" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -2251,19 +2206,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>5499</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="D55">
         <v>300</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2271,19 +2226,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B56">
         <v>5687</v>
       </c>
       <c r="C56" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="D56">
         <v>400</v>
       </c>
       <c r="E56" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -2291,19 +2246,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B57">
         <v>5799</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="D57">
         <v>400</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2311,19 +2266,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B58">
         <v>5999</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D58">
         <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -2331,19 +2286,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B59">
         <v>6299</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="D59">
         <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2351,19 +2306,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B60">
         <v>6499</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="D60">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2371,19 +2326,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B61">
         <v>6999</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D61">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -2391,19 +2346,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>7199</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D62">
         <v>500</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -2411,19 +2366,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>7299</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="D63">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2431,19 +2386,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B64">
         <v>7499</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D64">
         <v>750</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2451,19 +2406,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>7599</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>700</v>
       </c>
       <c r="E65" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -2471,19 +2426,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>7799</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>750</v>
       </c>
       <c r="E66" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -2491,19 +2446,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>7999</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D67">
         <v>700</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -2511,19 +2466,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>8199</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="D68">
         <v>700</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2531,19 +2486,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>8499</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D69">
         <v>900</v>
       </c>
       <c r="E69" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -2551,19 +2506,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>8699</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="D70">
         <v>900</v>
       </c>
       <c r="E70" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -2571,19 +2526,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B71">
         <v>8899</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="D71">
         <v>650</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2591,19 +2546,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B72">
         <v>8999</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D72">
         <v>650</v>
       </c>
       <c r="E72" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -2611,19 +2566,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B73">
         <v>7999</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D73">
         <v>900</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -2631,19 +2586,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B74">
         <v>12999</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D74">
         <v>750</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2651,19 +2606,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B75">
         <v>13999</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D75">
         <v>600</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2671,19 +2626,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B76">
         <v>7999</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D76">
         <v>900</v>
       </c>
       <c r="E76" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -2691,19 +2646,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B77">
         <v>7999</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D77">
         <v>900</v>
       </c>
       <c r="E77" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -2711,19 +2666,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="B78">
         <v>8999</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D78">
         <v>750</v>
       </c>
       <c r="E78" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -2731,19 +2686,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B79">
         <v>5999</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D79">
         <v>450</v>
       </c>
       <c r="E79" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -2751,19 +2706,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B80">
         <v>7499</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D80">
         <v>650</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2771,19 +2726,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B81">
         <v>12399</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D81">
         <v>1000</v>
       </c>
       <c r="E81" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -2791,19 +2746,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B82">
         <v>10599</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="D82">
         <v>700</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2811,19 +2766,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="B83">
         <v>11999</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="D83">
         <v>600</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2831,19 +2786,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B84">
         <v>7499</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D84">
         <v>300</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F84">
         <v>4</v>
@@ -2851,19 +2806,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B85">
         <v>6999</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D85">
         <v>900</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -2871,19 +2826,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B86">
         <v>7000</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>390</v>
       </c>
       <c r="E86" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -2891,19 +2846,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B87">
         <v>8999</v>
       </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D87">
         <v>900</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -2911,39 +2866,39 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="B88">
         <v>14499</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D88">
         <v>1200</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B89">
         <v>5999</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D89">
         <v>500</v>
       </c>
       <c r="E89" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -2951,39 +2906,39 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B90">
         <v>6999</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D90">
         <v>790</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B91">
         <v>12899</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D91">
         <v>1250</v>
       </c>
       <c r="E91" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -2991,19 +2946,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B92">
         <v>13499</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="D92">
         <v>1000</v>
       </c>
       <c r="E92" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -3011,19 +2966,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B93">
         <v>7999</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D93">
         <v>500</v>
       </c>
       <c r="E93" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3031,19 +2986,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B94">
         <v>6499</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="D94">
         <v>500</v>
       </c>
       <c r="E94" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -3051,19 +3006,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="B95">
         <v>9399</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" s="2">
+        <v>144</v>
+      </c>
+      <c r="D95">
         <v>1800</v>
       </c>
       <c r="E95" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -3071,19 +3026,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B96">
         <v>9499</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="D96">
         <v>900</v>
       </c>
       <c r="E96" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -3091,19 +3046,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B97">
         <v>12999</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D97">
         <v>1800</v>
       </c>
       <c r="E97" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -3111,19 +3066,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B98">
         <v>7999</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D98">
         <v>750</v>
       </c>
       <c r="E98" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -3131,19 +3086,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="B99">
         <v>21000</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D99">
         <v>1290</v>
       </c>
       <c r="E99" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -3151,19 +3106,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B100">
         <v>10499</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D100">
         <v>600</v>
       </c>
       <c r="E100" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3171,19 +3126,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B101">
         <v>10499</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D101">
         <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3191,19 +3146,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B102">
         <v>10998</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D102">
         <v>600</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3211,19 +3166,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="B103">
         <v>5499</v>
       </c>
       <c r="C103" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="D103">
         <v>650</v>
       </c>
       <c r="E103" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3231,19 +3186,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="B104">
         <v>11499</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D104">
         <v>600</v>
       </c>
       <c r="E104" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3251,19 +3206,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>7999</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D105">
         <v>900</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -3271,19 +3226,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B106">
         <v>9999</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D106">
         <v>700</v>
       </c>
       <c r="E106" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3291,19 +3246,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="B107">
         <v>7999</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D107">
         <v>1312</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -3311,19 +3266,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B108">
         <v>6999</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D108">
         <v>650</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -3331,19 +3286,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B109">
         <v>6999</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D109">
         <v>650</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3351,19 +3306,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B110">
         <v>6499</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="D110">
         <v>650</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3371,19 +3326,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B111">
         <v>10999</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D111">
         <v>600</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3391,19 +3346,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="B112">
         <v>10999</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D112">
         <v>600</v>
       </c>
       <c r="E112" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3411,19 +3366,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="B113">
         <v>9999</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D113">
         <v>600</v>
       </c>
       <c r="E113" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3431,19 +3386,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="B114">
         <v>11999</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="D114">
         <v>750</v>
       </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3451,19 +3406,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B115">
         <v>6499</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="D115">
         <v>450</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -3471,19 +3426,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="B116">
         <v>9399</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="D116">
         <v>650</v>
       </c>
       <c r="E116" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3491,19 +3446,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="B117">
         <v>12999</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D117">
         <v>600</v>
       </c>
       <c r="E117" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3511,19 +3466,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B118">
         <v>9499</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="D118">
         <v>1100</v>
       </c>
       <c r="E118" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -3531,19 +3486,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B119">
         <v>13999</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D119">
         <v>750</v>
       </c>
       <c r="E119" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3551,19 +3506,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="B120">
         <v>5999</v>
       </c>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D120">
         <v>650</v>
       </c>
       <c r="E120" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -3571,19 +3526,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="B121">
         <v>13999</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D121">
         <v>600</v>
       </c>
       <c r="E121" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3591,19 +3546,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B122">
         <v>13999</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D122">
         <v>750</v>
       </c>
       <c r="E122" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3611,19 +3566,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B123">
         <v>8499</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D123">
         <v>450</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F123">
         <v>4</v>
@@ -3631,19 +3586,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="B124">
         <v>13299</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="D124">
         <v>600</v>
       </c>
       <c r="E124" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3651,19 +3606,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B125">
         <v>10499</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D125">
         <v>600</v>
       </c>
       <c r="E125" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3671,19 +3626,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B126">
         <v>13999</v>
       </c>
       <c r="C126" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D126">
         <v>600</v>
       </c>
       <c r="E126" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3691,19 +3646,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B127">
         <v>14499</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D127">
         <v>600</v>
       </c>
       <c r="E127" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3711,19 +3666,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B128">
         <v>10999</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D128">
         <v>700</v>
       </c>
       <c r="E128" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3731,19 +3686,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="B129">
         <v>13999</v>
       </c>
       <c r="C129" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D129">
         <v>750</v>
       </c>
       <c r="E129" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3751,19 +3706,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B130">
         <v>10499</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D130">
         <v>900</v>
       </c>
       <c r="E130" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -3771,19 +3726,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B131">
         <v>8999</v>
       </c>
       <c r="C131" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D131">
         <v>1200</v>
       </c>
       <c r="E131" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -3791,19 +3746,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="B132">
         <v>2999</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="D132">
         <v>120</v>
       </c>
       <c r="E132" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -3811,19 +3766,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="B133">
         <v>10499</v>
       </c>
       <c r="C133" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D133">
         <v>900</v>
       </c>
       <c r="E133" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -3831,19 +3786,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="B134">
         <v>7999</v>
       </c>
       <c r="C134" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D134">
         <v>650</v>
       </c>
       <c r="E134" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3851,19 +3806,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B135">
         <v>13999</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D135">
         <v>600</v>
       </c>
       <c r="E135" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3871,19 +3826,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="B136">
         <v>4499</v>
       </c>
       <c r="C136" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="D136">
         <v>300</v>
       </c>
       <c r="E136" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -3891,19 +3846,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B137">
         <v>10999</v>
       </c>
       <c r="C137" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D137">
         <v>700</v>
       </c>
       <c r="E137" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3911,19 +3866,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="B138">
         <v>12999</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D138">
         <v>1000</v>
       </c>
       <c r="E138" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -3931,19 +3886,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B139">
         <v>10499</v>
       </c>
       <c r="C139" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D139">
         <v>700</v>
       </c>
       <c r="E139" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3951,19 +3906,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="B140">
         <v>9199</v>
       </c>
       <c r="C140" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="D140">
         <v>650</v>
       </c>
       <c r="E140" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3971,19 +3926,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B141">
         <v>14499</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D141">
         <v>600</v>
       </c>
       <c r="E141" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3991,19 +3946,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B142">
         <v>13999</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D142">
         <v>660</v>
       </c>
       <c r="E142" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -4011,19 +3966,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B143">
         <v>14299</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="D143">
         <v>600</v>
       </c>
       <c r="E143" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -4031,19 +3986,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B144">
         <v>12999</v>
       </c>
       <c r="C144" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D144">
         <v>600</v>
       </c>
       <c r="E144" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -4051,19 +4006,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="B145">
         <v>9999</v>
       </c>
       <c r="C145" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D145">
         <v>900</v>
       </c>
       <c r="E145" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -4071,19 +4026,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="B146">
         <v>11999</v>
       </c>
       <c r="C146" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="D146">
         <v>1000</v>
       </c>
       <c r="E146" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F146">
         <v>4</v>
@@ -4091,19 +4046,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="B147">
         <v>5999</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D147">
         <v>125</v>
       </c>
       <c r="E147" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -4111,19 +4066,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B148">
         <v>11499</v>
       </c>
       <c r="C148" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D148">
         <v>600</v>
       </c>
       <c r="E148" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -4131,19 +4086,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="B149">
         <v>14499</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D149">
         <v>1300</v>
       </c>
       <c r="E149" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4151,19 +4106,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="B150">
         <v>9999</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D150">
         <v>600</v>
       </c>
       <c r="E150" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -4171,19 +4126,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="B151">
         <v>11999</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="D151">
         <v>660</v>
       </c>
       <c r="E151" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4191,19 +4146,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="B152">
         <v>6999</v>
       </c>
       <c r="C152" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="D152">
         <v>600</v>
       </c>
       <c r="E152" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -4211,19 +4166,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="B153">
         <v>8499</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D153">
         <v>1312</v>
       </c>
       <c r="E153" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -4231,19 +4186,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B154">
         <v>7999</v>
       </c>
       <c r="C154" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D154">
         <v>500</v>
       </c>
       <c r="E154" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4251,19 +4206,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="B155">
         <v>12999</v>
       </c>
       <c r="C155" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D155">
         <v>1000</v>
       </c>
       <c r="E155" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4271,19 +4226,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="B156">
         <v>7499</v>
       </c>
       <c r="C156" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="D156">
         <v>700</v>
       </c>
       <c r="E156" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F156">
         <v>2</v>
@@ -4291,19 +4246,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="B157">
         <v>8999</v>
       </c>
       <c r="C157" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D157">
         <v>750</v>
       </c>
       <c r="E157" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="F157">
         <v>4</v>
@@ -4311,19 +4266,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="B158">
         <v>7999</v>
       </c>
       <c r="C158" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="D158">
         <v>700</v>
       </c>
       <c r="E158" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -4331,19 +4286,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B159">
         <v>13999</v>
       </c>
       <c r="C159" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D159">
         <v>750</v>
       </c>
       <c r="E159" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4351,19 +4306,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>10999</v>
       </c>
       <c r="C160" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="D160">
         <v>600</v>
       </c>
       <c r="E160" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4371,19 +4326,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>12499</v>
       </c>
       <c r="C161" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D161">
         <v>700</v>
       </c>
       <c r="E161" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4391,19 +4346,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B162">
         <v>8999</v>
       </c>
       <c r="C162" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D162">
         <v>501</v>
       </c>
       <c r="E162" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4411,19 +4366,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B163">
         <v>12995</v>
       </c>
       <c r="C163" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D163">
         <v>765</v>
       </c>
       <c r="E163" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -4431,19 +4386,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B164">
         <v>17599</v>
       </c>
       <c r="C164" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D164">
         <v>998</v>
       </c>
       <c r="E164" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4451,19 +4406,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B165">
         <v>17599</v>
       </c>
       <c r="C165" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D165">
         <v>998</v>
       </c>
       <c r="E165" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4471,19 +4426,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B166">
         <v>28999</v>
       </c>
       <c r="C166" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D166">
         <v>999</v>
       </c>
       <c r="E166" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4491,19 +4446,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B167">
         <v>9799</v>
       </c>
       <c r="C167" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D167">
         <v>450</v>
       </c>
       <c r="E167" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F167">
         <v>4</v>
@@ -4511,36 +4466,39 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B168">
         <v>14999</v>
       </c>
       <c r="C168" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D168">
         <v>1084</v>
       </c>
       <c r="E168" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B169">
         <v>19999</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D169">
         <v>1301</v>
       </c>
       <c r="E169" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -4548,19 +4506,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="B170">
         <v>15495</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D170">
         <v>937</v>
       </c>
       <c r="E170" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -4568,19 +4526,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B171">
         <v>18499</v>
       </c>
       <c r="C171" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D171">
         <v>999</v>
       </c>
       <c r="E171" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4588,19 +4546,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B172">
         <v>17995</v>
       </c>
       <c r="C172" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D172">
         <v>937</v>
       </c>
       <c r="E172" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -4608,19 +4566,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B173">
         <v>18499</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D173">
         <v>999</v>
       </c>
       <c r="E173" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4628,19 +4586,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B174">
         <v>9699</v>
       </c>
       <c r="C174" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D174">
         <v>449</v>
       </c>
       <c r="E174" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F174">
         <v>4</v>
@@ -4648,19 +4606,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B175">
         <v>17995</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D175">
         <v>937</v>
       </c>
       <c r="E175" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4668,36 +4626,39 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B176">
         <v>14999</v>
       </c>
       <c r="C176" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D176">
         <v>1084</v>
       </c>
       <c r="E176" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F176">
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B177">
         <v>19999</v>
       </c>
       <c r="C177" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D177">
         <v>1301</v>
       </c>
       <c r="E177" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -4705,36 +4666,39 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B178">
         <v>25995</v>
       </c>
       <c r="C178" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D178">
         <v>1158</v>
       </c>
       <c r="E178" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F178">
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B179">
         <v>9799</v>
       </c>
       <c r="C179" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D179">
         <v>450</v>
       </c>
       <c r="E179" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F179">
         <v>4</v>
@@ -4742,19 +4706,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B180">
         <v>12995</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D180">
         <v>765</v>
       </c>
       <c r="E180" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -4762,19 +4726,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B181">
         <v>12499</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D181">
         <v>692</v>
       </c>
       <c r="E181" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -4782,19 +4746,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B182">
         <v>28999</v>
       </c>
       <c r="C182" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D182">
         <v>999</v>
       </c>
       <c r="E182" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -4802,36 +4766,39 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B183">
         <v>14999</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D183">
         <v>1084</v>
       </c>
       <c r="E183" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F183">
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B184">
         <v>17399</v>
       </c>
       <c r="C184" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D184">
         <v>998</v>
       </c>
       <c r="E184" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4839,19 +4806,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B185">
         <v>17995</v>
       </c>
       <c r="C185" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D185">
         <v>937</v>
       </c>
       <c r="E185" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4859,19 +4826,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B186">
         <v>12995</v>
       </c>
       <c r="C186" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D186">
         <v>765</v>
       </c>
       <c r="E186" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -4879,19 +4846,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B187">
         <v>12995</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D187">
         <v>765</v>
       </c>
       <c r="E187" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -4899,36 +4866,39 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="B188">
         <v>20995</v>
       </c>
       <c r="C188" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D188">
         <v>1254</v>
       </c>
       <c r="E188" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F188">
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B189">
         <v>12499</v>
       </c>
       <c r="C189" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D189">
         <v>692</v>
       </c>
       <c r="E189" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -4936,36 +4906,39 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="B190">
         <v>11299</v>
       </c>
       <c r="C190" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D190">
         <v>449</v>
       </c>
       <c r="E190" t="s">
-        <v>247</v>
+        <v>209</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B191">
         <v>13999</v>
       </c>
       <c r="C191" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D191">
         <v>998</v>
       </c>
       <c r="E191" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -4973,19 +4946,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B192">
         <v>9699</v>
       </c>
       <c r="C192" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D192">
         <v>449</v>
       </c>
       <c r="E192" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F192">
         <v>4</v>
@@ -4993,36 +4966,39 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B193">
         <v>20999</v>
       </c>
       <c r="C193" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D193">
         <v>1301</v>
       </c>
       <c r="E193" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F193">
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B194">
         <v>12499</v>
       </c>
       <c r="C194" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D194">
         <v>692</v>
       </c>
       <c r="E194" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -5030,36 +5006,39 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B195">
         <v>9699</v>
       </c>
       <c r="C195" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D195">
         <v>449</v>
       </c>
       <c r="E195" t="s">
-        <v>247</v>
+        <v>209</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B196">
         <v>12399</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D196">
         <v>690</v>
       </c>
       <c r="E196" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -5067,19 +5046,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B197">
         <v>9699</v>
       </c>
       <c r="C197" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D197">
         <v>449</v>
       </c>
       <c r="E197" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F197">
         <v>4</v>
@@ -5087,19 +5066,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B198">
         <v>9799</v>
       </c>
       <c r="C198" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D198">
         <v>450</v>
       </c>
       <c r="E198" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F198">
         <v>4</v>
@@ -5107,19 +5086,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B199">
         <v>8999</v>
       </c>
       <c r="C199" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D199">
         <v>501</v>
       </c>
       <c r="E199" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -5127,19 +5106,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B200">
         <v>19999</v>
       </c>
       <c r="C200" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D200">
         <v>1301</v>
       </c>
       <c r="E200" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F200">
         <v>2</v>
@@ -5147,19 +5126,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B201">
         <v>9599</v>
       </c>
       <c r="C201" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D201">
         <v>449</v>
       </c>
       <c r="E201" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F201">
         <v>4</v>
@@ -5167,19 +5146,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B202">
         <v>9599</v>
       </c>
       <c r="C202" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D202">
         <v>449</v>
       </c>
       <c r="E202" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F202">
         <v>4</v>
@@ -5187,19 +5166,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>12499</v>
       </c>
       <c r="C203" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D203">
         <v>692</v>
       </c>
       <c r="E203" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -5207,19 +5186,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B204">
         <v>17599</v>
       </c>
       <c r="C204" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D204">
         <v>998</v>
       </c>
       <c r="E204" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -5227,19 +5206,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>12995</v>
       </c>
       <c r="C205" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D205">
         <v>765</v>
       </c>
       <c r="E205" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -5247,19 +5226,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B206">
         <v>12499</v>
       </c>
       <c r="C206" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D206">
         <v>692</v>
       </c>
       <c r="E206" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -5267,19 +5246,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B207">
         <v>17599</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D207">
         <v>998</v>
       </c>
       <c r="E207" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -5287,19 +5266,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B208">
         <v>17995</v>
       </c>
       <c r="C208" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D208">
         <v>937</v>
       </c>
       <c r="E208" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -5307,19 +5286,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="B209">
         <v>15495</v>
       </c>
       <c r="C209" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D209">
         <v>937</v>
       </c>
       <c r="E209" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -5327,19 +5306,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="B210">
         <v>15495</v>
       </c>
       <c r="C210" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D210">
         <v>937</v>
       </c>
       <c r="E210" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -5347,19 +5326,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B211">
         <v>18499</v>
       </c>
       <c r="C211" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D211">
         <v>999</v>
       </c>
       <c r="E211" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -5367,19 +5346,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B212">
         <v>28999</v>
       </c>
       <c r="C212" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D212">
         <v>999</v>
       </c>
       <c r="E212" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -5387,19 +5366,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B213">
         <v>18499</v>
       </c>
       <c r="C213" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D213">
         <v>999</v>
       </c>
       <c r="E213" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5407,19 +5386,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B214">
         <v>8999</v>
       </c>
       <c r="C214" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D214">
         <v>501</v>
       </c>
       <c r="E214" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -5427,19 +5406,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B215">
         <v>13999</v>
       </c>
       <c r="C215" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D215">
         <v>998</v>
       </c>
       <c r="E215" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -5447,36 +5426,39 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B216">
         <v>20999</v>
       </c>
       <c r="C216" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D216">
         <v>1301</v>
       </c>
       <c r="E216" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F216">
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B217">
         <v>12499</v>
       </c>
       <c r="C217" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D217">
         <v>692</v>
       </c>
       <c r="E217" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -5484,19 +5466,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B218">
         <v>12499</v>
       </c>
       <c r="C218" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D218">
         <v>692</v>
       </c>
       <c r="E218" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -5504,36 +5486,39 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B219">
         <v>14999</v>
       </c>
       <c r="C219" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D219">
         <v>1084</v>
       </c>
       <c r="E219" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F219">
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B220">
         <v>19999</v>
       </c>
       <c r="C220" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D220">
         <v>1301</v>
       </c>
       <c r="E220" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -5541,19 +5526,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B221">
         <v>12499</v>
       </c>
       <c r="C221" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D221">
         <v>692</v>
       </c>
       <c r="E221" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -5561,19 +5546,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B222">
         <v>12399</v>
       </c>
       <c r="C222" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D222">
         <v>690</v>
       </c>
       <c r="E222" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5581,19 +5566,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B223">
         <v>17399</v>
       </c>
       <c r="C223" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D223">
         <v>998</v>
       </c>
       <c r="E223" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -5601,19 +5586,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B224">
         <v>19999</v>
       </c>
       <c r="C224" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D224">
         <v>1301</v>
       </c>
       <c r="E224" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F224">
         <v>2</v>
@@ -5621,19 +5606,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B225">
         <v>28999</v>
       </c>
       <c r="C225" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D225">
         <v>999</v>
       </c>
       <c r="E225" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -5641,19 +5626,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B226">
         <v>13999</v>
       </c>
       <c r="C226" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D226">
         <v>998</v>
       </c>
       <c r="E226" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -5661,19 +5646,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B227">
         <v>9599</v>
       </c>
       <c r="C227" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D227">
         <v>449</v>
       </c>
       <c r="E227" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F227">
         <v>4</v>
@@ -5681,19 +5666,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B228">
         <v>13999</v>
       </c>
       <c r="C228" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D228">
         <v>998</v>
       </c>
       <c r="E228" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -5701,19 +5686,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B229">
         <v>17399</v>
       </c>
       <c r="C229" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D229">
         <v>998</v>
       </c>
       <c r="E229" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -5721,19 +5706,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B230">
         <v>19999</v>
       </c>
       <c r="C230" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D230">
         <v>1301</v>
       </c>
       <c r="E230" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -5741,19 +5726,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="B231">
         <v>12499</v>
       </c>
       <c r="C231" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D231">
         <v>692</v>
       </c>
       <c r="E231" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -5761,19 +5746,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B232">
         <v>13999</v>
       </c>
       <c r="C232" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D232">
         <v>998</v>
       </c>
       <c r="E232" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -5781,19 +5766,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B233">
         <v>12399</v>
       </c>
       <c r="C233" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D233">
         <v>690</v>
       </c>
       <c r="E233" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -5801,19 +5786,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B234">
         <v>17995</v>
       </c>
       <c r="C234" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D234">
         <v>937</v>
       </c>
       <c r="E234" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -5821,39 +5806,39 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B235">
         <v>14999</v>
       </c>
       <c r="C235" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D235">
         <v>1084</v>
       </c>
       <c r="E235" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B236">
         <v>17399</v>
       </c>
       <c r="C236" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D236">
         <v>998</v>
       </c>
       <c r="E236" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -5861,39 +5846,39 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="B237">
         <v>20995</v>
       </c>
       <c r="C237" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D237">
         <v>1254</v>
       </c>
       <c r="E237" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B238">
         <v>19999</v>
       </c>
       <c r="C238" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D238">
         <v>1301</v>
       </c>
       <c r="E238" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F238">
         <v>2</v>
@@ -5901,19 +5886,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B239">
         <v>9799</v>
       </c>
       <c r="C239" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D239">
         <v>450</v>
       </c>
       <c r="E239" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F239">
         <v>4</v>
@@ -5921,19 +5906,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B240">
         <v>19999</v>
       </c>
       <c r="C240" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D240">
         <v>1301</v>
       </c>
       <c r="E240" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F240">
         <v>2</v>
@@ -5941,19 +5926,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B241">
         <v>18499</v>
       </c>
       <c r="C241" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D241">
         <v>999</v>
       </c>
       <c r="E241" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -5961,19 +5946,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B242">
         <v>13999</v>
       </c>
       <c r="C242" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D242">
         <v>998</v>
       </c>
       <c r="E242" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -5981,39 +5966,39 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B243">
         <v>20999</v>
       </c>
       <c r="C243" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D243">
         <v>1301</v>
       </c>
       <c r="E243" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="B244">
         <v>15495</v>
       </c>
       <c r="C244" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="D244">
         <v>937</v>
       </c>
       <c r="E244" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F244">
         <v>2</v>
@@ -6021,19 +6006,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B245">
         <v>9699</v>
       </c>
       <c r="C245" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D245">
         <v>449</v>
       </c>
       <c r="E245" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F245">
         <v>4</v>
@@ -6041,39 +6026,39 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B246">
         <v>20999</v>
       </c>
       <c r="C246" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D246">
         <v>1301</v>
       </c>
       <c r="E246" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B247">
         <v>9599</v>
       </c>
       <c r="C247" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D247">
         <v>449</v>
       </c>
       <c r="E247" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F247">
         <v>4</v>
@@ -6081,19 +6066,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B248">
         <v>17599</v>
       </c>
       <c r="C248" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D248">
         <v>998</v>
       </c>
       <c r="E248" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6101,19 +6086,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B249">
         <v>12995</v>
       </c>
       <c r="C249" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D249">
         <v>765</v>
       </c>
       <c r="E249" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -6121,19 +6106,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B250">
         <v>9699</v>
       </c>
       <c r="C250" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D250">
         <v>449</v>
       </c>
       <c r="E250" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -6141,19 +6126,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B251">
         <v>18499</v>
       </c>
       <c r="C251" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D251">
         <v>999</v>
       </c>
       <c r="E251" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -6161,39 +6146,39 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B252">
         <v>25995</v>
       </c>
       <c r="C252" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D252">
         <v>1158</v>
       </c>
       <c r="E252" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B253">
         <v>17399</v>
       </c>
       <c r="C253" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D253">
         <v>998</v>
       </c>
       <c r="E253" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -6201,19 +6186,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B254">
         <v>17599</v>
       </c>
       <c r="C254" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D254">
         <v>998</v>
       </c>
       <c r="E254" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -6221,19 +6206,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B255">
         <v>9599</v>
       </c>
       <c r="C255" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D255">
         <v>449</v>
       </c>
       <c r="E255" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F255">
         <v>4</v>
@@ -6241,19 +6226,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="B256">
         <v>11299</v>
       </c>
       <c r="C256" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D256">
         <v>449</v>
       </c>
       <c r="E256" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F256">
         <v>4</v>
@@ -6261,19 +6246,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B257">
         <v>9599</v>
       </c>
       <c r="C257" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D257">
         <v>449</v>
       </c>
       <c r="E257" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -6281,59 +6266,59 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B258">
         <v>20999</v>
       </c>
       <c r="C258" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D258">
         <v>1301</v>
       </c>
       <c r="E258" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F258">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B259">
         <v>25995</v>
       </c>
       <c r="C259" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D259">
         <v>1158</v>
       </c>
       <c r="E259" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F259">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B260">
         <v>8999</v>
       </c>
       <c r="C260" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D260">
         <v>501</v>
       </c>
       <c r="E260" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -6341,19 +6326,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B261">
         <v>17399</v>
       </c>
       <c r="C261" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D261">
         <v>998</v>
       </c>
       <c r="E261" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -6361,19 +6346,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B262">
         <v>12995</v>
       </c>
       <c r="C262" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D262">
         <v>765</v>
       </c>
       <c r="E262" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -6381,19 +6366,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B263">
         <v>8999</v>
       </c>
       <c r="C263" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D263">
         <v>501</v>
       </c>
       <c r="E263" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -6401,19 +6386,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B264">
         <v>12399</v>
       </c>
       <c r="C264" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D264">
         <v>690</v>
       </c>
       <c r="E264" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -6421,39 +6406,39 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="B265">
         <v>20995</v>
       </c>
       <c r="C265" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D265">
         <v>1254</v>
       </c>
       <c r="E265" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B266">
         <v>17399</v>
       </c>
       <c r="C266" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D266">
         <v>998</v>
       </c>
       <c r="E266" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -6461,19 +6446,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B267">
         <v>9799</v>
       </c>
       <c r="C267" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D267">
         <v>450</v>
       </c>
       <c r="E267" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F267">
         <v>4</v>
@@ -6481,19 +6466,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B268">
         <v>9599</v>
       </c>
       <c r="C268" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D268">
         <v>449</v>
       </c>
       <c r="E268" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F268">
         <v>4</v>
@@ -6501,19 +6486,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B269">
         <v>9599</v>
       </c>
       <c r="C269" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D269">
         <v>449</v>
       </c>
       <c r="E269" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F269">
         <v>4</v>
@@ -6521,19 +6506,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B270">
         <v>9799</v>
       </c>
       <c r="C270" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D270">
         <v>450</v>
       </c>
       <c r="E270" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F270">
         <v>4</v>
@@ -6541,19 +6526,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B271">
         <v>12399</v>
       </c>
       <c r="C271" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="D271">
         <v>690</v>
       </c>
       <c r="E271" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -6561,19 +6546,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B272">
         <v>12995</v>
       </c>
       <c r="C272" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D272">
         <v>765</v>
       </c>
       <c r="E272" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F272">
         <v>2</v>
@@ -6581,19 +6566,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B273">
         <v>18499</v>
       </c>
       <c r="C273" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D273">
         <v>999</v>
       </c>
       <c r="E273" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F273">
         <v>0</v>
@@ -6601,19 +6586,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B274">
         <v>13999</v>
       </c>
       <c r="C274" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D274">
         <v>998</v>
       </c>
       <c r="E274" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F274">
         <v>2</v>
@@ -6621,19 +6606,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B275">
         <v>17995</v>
       </c>
       <c r="C275" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D275">
         <v>937</v>
       </c>
       <c r="E275" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -6641,19 +6626,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B276">
         <v>9799</v>
       </c>
       <c r="C276" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D276">
         <v>450</v>
       </c>
       <c r="E276" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F276">
         <v>4</v>
@@ -6661,19 +6646,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B277">
         <v>12995</v>
       </c>
       <c r="C277" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D277">
         <v>765</v>
       </c>
       <c r="E277" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -6681,19 +6666,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B278">
         <v>19999</v>
       </c>
       <c r="C278" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D278">
         <v>1301</v>
       </c>
       <c r="E278" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F278">
         <v>2</v>
@@ -6701,19 +6686,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B279">
         <v>18499</v>
       </c>
       <c r="C279" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D279">
         <v>999</v>
       </c>
       <c r="E279" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -6721,39 +6706,39 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B280">
         <v>25995</v>
       </c>
       <c r="C280" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D280">
         <v>1158</v>
       </c>
       <c r="E280" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F280">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B281">
         <v>17599</v>
       </c>
       <c r="C281" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D281">
         <v>998</v>
       </c>
       <c r="E281" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6761,19 +6746,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B282">
         <v>17995</v>
       </c>
       <c r="C282" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D282">
         <v>937</v>
       </c>
       <c r="E282" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -6781,39 +6766,39 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B283">
         <v>14999</v>
       </c>
       <c r="C283" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D283">
         <v>1084</v>
       </c>
       <c r="E283" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B284">
         <v>13999</v>
       </c>
       <c r="C284" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D284">
         <v>998</v>
       </c>
       <c r="E284" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F284">
         <v>2</v>
@@ -6821,19 +6806,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="B285">
         <v>17995</v>
       </c>
       <c r="C285" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="D285">
         <v>937</v>
       </c>
       <c r="E285" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -6841,39 +6826,39 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="B286">
         <v>20995</v>
       </c>
       <c r="C286" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D286">
         <v>1254</v>
       </c>
       <c r="E286" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B287">
         <v>17599</v>
       </c>
       <c r="C287" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D287">
         <v>998</v>
       </c>
       <c r="E287" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -6881,59 +6866,59 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="B288">
         <v>25995</v>
       </c>
       <c r="C288" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D288">
         <v>1158</v>
       </c>
       <c r="E288" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F288">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B289">
         <v>20999</v>
       </c>
       <c r="C289" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D289">
         <v>1301</v>
       </c>
       <c r="E289" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B290">
         <v>8999</v>
       </c>
       <c r="C290" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D290">
         <v>501</v>
       </c>
       <c r="E290" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -6941,59 +6926,59 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B291">
         <v>14999</v>
       </c>
       <c r="C291" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D291">
         <v>1084</v>
       </c>
       <c r="E291" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B292">
         <v>20999</v>
       </c>
       <c r="C292" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D292">
         <v>1301</v>
       </c>
       <c r="E292" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F292">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B293">
         <v>9699</v>
       </c>
       <c r="C293" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D293">
         <v>449</v>
       </c>
       <c r="E293" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F293">
         <v>4</v>
@@ -7001,19 +6986,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="B294">
         <v>12995</v>
       </c>
       <c r="C294" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D294">
         <v>765</v>
       </c>
       <c r="E294" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F294">
         <v>2</v>
@@ -7021,39 +7006,39 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B295">
         <v>14999</v>
       </c>
       <c r="C295" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="D295">
         <v>1084</v>
       </c>
       <c r="E295" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F295">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B296">
         <v>19999</v>
       </c>
       <c r="C296" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D296">
         <v>1301</v>
       </c>
       <c r="E296" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F296">
         <v>2</v>
@@ -7061,19 +7046,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B297">
         <v>19999</v>
       </c>
       <c r="C297" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D297">
         <v>1301</v>
       </c>
       <c r="E297" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F297">
         <v>2</v>
@@ -7081,19 +7066,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B298">
         <v>8999</v>
       </c>
       <c r="C298" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="D298">
         <v>501</v>
       </c>
       <c r="E298" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -7101,19 +7086,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B299">
         <v>13999</v>
       </c>
       <c r="C299" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D299">
         <v>998</v>
       </c>
       <c r="E299" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F299">
         <v>2</v>
@@ -7121,19 +7106,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B300">
         <v>28999</v>
       </c>
       <c r="C300" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D300">
         <v>999</v>
       </c>
       <c r="E300" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -7141,19 +7126,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B301">
         <v>13999</v>
       </c>
       <c r="C301" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D301">
         <v>998</v>
       </c>
       <c r="E301" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -7161,39 +7146,39 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="B302">
         <v>20995</v>
       </c>
       <c r="C302" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D302">
         <v>1254</v>
       </c>
       <c r="E302" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B303">
         <v>18499</v>
       </c>
       <c r="C303" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="D303">
         <v>999</v>
       </c>
       <c r="E303" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -7201,19 +7186,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B304">
         <v>28999</v>
       </c>
       <c r="C304" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D304">
         <v>999</v>
       </c>
       <c r="E304" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -7221,36 +7206,39 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B305">
         <v>20999</v>
       </c>
       <c r="C305" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D305">
         <v>1301</v>
       </c>
       <c r="E305" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="F305">
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B306">
         <v>17399</v>
       </c>
       <c r="C306" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D306">
         <v>998</v>
       </c>
       <c r="E306" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -7258,19 +7246,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B307">
         <v>28999</v>
       </c>
       <c r="C307" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D307">
         <v>999</v>
       </c>
       <c r="E307" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -7278,19 +7266,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B308">
         <v>19999</v>
       </c>
       <c r="C308" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D308">
         <v>1301</v>
       </c>
       <c r="E308" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="F308">
         <v>2</v>
@@ -7298,19 +7286,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B309">
         <v>9799</v>
       </c>
       <c r="C309" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D309">
         <v>450</v>
       </c>
       <c r="E309" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F309">
         <v>4</v>
@@ -7318,19 +7306,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B310">
         <v>28999</v>
       </c>
       <c r="C310" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="D310">
         <v>999</v>
       </c>
       <c r="E310" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -7338,19 +7326,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="B311">
         <v>13000</v>
       </c>
       <c r="C311" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D311">
         <v>890</v>
       </c>
       <c r="E311" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -7358,19 +7346,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="B312">
         <v>13999</v>
       </c>
       <c r="C312" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="D312">
         <v>660</v>
       </c>
       <c r="E312" t="s">
-        <v>242</v>
+        <v>8</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -7378,265 +7366,185 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="B313">
         <v>9999</v>
       </c>
       <c r="C313" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D313">
         <v>975</v>
       </c>
       <c r="E313" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F313">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="B314">
         <v>24395</v>
       </c>
       <c r="C314" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D314">
         <v>1802</v>
       </c>
       <c r="E314" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F314">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="B315">
         <v>20000</v>
       </c>
       <c r="C315" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D315">
         <v>1251</v>
       </c>
       <c r="E315" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="F315">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="B316">
         <v>24000</v>
       </c>
       <c r="C316" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="D316">
         <v>1250</v>
       </c>
       <c r="E316" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="B317">
         <v>13300</v>
       </c>
       <c r="C317" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="D317">
         <v>755</v>
       </c>
       <c r="E317" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F317">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="B318">
         <v>4600</v>
       </c>
       <c r="C318" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D318">
         <v>296</v>
       </c>
       <c r="E318" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F318">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="B319">
         <v>12500</v>
       </c>
       <c r="C319" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D319">
         <v>888</v>
       </c>
       <c r="E319" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="B320">
         <v>12299</v>
       </c>
       <c r="C320" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D320">
         <v>660</v>
       </c>
       <c r="E320" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="F320">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
       <c r="B321">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="C321" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="D321">
-        <v>648</v>
+        <v>471</v>
       </c>
       <c r="E321" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>157</v>
-      </c>
-      <c r="B322">
-        <v>4000</v>
-      </c>
-      <c r="C322" t="s">
-        <v>190</v>
-      </c>
-      <c r="D322">
-        <v>310</v>
-      </c>
-      <c r="E322" t="s">
-        <v>251</v>
-      </c>
-      <c r="F322">
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>158</v>
-      </c>
-      <c r="B323">
-        <v>1700</v>
-      </c>
-      <c r="C323" t="s">
-        <v>240</v>
-      </c>
-      <c r="D323">
-        <v>149</v>
-      </c>
-      <c r="E323" t="s">
-        <v>252</v>
-      </c>
-      <c r="F323">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>159</v>
-      </c>
-      <c r="B324">
-        <v>2350</v>
-      </c>
-      <c r="C324" t="s">
-        <v>241</v>
-      </c>
-      <c r="D324">
-        <v>300</v>
-      </c>
-      <c r="E324" t="s">
-        <v>252</v>
-      </c>
-      <c r="F324">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>160</v>
-      </c>
-      <c r="B325">
-        <v>6000</v>
-      </c>
-      <c r="C325" t="s">
-        <v>197</v>
-      </c>
-      <c r="D325">
-        <v>471</v>
-      </c>
-      <c r="E325" t="s">
-        <v>249</v>
-      </c>
-      <c r="F325">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC1BB2-051E-4799-A628-B3A8CADFA55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DD26E9-8EE6-4BC5-ABE6-5FA512DC2065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,10 +2438,10 @@
         <v>750</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2678,10 +2678,10 @@
         <v>750</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -4038,10 +4038,10 @@
         <v>1000</v>
       </c>
       <c r="E146" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4258,10 +4258,10 @@
         <v>750</v>
       </c>
       <c r="E157" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F157">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">

--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DD26E9-8EE6-4BC5-ABE6-5FA512DC2065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C35943-0017-4408-A808-C498CF3571DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="245">
   <si>
     <t>bike_name</t>
   </si>
@@ -749,6 +749,12 @@
   </si>
   <si>
     <t>2025 Honda Rebel 500</t>
+  </si>
+  <si>
+    <t>2022 Honda CRF450R</t>
+  </si>
+  <si>
+    <t>2022 KTM 1290 Super Adventure R</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1372,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>19999</v>
@@ -1386,13 +1392,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>19999</v>
+        <v>19499</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>1000</v>
@@ -1429,10 +1435,10 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>19499</v>
+        <v>18999</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>1000</v>
@@ -1446,13 +1452,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>18999</v>
+        <v>18599</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>1000</v>
@@ -1466,16 +1472,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>18599</v>
+        <v>18499</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1486,7 +1492,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>18499</v>
@@ -1495,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1506,16 +1512,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
-        <v>18499</v>
+        <v>17999</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>17999</v>
@@ -1535,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>17999</v>
@@ -1566,7 +1572,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>17999</v>
@@ -1586,13 +1592,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24">
-        <v>17999</v>
+        <v>17499</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>1000</v>
@@ -1606,13 +1612,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>17499</v>
+        <v>16999</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>1000</v>
@@ -1646,7 +1652,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>16999</v>
@@ -1655,18 +1661,18 @@
         <v>44</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <v>16999</v>
@@ -1675,18 +1681,18 @@
         <v>44</v>
       </c>
       <c r="D28">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29">
         <v>16999</v>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>16999</v>
@@ -1726,53 +1732,53 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>16999</v>
+        <v>16499</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B32">
-        <v>16499</v>
+        <v>16297</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>16297</v>
+        <v>15999</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>1000</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>15999</v>
@@ -1795,7 +1801,7 @@
         <v>53</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>15999</v>
@@ -1815,7 +1821,7 @@
         <v>53</v>
       </c>
       <c r="D35">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>15999</v>
@@ -1838,35 +1844,35 @@
         <v>1000</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>15999</v>
+        <v>15499</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>1000</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>15499</v>
@@ -1875,7 +1881,7 @@
         <v>57</v>
       </c>
       <c r="D38">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1886,16 +1892,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B39">
-        <v>15499</v>
+        <v>15498</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
       </c>
       <c r="D39">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1906,13 +1912,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>15498</v>
+        <v>15299</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>1000</v>
@@ -1926,16 +1932,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <v>15299</v>
+        <v>14999</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42">
         <v>14999</v>
@@ -1955,7 +1961,7 @@
         <v>60</v>
       </c>
       <c r="D42">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>14999</v>
@@ -1975,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>14999</v>
@@ -1995,18 +2001,18 @@
         <v>60</v>
       </c>
       <c r="D44">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>14999</v>
@@ -2015,27 +2021,27 @@
         <v>60</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>14999</v>
+        <v>14899</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D46">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -2046,16 +2052,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47">
-        <v>14899</v>
+        <v>14499</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -2066,36 +2072,36 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
-        <v>14499</v>
+        <v>2599</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>2599</v>
+        <v>2999</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
         <v>46</v>
@@ -2106,16 +2112,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50">
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D50">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
@@ -2126,16 +2132,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51">
-        <v>3999</v>
+        <v>4299</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D51">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
@@ -2146,16 +2152,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52">
-        <v>4299</v>
+        <v>4499</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D52">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
@@ -2166,16 +2172,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53">
-        <v>4499</v>
+        <v>4999</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D53">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="E53" t="s">
         <v>46</v>
@@ -2186,102 +2192,102 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54">
-        <v>4999</v>
+        <v>5499</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D54">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55">
-        <v>5499</v>
+        <v>5687</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D55">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56">
-        <v>5687</v>
+        <v>5799</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D56">
         <v>400</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57">
-        <v>5799</v>
+        <v>5999</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D57">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58">
-        <v>5999</v>
+        <v>6299</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D58">
         <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2289,10 +2295,10 @@
         <v>88</v>
       </c>
       <c r="B59">
-        <v>6299</v>
+        <v>6499</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <v>300</v>
@@ -2306,36 +2312,36 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B60">
-        <v>6499</v>
+        <v>6999</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D60">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61">
-        <v>6999</v>
+        <v>7199</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E61" t="s">
         <v>46</v>
@@ -2346,36 +2352,36 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62">
-        <v>7199</v>
+        <v>7299</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62">
         <v>500</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63">
-        <v>7299</v>
+        <v>7499</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D63">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
@@ -2386,36 +2392,36 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64">
-        <v>7499</v>
+        <v>7599</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65">
-        <v>7599</v>
+        <v>7799</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D65">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
@@ -2426,16 +2432,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
-        <v>7799</v>
+        <v>7999</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D66">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
@@ -2446,13 +2452,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
-        <v>7999</v>
+        <v>8199</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D67">
         <v>700</v>
@@ -2466,16 +2472,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68">
-        <v>8199</v>
+        <v>8499</v>
       </c>
       <c r="C68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D68">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
@@ -2486,13 +2492,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69">
-        <v>8499</v>
+        <v>8699</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D69">
         <v>900</v>
@@ -2506,56 +2512,56 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B70">
-        <v>8699</v>
+        <v>8899</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D70">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71">
-        <v>8899</v>
+        <v>8999</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D71">
         <v>650</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72">
-        <v>8999</v>
+        <v>7999</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D72">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E72" t="s">
         <v>46</v>
@@ -2566,36 +2572,36 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73">
-        <v>7999</v>
+        <v>12999</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D73">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B74">
-        <v>12999</v>
+        <v>13999</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D74">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2606,27 +2612,27 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B75">
-        <v>13999</v>
+        <v>7999</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D75">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B76">
         <v>7999</v>
@@ -2646,16 +2652,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B77">
-        <v>7999</v>
+        <v>8999</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D77">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E77" t="s">
         <v>46</v>
@@ -2666,16 +2672,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B78">
-        <v>8999</v>
+        <v>5999</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D78">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
@@ -2686,76 +2692,76 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B79">
-        <v>5999</v>
+        <v>7499</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D79">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B80">
-        <v>7499</v>
+        <v>12399</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D80">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B81">
-        <v>12399</v>
+        <v>10599</v>
       </c>
       <c r="C81" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D81">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B82">
-        <v>10599</v>
+        <v>11999</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D82">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -2766,136 +2772,136 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B83">
-        <v>11999</v>
+        <v>7499</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D83">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B84">
-        <v>7499</v>
+        <v>6999</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D84">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85">
-        <v>6999</v>
+        <v>7000</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D85">
-        <v>900</v>
+        <v>390</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B86">
-        <v>7000</v>
+        <v>8999</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D86">
-        <v>390</v>
+        <v>900</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B87">
-        <v>8999</v>
+        <v>14499</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D87">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B88">
-        <v>14499</v>
+        <v>5999</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D88">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B89">
-        <v>5999</v>
+        <v>6999</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D89">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
@@ -2906,16 +2912,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B90">
-        <v>6999</v>
+        <v>12899</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D90">
-        <v>790</v>
+        <v>1250</v>
       </c>
       <c r="E90" t="s">
         <v>46</v>
@@ -2926,16 +2932,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B91">
-        <v>12899</v>
+        <v>13499</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D91">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E91" t="s">
         <v>46</v>
@@ -2946,136 +2952,136 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B92">
-        <v>13499</v>
+        <v>7999</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="D92">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B93">
-        <v>7999</v>
+        <v>6499</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D93">
         <v>500</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B94">
-        <v>6499</v>
+        <v>9399</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D94">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B95">
-        <v>9399</v>
+        <v>9499</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D95">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B96">
-        <v>9499</v>
+        <v>12999</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D96">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B97">
-        <v>12999</v>
+        <v>7999</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D97">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B98">
-        <v>7999</v>
+        <v>21000</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D98">
-        <v>750</v>
+        <v>1290</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
@@ -3086,27 +3092,27 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99">
-        <v>21000</v>
+        <v>10499</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D99">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B100">
         <v>10499</v>
@@ -3126,13 +3132,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B101">
-        <v>10499</v>
+        <v>10998</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D101">
         <v>600</v>
@@ -3146,16 +3152,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B102">
-        <v>10998</v>
+        <v>5499</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="D102">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -3166,16 +3172,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103">
-        <v>5499</v>
+        <v>11499</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="D103">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -3186,76 +3192,76 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B104">
-        <v>11499</v>
+        <v>7999</v>
       </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D104">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B105">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D105">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B106">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D106">
-        <v>700</v>
+        <v>1312</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B107">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D107">
-        <v>1312</v>
+        <v>650</v>
       </c>
       <c r="E107" t="s">
         <v>46</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="B108">
         <v>6999</v>
@@ -3278,10 +3284,10 @@
         <v>650</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3289,10 +3295,10 @@
         <v>160</v>
       </c>
       <c r="B109">
-        <v>6999</v>
+        <v>6499</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D109">
         <v>650</v>
@@ -3306,16 +3312,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B110">
-        <v>6499</v>
+        <v>10999</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="D110">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E110" t="s">
         <v>8</v>
@@ -3326,7 +3332,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B111">
         <v>10999</v>
@@ -3346,13 +3352,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B112">
-        <v>10999</v>
+        <v>9999</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D112">
         <v>600</v>
@@ -3366,16 +3372,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B113">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D113">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E113" t="s">
         <v>8</v>
@@ -3386,56 +3392,56 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B114">
-        <v>11999</v>
+        <v>6499</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D114">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B115">
-        <v>6499</v>
+        <v>9399</v>
       </c>
       <c r="C115" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D115">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B116">
-        <v>9399</v>
+        <v>12999</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D116">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -3446,87 +3452,87 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B117">
-        <v>12999</v>
+        <v>9499</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D117">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B118">
-        <v>9499</v>
+        <v>13999</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D118">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B119">
-        <v>13999</v>
+        <v>5999</v>
       </c>
       <c r="C119" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D119">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B120">
-        <v>5999</v>
+        <v>13999</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D120">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B121">
         <v>13999</v>
@@ -3535,7 +3541,7 @@
         <v>119</v>
       </c>
       <c r="D121">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -3546,53 +3552,53 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B122">
-        <v>13999</v>
+        <v>8499</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D122">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B123">
-        <v>8499</v>
+        <v>13299</v>
       </c>
       <c r="C123" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="D123">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E123" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B124">
-        <v>13299</v>
+        <v>10499</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D124">
         <v>600</v>
@@ -3606,13 +3612,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="B125">
-        <v>10499</v>
+        <v>13999</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D125">
         <v>600</v>
@@ -3626,13 +3632,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="B126">
-        <v>13999</v>
+        <v>14499</v>
       </c>
       <c r="C126" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="D126">
         <v>600</v>
@@ -3646,16 +3652,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B127">
-        <v>14499</v>
+        <v>10999</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D127">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3666,16 +3672,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B128">
-        <v>10999</v>
+        <v>13999</v>
       </c>
       <c r="C128" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D128">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -3686,36 +3692,36 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B129">
-        <v>13999</v>
+        <v>10499</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D129">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B130">
-        <v>10499</v>
+        <v>8999</v>
       </c>
       <c r="C130" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D130">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E130" t="s">
         <v>46</v>
@@ -3726,16 +3732,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B131">
-        <v>8999</v>
+        <v>2999</v>
       </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D131">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="E131" t="s">
         <v>46</v>
@@ -3746,16 +3752,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B132">
-        <v>2999</v>
+        <v>10499</v>
       </c>
       <c r="C132" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="D132">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="E132" t="s">
         <v>46</v>
@@ -3766,36 +3772,36 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B133">
-        <v>10499</v>
+        <v>7999</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="D133">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B134">
-        <v>7999</v>
+        <v>13999</v>
       </c>
       <c r="C134" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D134">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -3806,96 +3812,96 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B135">
-        <v>13999</v>
+        <v>4499</v>
       </c>
       <c r="C135" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="D135">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B136">
-        <v>4499</v>
+        <v>10999</v>
       </c>
       <c r="C136" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D136">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B137">
-        <v>10999</v>
+        <v>12999</v>
       </c>
       <c r="C137" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D137">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="B138">
-        <v>12999</v>
+        <v>10499</v>
       </c>
       <c r="C138" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="D138">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B139">
-        <v>10499</v>
+        <v>9199</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D139">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -3906,16 +3912,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="B140">
-        <v>9199</v>
+        <v>14499</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="D140">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3926,16 +3932,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="B141">
-        <v>14499</v>
+        <v>13999</v>
       </c>
       <c r="C141" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="D141">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -3946,16 +3952,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="B142">
-        <v>13999</v>
+        <v>14299</v>
       </c>
       <c r="C142" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="D142">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -3969,10 +3975,10 @@
         <v>66</v>
       </c>
       <c r="B143">
-        <v>14299</v>
+        <v>12999</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="D143">
         <v>600</v>
@@ -3986,36 +3992,36 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="B144">
-        <v>12999</v>
+        <v>9999</v>
       </c>
       <c r="C144" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="D144">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B145">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D145">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E145" t="s">
         <v>46</v>
@@ -4026,16 +4032,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B146">
-        <v>11999</v>
+        <v>5999</v>
       </c>
       <c r="C146" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="D146">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="E146" t="s">
         <v>46</v>
@@ -4046,56 +4052,56 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B147">
-        <v>5999</v>
+        <v>11499</v>
       </c>
       <c r="C147" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D147">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="B148">
-        <v>11499</v>
+        <v>9999</v>
       </c>
       <c r="C148" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D148">
         <v>600</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B149">
-        <v>14499</v>
+        <v>11999</v>
       </c>
       <c r="C149" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="D149">
-        <v>1300</v>
+        <v>660</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -4106,13 +4112,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B150">
-        <v>9999</v>
+        <v>6999</v>
       </c>
       <c r="C150" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D150">
         <v>600</v>
@@ -4126,422 +4132,422 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B151">
-        <v>11999</v>
+        <v>8499</v>
       </c>
       <c r="C151" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D151">
-        <v>660</v>
+        <v>1312</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B152">
-        <v>6999</v>
+        <v>7999</v>
       </c>
       <c r="C152" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D152">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E152" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B153">
-        <v>8499</v>
+        <v>12999</v>
       </c>
       <c r="C153" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D153">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B154">
-        <v>7999</v>
+        <v>7499</v>
       </c>
       <c r="C154" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D154">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B155">
-        <v>12999</v>
+        <v>7999</v>
       </c>
       <c r="C155" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D155">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="B156">
-        <v>7499</v>
+        <v>13999</v>
       </c>
       <c r="C156" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D156">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="B157">
-        <v>8999</v>
+        <v>10999</v>
       </c>
       <c r="C157" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D157">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E157" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B158">
-        <v>7999</v>
+        <v>12499</v>
       </c>
       <c r="C158" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="D158">
         <v>700</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="B159">
-        <v>13999</v>
+        <v>8999</v>
       </c>
       <c r="C159" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D159">
-        <v>750</v>
+        <v>501</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B160">
-        <v>10999</v>
+        <v>12995</v>
       </c>
       <c r="C160" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D160">
-        <v>600</v>
+        <v>765</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="B161">
-        <v>12499</v>
+        <v>17599</v>
       </c>
       <c r="C161" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D161">
-        <v>700</v>
+        <v>998</v>
       </c>
       <c r="E161" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="B162">
-        <v>8999</v>
+        <v>17599</v>
       </c>
       <c r="C162" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="D162">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E162" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B163">
-        <v>12995</v>
+        <v>28999</v>
       </c>
       <c r="C163" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="D163">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="B164">
-        <v>17599</v>
+        <v>9799</v>
       </c>
       <c r="C164" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D164">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="B165">
-        <v>17599</v>
+        <v>14999</v>
       </c>
       <c r="C165" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="D165">
-        <v>998</v>
+        <v>1084</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B166">
-        <v>28999</v>
+        <v>19999</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D166">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B167">
-        <v>9799</v>
+        <v>15495</v>
       </c>
       <c r="C167" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="D167">
-        <v>450</v>
+        <v>937</v>
       </c>
       <c r="E167" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F167">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="B168">
-        <v>14999</v>
+        <v>18499</v>
       </c>
       <c r="C168" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D168">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="E168" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B169">
-        <v>19999</v>
+        <v>17995</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D169">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E169" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="B170">
-        <v>15495</v>
+        <v>18499</v>
       </c>
       <c r="C170" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D170">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E170" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="B171">
-        <v>18499</v>
+        <v>9699</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="D171">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4566,96 +4572,96 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="B173">
-        <v>18499</v>
+        <v>14999</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D173">
-        <v>999</v>
+        <v>1084</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B174">
-        <v>9699</v>
+        <v>19999</v>
       </c>
       <c r="C174" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="D174">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E174" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B175">
-        <v>17995</v>
+        <v>25995</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="D175">
-        <v>937</v>
+        <v>1158</v>
       </c>
       <c r="E175" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B176">
-        <v>14999</v>
+        <v>9799</v>
       </c>
       <c r="C176" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="D176">
-        <v>1084</v>
+        <v>450</v>
       </c>
       <c r="E176" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F176">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B177">
-        <v>19999</v>
+        <v>12995</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="D177">
-        <v>1301</v>
+        <v>765</v>
       </c>
       <c r="E177" t="s">
         <v>46</v>
@@ -4666,282 +4672,282 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B178">
-        <v>25995</v>
+        <v>12499</v>
       </c>
       <c r="C178" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D178">
-        <v>1158</v>
+        <v>692</v>
       </c>
       <c r="E178" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F178">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B179">
-        <v>9799</v>
+        <v>28999</v>
       </c>
       <c r="C179" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="D179">
-        <v>450</v>
+        <v>999</v>
       </c>
       <c r="E179" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F179">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B180">
-        <v>12995</v>
+        <v>14999</v>
       </c>
       <c r="C180" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D180">
-        <v>765</v>
+        <v>1084</v>
       </c>
       <c r="E180" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="B181">
-        <v>12499</v>
+        <v>17399</v>
       </c>
       <c r="C181" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D181">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E181" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B182">
-        <v>28999</v>
+        <v>17995</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D182">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B183">
-        <v>14999</v>
+        <v>12995</v>
       </c>
       <c r="C183" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D183">
-        <v>1084</v>
+        <v>765</v>
       </c>
       <c r="E183" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F183">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="B184">
-        <v>17399</v>
+        <v>12995</v>
       </c>
       <c r="C184" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="D184">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B185">
-        <v>17995</v>
+        <v>20995</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D185">
-        <v>937</v>
+        <v>1254</v>
       </c>
       <c r="E185" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B186">
-        <v>12995</v>
+        <v>12499</v>
       </c>
       <c r="C186" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="D186">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E186" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B187">
-        <v>12995</v>
+        <v>11299</v>
       </c>
       <c r="C187" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="D187">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="E187" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="B188">
-        <v>20995</v>
+        <v>13999</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D188">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E188" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F188">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B189">
-        <v>12499</v>
+        <v>9699</v>
       </c>
       <c r="C189" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D189">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E189" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B190">
-        <v>11299</v>
+        <v>20999</v>
       </c>
       <c r="C190" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="D190">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E190" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F190">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B191">
-        <v>13999</v>
+        <v>12499</v>
       </c>
       <c r="C191" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="D191">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,56 +4972,56 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B193">
-        <v>20999</v>
+        <v>12399</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D193">
-        <v>1301</v>
+        <v>690</v>
       </c>
       <c r="E193" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F193">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B194">
-        <v>12499</v>
+        <v>9699</v>
       </c>
       <c r="C194" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D194">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E194" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B195">
-        <v>9699</v>
+        <v>9799</v>
       </c>
       <c r="C195" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D195">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E195" t="s">
         <v>209</v>
@@ -5026,16 +5032,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B196">
-        <v>12399</v>
+        <v>8999</v>
       </c>
       <c r="C196" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D196">
-        <v>690</v>
+        <v>501</v>
       </c>
       <c r="E196" t="s">
         <v>202</v>
@@ -5046,36 +5052,36 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B197">
-        <v>9699</v>
+        <v>19999</v>
       </c>
       <c r="C197" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="D197">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E197" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F197">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B198">
-        <v>9799</v>
+        <v>9599</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D198">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E198" t="s">
         <v>209</v>
@@ -5086,82 +5092,82 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B199">
-        <v>8999</v>
+        <v>9599</v>
       </c>
       <c r="C199" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="D199">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="E199" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>19999</v>
+        <v>12499</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>201</v>
       </c>
       <c r="D200">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="E200" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="B201">
-        <v>9599</v>
+        <v>17599</v>
       </c>
       <c r="C201" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D201">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E201" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F201">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B202">
-        <v>9599</v>
+        <v>12995</v>
       </c>
       <c r="C202" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="D202">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="E202" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F202">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,56 +5212,56 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B205">
-        <v>12995</v>
+        <v>17995</v>
       </c>
       <c r="C205" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D205">
-        <v>765</v>
+        <v>937</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B206">
-        <v>12499</v>
+        <v>15495</v>
       </c>
       <c r="C206" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="D206">
-        <v>692</v>
+        <v>937</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B207">
-        <v>17599</v>
+        <v>18499</v>
       </c>
       <c r="C207" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="D207">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
@@ -5266,136 +5272,136 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B208">
-        <v>17995</v>
+        <v>28999</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E208" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="B209">
-        <v>15495</v>
+        <v>18499</v>
       </c>
       <c r="C209" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D209">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B210">
-        <v>15495</v>
+        <v>8999</v>
       </c>
       <c r="C210" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D210">
-        <v>937</v>
+        <v>501</v>
       </c>
       <c r="E210" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B211">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D211">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B212">
-        <v>28999</v>
+        <v>20999</v>
       </c>
       <c r="C212" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D212">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B213">
-        <v>18499</v>
+        <v>12499</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="D213">
-        <v>999</v>
+        <v>692</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B214">
-        <v>8999</v>
+        <v>12499</v>
       </c>
       <c r="C214" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="D214">
-        <v>501</v>
+        <v>692</v>
       </c>
       <c r="E214" t="s">
         <v>202</v>
@@ -5406,42 +5412,42 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="B215">
-        <v>13999</v>
+        <v>14999</v>
       </c>
       <c r="C215" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="D215">
-        <v>998</v>
+        <v>1084</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B216">
-        <v>20999</v>
+        <v>19999</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D216">
         <v>1301</v>
       </c>
       <c r="E216" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F216">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,16 +5472,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B218">
-        <v>12499</v>
+        <v>12399</v>
       </c>
       <c r="C218" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="D218">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E218" t="s">
         <v>202</v>
@@ -5486,22 +5492,22 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="B219">
-        <v>14999</v>
+        <v>17399</v>
       </c>
       <c r="C219" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="D219">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="E219" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F219">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -5526,316 +5532,316 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="B221">
-        <v>12499</v>
+        <v>13999</v>
       </c>
       <c r="C221" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="D221">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E221" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B222">
-        <v>12399</v>
+        <v>9599</v>
       </c>
       <c r="C222" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="D222">
-        <v>690</v>
+        <v>449</v>
       </c>
       <c r="E222" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="B223">
-        <v>17399</v>
+        <v>13999</v>
       </c>
       <c r="C223" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="D223">
         <v>998</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="B224">
-        <v>19999</v>
+        <v>17399</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D224">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E224" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B225">
-        <v>28999</v>
+        <v>19999</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D225">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B226">
-        <v>13999</v>
+        <v>12499</v>
       </c>
       <c r="C226" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="D226">
-        <v>998</v>
+        <v>692</v>
       </c>
       <c r="E226" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B227">
-        <v>9599</v>
+        <v>13999</v>
       </c>
       <c r="C227" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D227">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E227" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="B228">
-        <v>13999</v>
+        <v>12399</v>
       </c>
       <c r="C228" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D228">
-        <v>998</v>
+        <v>690</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="B229">
-        <v>17399</v>
+        <v>17995</v>
       </c>
       <c r="C229" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="D229">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B230">
-        <v>19999</v>
+        <v>14999</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D230">
-        <v>1301</v>
+        <v>1084</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="B231">
-        <v>12499</v>
+        <v>17399</v>
       </c>
       <c r="C231" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D231">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E231" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="B232">
-        <v>13999</v>
+        <v>20995</v>
       </c>
       <c r="C232" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D232">
-        <v>998</v>
+        <v>1254</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F232">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B233">
-        <v>12399</v>
+        <v>19999</v>
       </c>
       <c r="C233" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D233">
-        <v>690</v>
+        <v>1301</v>
       </c>
       <c r="E233" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B234">
-        <v>17995</v>
+        <v>9799</v>
       </c>
       <c r="C234" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="D234">
-        <v>937</v>
+        <v>450</v>
       </c>
       <c r="E234" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B235">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="C235" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D235">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E235" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F235">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B236">
-        <v>17399</v>
+        <v>18499</v>
       </c>
       <c r="C236" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D236">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -5846,156 +5852,156 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="B237">
-        <v>20995</v>
+        <v>13999</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D237">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E237" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F237">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B238">
-        <v>19999</v>
+        <v>20999</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D238">
         <v>1301</v>
       </c>
       <c r="E238" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B239">
-        <v>9799</v>
+        <v>15495</v>
       </c>
       <c r="C239" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="D239">
-        <v>450</v>
+        <v>937</v>
       </c>
       <c r="E239" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F239">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B240">
-        <v>19999</v>
+        <v>9699</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D240">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="B241">
-        <v>18499</v>
+        <v>19999</v>
       </c>
       <c r="C241" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D241">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="B242">
-        <v>13999</v>
+        <v>9599</v>
       </c>
       <c r="C242" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="D242">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E242" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="B243">
-        <v>20999</v>
+        <v>17599</v>
       </c>
       <c r="C243" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="D243">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E243" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F243">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B244">
-        <v>15495</v>
+        <v>12995</v>
       </c>
       <c r="C244" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D244">
-        <v>937</v>
+        <v>765</v>
       </c>
       <c r="E244" t="s">
         <v>46</v>
@@ -6026,53 +6032,53 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="B246">
-        <v>20999</v>
+        <v>18499</v>
       </c>
       <c r="C246" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D246">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E246" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F246">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B247">
-        <v>9599</v>
+        <v>25995</v>
       </c>
       <c r="C247" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D247">
-        <v>449</v>
+        <v>1158</v>
       </c>
       <c r="E247" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F247">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B248">
-        <v>17599</v>
+        <v>17399</v>
       </c>
       <c r="C248" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D248">
         <v>998</v>
@@ -6086,33 +6092,33 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="B249">
-        <v>12995</v>
+        <v>17599</v>
       </c>
       <c r="C249" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="D249">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E249" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B250">
-        <v>9699</v>
+        <v>9599</v>
       </c>
       <c r="C250" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D250">
         <v>449</v>
@@ -6126,202 +6132,202 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="B251">
-        <v>18499</v>
+        <v>11299</v>
       </c>
       <c r="C251" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="D251">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B252">
-        <v>25995</v>
+        <v>9599</v>
       </c>
       <c r="C252" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D252">
-        <v>1158</v>
+        <v>449</v>
       </c>
       <c r="E252" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F252">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="B253">
-        <v>17399</v>
+        <v>20999</v>
       </c>
       <c r="C253" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="D253">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E253" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="B254">
-        <v>17599</v>
+        <v>25995</v>
       </c>
       <c r="C254" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D254">
-        <v>998</v>
+        <v>1158</v>
       </c>
       <c r="E254" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="B255">
-        <v>9599</v>
+        <v>8999</v>
       </c>
       <c r="C255" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="D255">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="E255" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F255">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="B256">
-        <v>11299</v>
+        <v>17399</v>
       </c>
       <c r="C256" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D256">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E256" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F256">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B257">
-        <v>9599</v>
+        <v>12995</v>
       </c>
       <c r="C257" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="D257">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="E257" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F257">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B258">
-        <v>20999</v>
+        <v>8999</v>
       </c>
       <c r="C258" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D258">
-        <v>1301</v>
+        <v>501</v>
       </c>
       <c r="E258" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F258">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B259">
-        <v>25995</v>
+        <v>12399</v>
       </c>
       <c r="C259" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="D259">
-        <v>1158</v>
+        <v>690</v>
       </c>
       <c r="E259" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F259">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B260">
-        <v>8999</v>
+        <v>20995</v>
       </c>
       <c r="C260" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D260">
-        <v>501</v>
+        <v>1254</v>
       </c>
       <c r="E260" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6346,202 +6352,202 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B262">
-        <v>12995</v>
+        <v>9799</v>
       </c>
       <c r="C262" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="D262">
-        <v>765</v>
+        <v>450</v>
       </c>
       <c r="E262" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B263">
-        <v>8999</v>
+        <v>9599</v>
       </c>
       <c r="C263" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="D263">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="E263" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B264">
-        <v>12399</v>
+        <v>8900</v>
       </c>
       <c r="C264" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="D264">
-        <v>690</v>
+        <v>449</v>
       </c>
       <c r="E264" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B265">
-        <v>20995</v>
+        <v>9799</v>
       </c>
       <c r="C265" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="D265">
-        <v>1254</v>
+        <v>450</v>
       </c>
       <c r="E265" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F265">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="B266">
-        <v>17399</v>
+        <v>12399</v>
       </c>
       <c r="C266" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="D266">
-        <v>998</v>
+        <v>690</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B267">
-        <v>9799</v>
+        <v>12995</v>
       </c>
       <c r="C267" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="D267">
-        <v>450</v>
+        <v>765</v>
       </c>
       <c r="E267" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F267">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="B268">
-        <v>9599</v>
+        <v>18499</v>
       </c>
       <c r="C268" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="D268">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E268" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F268">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B269">
-        <v>9599</v>
+        <v>13999</v>
       </c>
       <c r="C269" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="D269">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E269" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F269">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B270">
-        <v>9799</v>
+        <v>17995</v>
       </c>
       <c r="C270" t="s">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="D270">
-        <v>450</v>
+        <v>937</v>
       </c>
       <c r="E270" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B271">
-        <v>12399</v>
+        <v>9799</v>
       </c>
       <c r="C271" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="D271">
-        <v>690</v>
+        <v>450</v>
       </c>
       <c r="E271" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -6566,216 +6572,216 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="B273">
-        <v>18499</v>
+        <v>19999</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D273">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E273" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B274">
-        <v>13999</v>
+        <v>18499</v>
       </c>
       <c r="C274" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="D274">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E274" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B275">
-        <v>17995</v>
+        <v>25995</v>
       </c>
       <c r="C275" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="D275">
-        <v>937</v>
+        <v>1158</v>
       </c>
       <c r="E275" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="B276">
-        <v>9799</v>
+        <v>17599</v>
       </c>
       <c r="C276" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D276">
-        <v>450</v>
+        <v>998</v>
       </c>
       <c r="E276" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F276">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B277">
-        <v>12995</v>
+        <v>17995</v>
       </c>
       <c r="C277" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D277">
-        <v>765</v>
+        <v>937</v>
       </c>
       <c r="E277" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="F277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B278">
-        <v>19999</v>
+        <v>14999</v>
       </c>
       <c r="C278" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D278">
-        <v>1301</v>
+        <v>1084</v>
       </c>
       <c r="E278" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F278">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B279">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C279" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D279">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E279" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B280">
-        <v>25995</v>
+        <v>17995</v>
       </c>
       <c r="C280" t="s">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="D280">
-        <v>1158</v>
+        <v>937</v>
       </c>
       <c r="E280" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F280">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="B281">
-        <v>17599</v>
+        <v>20995</v>
       </c>
       <c r="C281" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="D281">
-        <v>998</v>
+        <v>1254</v>
       </c>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="B282">
-        <v>17995</v>
+        <v>17599</v>
       </c>
       <c r="C282" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="D282">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E282" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B283">
-        <v>14999</v>
+        <v>25995</v>
       </c>
       <c r="C283" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="D283">
-        <v>1084</v>
+        <v>1158</v>
       </c>
       <c r="E283" t="s">
         <v>211</v>
@@ -6786,36 +6792,36 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="B284">
-        <v>13999</v>
+        <v>20999</v>
       </c>
       <c r="C284" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D284">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E284" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F284">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B285">
-        <v>17995</v>
+        <v>8999</v>
       </c>
       <c r="C285" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="D285">
-        <v>937</v>
+        <v>501</v>
       </c>
       <c r="E285" t="s">
         <v>202</v>
@@ -6826,16 +6832,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B286">
-        <v>20995</v>
+        <v>14999</v>
       </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D286">
-        <v>1254</v>
+        <v>1084</v>
       </c>
       <c r="E286" t="s">
         <v>211</v>
@@ -6846,56 +6852,56 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="B287">
-        <v>17599</v>
+        <v>9699</v>
       </c>
       <c r="C287" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D287">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E287" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B288">
-        <v>25995</v>
+        <v>12995</v>
       </c>
       <c r="C288" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="D288">
-        <v>1158</v>
+        <v>765</v>
       </c>
       <c r="E288" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F288">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B289">
-        <v>20999</v>
+        <v>14999</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D289">
-        <v>1301</v>
+        <v>1084</v>
       </c>
       <c r="E289" t="s">
         <v>211</v>
@@ -6906,96 +6912,96 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B290">
-        <v>8999</v>
+        <v>19999</v>
       </c>
       <c r="C290" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D290">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E290" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B291">
-        <v>14999</v>
+        <v>8999</v>
       </c>
       <c r="C291" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D291">
-        <v>1084</v>
+        <v>501</v>
       </c>
       <c r="E291" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F291">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="B292">
-        <v>20999</v>
+        <v>13999</v>
       </c>
       <c r="C292" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D292">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E292" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F292">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B293">
-        <v>9699</v>
+        <v>28999</v>
       </c>
       <c r="C293" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D293">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E293" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F293">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="B294">
-        <v>12995</v>
+        <v>13999</v>
       </c>
       <c r="C294" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D294">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E294" t="s">
         <v>46</v>
@@ -7006,16 +7012,16 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B295">
-        <v>14999</v>
+        <v>20995</v>
       </c>
       <c r="C295" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D295">
-        <v>1084</v>
+        <v>1254</v>
       </c>
       <c r="E295" t="s">
         <v>211</v>
@@ -7026,82 +7032,82 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B296">
-        <v>19999</v>
+        <v>18499</v>
       </c>
       <c r="C296" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D296">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E296" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B297">
-        <v>19999</v>
+        <v>28999</v>
       </c>
       <c r="C297" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D297">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E297" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B298">
-        <v>8999</v>
+        <v>20999</v>
       </c>
       <c r="C298" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D298">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E298" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F298">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B299">
-        <v>13999</v>
+        <v>17399</v>
       </c>
       <c r="C299" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="D299">
         <v>998</v>
       </c>
       <c r="E299" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -7126,16 +7132,16 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B301">
-        <v>13999</v>
+        <v>19999</v>
       </c>
       <c r="C301" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D301">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E301" t="s">
         <v>46</v>
@@ -7146,33 +7152,33 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B302">
-        <v>20995</v>
+        <v>9799</v>
       </c>
       <c r="C302" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="D302">
-        <v>1254</v>
+        <v>450</v>
       </c>
       <c r="E302" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F302">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="B303">
-        <v>18499</v>
+        <v>28999</v>
       </c>
       <c r="C303" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D303">
         <v>999</v>
@@ -7186,16 +7192,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B304">
-        <v>28999</v>
+        <v>13000</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D304">
-        <v>999</v>
+        <v>890</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -7206,341 +7212,201 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B305">
-        <v>20999</v>
+        <v>13999</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D305">
-        <v>1301</v>
+        <v>660</v>
       </c>
       <c r="E305" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F305">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="B306">
-        <v>17399</v>
+        <v>9999</v>
       </c>
       <c r="C306" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="D306">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="E306" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B307">
-        <v>28999</v>
+        <v>24395</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="D307">
-        <v>999</v>
+        <v>1802</v>
       </c>
       <c r="E307" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B308">
-        <v>19999</v>
+        <v>20000</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
       </c>
       <c r="D308">
-        <v>1301</v>
+        <v>1251</v>
       </c>
       <c r="E308" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="B309">
-        <v>9799</v>
+        <v>24000</v>
       </c>
       <c r="C309" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="D309">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="E309" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B310">
-        <v>28999</v>
+        <v>13300</v>
       </c>
       <c r="C310" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="D310">
-        <v>999</v>
+        <v>755</v>
       </c>
       <c r="E310" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B311">
-        <v>13000</v>
+        <v>4600</v>
       </c>
       <c r="C311" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="D311">
-        <v>890</v>
+        <v>296</v>
       </c>
       <c r="E311" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F311">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B312">
-        <v>13999</v>
+        <v>12500</v>
       </c>
       <c r="C312" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="D312">
-        <v>660</v>
+        <v>888</v>
       </c>
       <c r="E312" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="F312">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B313">
-        <v>9999</v>
+        <v>12299</v>
       </c>
       <c r="C313" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="D313">
-        <v>975</v>
+        <v>660</v>
       </c>
       <c r="E313" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F313">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B314">
-        <v>24395</v>
+        <v>6000</v>
       </c>
       <c r="C314" t="s">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="D314">
-        <v>1802</v>
+        <v>471</v>
       </c>
       <c r="E314" t="s">
         <v>230</v>
       </c>
       <c r="F314">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>233</v>
-      </c>
-      <c r="B315">
-        <v>20000</v>
-      </c>
-      <c r="C315" t="s">
-        <v>27</v>
-      </c>
-      <c r="D315">
-        <v>1251</v>
-      </c>
-      <c r="E315" t="s">
-        <v>230</v>
-      </c>
-      <c r="F315">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>234</v>
-      </c>
-      <c r="B316">
-        <v>24000</v>
-      </c>
-      <c r="C316" t="s">
-        <v>235</v>
-      </c>
-      <c r="D316">
-        <v>1250</v>
-      </c>
-      <c r="E316" t="s">
-        <v>211</v>
-      </c>
-      <c r="F316">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>236</v>
-      </c>
-      <c r="B317">
-        <v>13300</v>
-      </c>
-      <c r="C317" t="s">
-        <v>172</v>
-      </c>
-      <c r="D317">
-        <v>755</v>
-      </c>
-      <c r="E317" t="s">
-        <v>211</v>
-      </c>
-      <c r="F317">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>237</v>
-      </c>
-      <c r="B318">
-        <v>4600</v>
-      </c>
-      <c r="C318" t="s">
-        <v>238</v>
-      </c>
-      <c r="D318">
-        <v>296</v>
-      </c>
-      <c r="E318" t="s">
-        <v>211</v>
-      </c>
-      <c r="F318">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>239</v>
-      </c>
-      <c r="B319">
-        <v>12500</v>
-      </c>
-      <c r="C319" t="s">
-        <v>201</v>
-      </c>
-      <c r="D319">
-        <v>888</v>
-      </c>
-      <c r="E319" t="s">
-        <v>211</v>
-      </c>
-      <c r="F319">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>240</v>
-      </c>
-      <c r="B320">
-        <v>12299</v>
-      </c>
-      <c r="C320" t="s">
-        <v>241</v>
-      </c>
-      <c r="D320">
-        <v>660</v>
-      </c>
-      <c r="E320" t="s">
-        <v>211</v>
-      </c>
-      <c r="F320">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>242</v>
-      </c>
-      <c r="B321">
-        <v>6000</v>
-      </c>
-      <c r="C321" t="s">
-        <v>87</v>
-      </c>
-      <c r="D321">
-        <v>471</v>
-      </c>
-      <c r="E321" t="s">
-        <v>230</v>
-      </c>
-      <c r="F321">
         <v>5</v>
       </c>
     </row>

--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C35943-0017-4408-A808-C498CF3571DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA07909-8447-4227-939D-0A51AC1A914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="244">
   <si>
     <t>bike_name</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>2016 Yamaha YZF-R1 60th Anniversary</t>
-  </si>
-  <si>
-    <t>$275/MO</t>
   </si>
   <si>
     <t>2022 Suzuki GSX-R1000R</t>
@@ -1117,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,30 +1729,30 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>16499</v>
+        <v>16297</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>16297</v>
+        <v>15999</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
@@ -1772,16 +1769,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>15999</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1792,16 +1789,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>15999</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1812,22 +1809,22 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>15999</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>1000</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1835,33 +1832,33 @@
         <v>55</v>
       </c>
       <c r="B36">
-        <v>15999</v>
+        <v>15499</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>1000</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>15499</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1872,16 +1869,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B38">
-        <v>15499</v>
+        <v>15498</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1892,13 +1889,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>15498</v>
+        <v>15299</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39">
         <v>1000</v>
@@ -1912,16 +1909,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>15299</v>
+        <v>14999</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
       </c>
       <c r="D40">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1932,16 +1929,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41">
         <v>14999</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1958,10 +1955,10 @@
         <v>14999</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1978,50 +1975,50 @@
         <v>14999</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>14999</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45">
-        <v>14999</v>
+        <v>14899</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D45">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -2032,16 +2029,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46">
-        <v>14899</v>
+        <v>14499</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -2052,36 +2049,36 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47">
-        <v>14499</v>
+        <v>2599</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47">
-        <v>600</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48">
-        <v>2599</v>
+        <v>2999</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
@@ -2092,16 +2089,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="E49" t="s">
         <v>46</v>
@@ -2112,16 +2109,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50">
-        <v>3999</v>
+        <v>4299</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
@@ -2132,16 +2129,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>4299</v>
+        <v>4499</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51">
-        <v>950</v>
+        <v>675</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
@@ -2152,16 +2149,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52">
-        <v>4499</v>
+        <v>4999</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="E52" t="s">
         <v>46</v>
@@ -2172,110 +2169,110 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53">
-        <v>4999</v>
+        <v>5499</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D53">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54">
-        <v>5499</v>
+        <v>5687</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D54">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55">
-        <v>5687</v>
+        <v>5799</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D55">
         <v>400</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B56">
-        <v>5799</v>
+        <v>5999</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D56">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57">
-        <v>5999</v>
+        <v>6299</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57">
         <v>300</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58">
-        <v>6299</v>
+        <v>6499</v>
       </c>
       <c r="C58" t="s">
         <v>89</v>
@@ -2292,36 +2289,36 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59">
-        <v>6499</v>
+        <v>6999</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60">
-        <v>6999</v>
+        <v>7199</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D60">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E60" t="s">
         <v>46</v>
@@ -2332,36 +2329,36 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61">
-        <v>7199</v>
+        <v>7299</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D61">
         <v>500</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62">
-        <v>7299</v>
+        <v>7499</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D62">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
@@ -2372,36 +2369,36 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63">
-        <v>7499</v>
+        <v>7599</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D63">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B64">
-        <v>7599</v>
+        <v>7799</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D64">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E64" t="s">
         <v>46</v>
@@ -2412,16 +2409,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65">
-        <v>7799</v>
+        <v>7999</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D65">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
@@ -2432,13 +2429,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66">
-        <v>7999</v>
+        <v>8199</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D66">
         <v>700</v>
@@ -2452,16 +2449,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B67">
-        <v>8199</v>
+        <v>8499</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D67">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E67" t="s">
         <v>46</v>
@@ -2472,13 +2469,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B68">
-        <v>8499</v>
+        <v>8699</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D68">
         <v>900</v>
@@ -2492,56 +2489,56 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69">
-        <v>8699</v>
+        <v>8899</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D69">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70">
-        <v>8899</v>
+        <v>8999</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D70">
         <v>650</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71">
-        <v>8999</v>
+        <v>7999</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D71">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E71" t="s">
         <v>46</v>
@@ -2555,33 +2552,33 @@
         <v>116</v>
       </c>
       <c r="B72">
-        <v>7999</v>
+        <v>12999</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D72">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B73">
-        <v>12999</v>
+        <v>13999</v>
       </c>
       <c r="C73" t="s">
         <v>118</v>
       </c>
       <c r="D73">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2592,22 +2589,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B74">
-        <v>13999</v>
+        <v>7999</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D74">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2618,7 +2615,7 @@
         <v>7999</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75">
         <v>900</v>
@@ -2635,13 +2632,13 @@
         <v>121</v>
       </c>
       <c r="B76">
-        <v>7999</v>
+        <v>8999</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D76">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="E76" t="s">
         <v>46</v>
@@ -2655,13 +2652,13 @@
         <v>122</v>
       </c>
       <c r="B77">
-        <v>8999</v>
+        <v>5999</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D77">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E77" t="s">
         <v>46</v>
@@ -2675,19 +2672,19 @@
         <v>123</v>
       </c>
       <c r="B78">
-        <v>5999</v>
+        <v>7499</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D78">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2695,53 +2692,53 @@
         <v>124</v>
       </c>
       <c r="B79">
-        <v>7499</v>
+        <v>12399</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D79">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B80">
-        <v>12399</v>
+        <v>10599</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D80">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B81">
-        <v>10599</v>
+        <v>11999</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D81">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
@@ -2752,22 +2749,22 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B82">
-        <v>11999</v>
+        <v>7499</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D82">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2775,19 +2772,19 @@
         <v>131</v>
       </c>
       <c r="B83">
-        <v>7499</v>
+        <v>6999</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D83">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2795,19 +2792,19 @@
         <v>132</v>
       </c>
       <c r="B84">
-        <v>6999</v>
+        <v>7000</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84">
-        <v>900</v>
+        <v>390</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2815,19 +2812,19 @@
         <v>133</v>
       </c>
       <c r="B85">
-        <v>7000</v>
+        <v>8999</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D85">
-        <v>390</v>
+        <v>900</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2835,19 +2832,19 @@
         <v>134</v>
       </c>
       <c r="B86">
-        <v>8999</v>
+        <v>14499</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D86">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2855,19 +2852,19 @@
         <v>135</v>
       </c>
       <c r="B87">
-        <v>14499</v>
+        <v>5999</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D87">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2875,13 +2872,13 @@
         <v>136</v>
       </c>
       <c r="B88">
-        <v>5999</v>
+        <v>6999</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D88">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="E88" t="s">
         <v>46</v>
@@ -2895,13 +2892,13 @@
         <v>137</v>
       </c>
       <c r="B89">
-        <v>6999</v>
+        <v>12899</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D89">
-        <v>790</v>
+        <v>1250</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
@@ -2912,16 +2909,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B90">
-        <v>12899</v>
+        <v>13499</v>
       </c>
       <c r="C90" t="s">
         <v>139</v>
       </c>
       <c r="D90">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="E90" t="s">
         <v>46</v>
@@ -2932,22 +2929,22 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B91">
-        <v>13499</v>
+        <v>7999</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="D91">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2955,19 +2952,19 @@
         <v>141</v>
       </c>
       <c r="B92">
-        <v>7999</v>
+        <v>6499</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D92">
         <v>500</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2975,59 +2972,59 @@
         <v>142</v>
       </c>
       <c r="B93">
-        <v>6499</v>
+        <v>9399</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D93">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B94">
-        <v>9399</v>
+        <v>9499</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D94">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B95">
-        <v>9499</v>
+        <v>12999</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D95">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3035,19 +3032,19 @@
         <v>147</v>
       </c>
       <c r="B96">
-        <v>12999</v>
+        <v>7999</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D96">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3055,13 +3052,13 @@
         <v>148</v>
       </c>
       <c r="B97">
-        <v>7999</v>
+        <v>21000</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D97">
-        <v>750</v>
+        <v>1290</v>
       </c>
       <c r="E97" t="s">
         <v>46</v>
@@ -3072,33 +3069,33 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B98">
-        <v>21000</v>
+        <v>10499</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D98">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99">
         <v>10499</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D99">
         <v>600</v>
@@ -3112,13 +3109,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100">
+        <v>10998</v>
+      </c>
+      <c r="C100" t="s">
         <v>153</v>
-      </c>
-      <c r="B100">
-        <v>10499</v>
-      </c>
-      <c r="C100" t="s">
-        <v>152</v>
       </c>
       <c r="D100">
         <v>600</v>
@@ -3132,16 +3129,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B101">
-        <v>10998</v>
+        <v>5499</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="D101">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -3155,13 +3152,13 @@
         <v>155</v>
       </c>
       <c r="B102">
-        <v>5499</v>
+        <v>11499</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D102">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E102" t="s">
         <v>8</v>
@@ -3172,76 +3169,76 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B103">
-        <v>11499</v>
+        <v>7999</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="D103">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B104">
-        <v>7999</v>
+        <v>9999</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D104">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B105">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="D105">
-        <v>700</v>
+        <v>1312</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B106">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D106">
-        <v>1312</v>
+        <v>650</v>
       </c>
       <c r="E106" t="s">
         <v>46</v>
@@ -3252,33 +3249,33 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="B107">
         <v>6999</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D107">
         <v>650</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B108">
-        <v>6999</v>
+        <v>6499</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D108">
         <v>650</v>
@@ -3292,16 +3289,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B109">
-        <v>6499</v>
+        <v>10999</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="D109">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -3312,13 +3309,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B110">
         <v>10999</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D110">
         <v>600</v>
@@ -3335,10 +3332,10 @@
         <v>161</v>
       </c>
       <c r="B111">
-        <v>10999</v>
+        <v>9999</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D111">
         <v>600</v>
@@ -3355,13 +3352,13 @@
         <v>162</v>
       </c>
       <c r="B112">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D112">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3375,19 +3372,19 @@
         <v>163</v>
       </c>
       <c r="B113">
-        <v>11999</v>
+        <v>6499</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="D113">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3395,19 +3392,19 @@
         <v>164</v>
       </c>
       <c r="B114">
-        <v>6499</v>
+        <v>9399</v>
       </c>
       <c r="C114" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D114">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3415,13 +3412,13 @@
         <v>165</v>
       </c>
       <c r="B115">
-        <v>9399</v>
+        <v>12999</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D115">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
@@ -3435,19 +3432,19 @@
         <v>166</v>
       </c>
       <c r="B116">
-        <v>12999</v>
+        <v>9499</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D116">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3455,19 +3452,19 @@
         <v>167</v>
       </c>
       <c r="B117">
-        <v>9499</v>
+        <v>13999</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D117">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,19 +3472,19 @@
         <v>168</v>
       </c>
       <c r="B118">
-        <v>13999</v>
+        <v>5999</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D118">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3495,33 +3492,33 @@
         <v>169</v>
       </c>
       <c r="B119">
-        <v>5999</v>
+        <v>13999</v>
       </c>
       <c r="C119" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D119">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B120">
         <v>13999</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -3532,53 +3529,53 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B121">
-        <v>13999</v>
+        <v>8499</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D121">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122">
+        <v>13299</v>
+      </c>
+      <c r="C122" t="s">
         <v>171</v>
       </c>
-      <c r="B122">
-        <v>8499</v>
-      </c>
-      <c r="C122" t="s">
-        <v>109</v>
-      </c>
       <c r="D122">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B123">
-        <v>13299</v>
+        <v>10499</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D123">
         <v>600</v>
@@ -3592,13 +3589,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="B124">
-        <v>10499</v>
+        <v>13999</v>
       </c>
       <c r="C124" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="D124">
         <v>600</v>
@@ -3612,13 +3609,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125">
+        <v>14499</v>
+      </c>
+      <c r="C125" t="s">
         <v>66</v>
-      </c>
-      <c r="B125">
-        <v>13999</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
       </c>
       <c r="D125">
         <v>600</v>
@@ -3635,13 +3632,13 @@
         <v>174</v>
       </c>
       <c r="B126">
-        <v>14499</v>
+        <v>10999</v>
       </c>
       <c r="C126" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="D126">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -3652,16 +3649,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B127">
-        <v>10999</v>
+        <v>13999</v>
       </c>
       <c r="C127" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D127">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3672,22 +3669,22 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B128">
-        <v>13999</v>
+        <v>10499</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D128">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3695,13 +3692,13 @@
         <v>176</v>
       </c>
       <c r="B129">
-        <v>10499</v>
+        <v>8999</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D129">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E129" t="s">
         <v>46</v>
@@ -3715,13 +3712,13 @@
         <v>177</v>
       </c>
       <c r="B130">
-        <v>8999</v>
+        <v>2999</v>
       </c>
       <c r="C130" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D130">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="E130" t="s">
         <v>46</v>
@@ -3735,13 +3732,13 @@
         <v>178</v>
       </c>
       <c r="B131">
-        <v>2999</v>
+        <v>10499</v>
       </c>
       <c r="C131" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="D131">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="E131" t="s">
         <v>46</v>
@@ -3755,19 +3752,19 @@
         <v>179</v>
       </c>
       <c r="B132">
-        <v>10499</v>
+        <v>7999</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="D132">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3775,13 +3772,13 @@
         <v>180</v>
       </c>
       <c r="B133">
-        <v>7999</v>
+        <v>13999</v>
       </c>
       <c r="C133" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D133">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -3795,93 +3792,93 @@
         <v>181</v>
       </c>
       <c r="B134">
-        <v>13999</v>
+        <v>4499</v>
       </c>
       <c r="C134" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D134">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B135">
-        <v>4499</v>
+        <v>10999</v>
       </c>
       <c r="C135" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="D135">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B136">
-        <v>10999</v>
+        <v>12999</v>
       </c>
       <c r="C136" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D136">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="B137">
-        <v>12999</v>
+        <v>10499</v>
       </c>
       <c r="C137" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D137">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B138">
-        <v>10499</v>
+        <v>9199</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D138">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -3892,16 +3889,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="B139">
-        <v>9199</v>
+        <v>14499</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="D139">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -3912,16 +3909,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="B140">
-        <v>14499</v>
+        <v>13999</v>
       </c>
       <c r="C140" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D140">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3932,16 +3929,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141">
+        <v>14299</v>
+      </c>
+      <c r="C141" t="s">
         <v>186</v>
       </c>
-      <c r="B141">
-        <v>13999</v>
-      </c>
-      <c r="C141" t="s">
-        <v>119</v>
-      </c>
       <c r="D141">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -3952,13 +3949,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B142">
-        <v>14299</v>
+        <v>12999</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D142">
         <v>600</v>
@@ -3972,22 +3969,22 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="B143">
-        <v>12999</v>
+        <v>9999</v>
       </c>
       <c r="C143" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D143">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3995,13 +3992,13 @@
         <v>188</v>
       </c>
       <c r="B144">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D144">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E144" t="s">
         <v>46</v>
@@ -4015,13 +4012,13 @@
         <v>189</v>
       </c>
       <c r="B145">
-        <v>11999</v>
+        <v>5999</v>
       </c>
       <c r="C145" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D145">
-        <v>1000</v>
+        <v>125</v>
       </c>
       <c r="E145" t="s">
         <v>46</v>
@@ -4032,42 +4029,42 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B146">
-        <v>5999</v>
+        <v>11499</v>
       </c>
       <c r="C146" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="D146">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="B147">
-        <v>11499</v>
+        <v>9999</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D147">
         <v>600</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,19 +4072,19 @@
         <v>191</v>
       </c>
       <c r="B148">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D148">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4095,19 +4092,19 @@
         <v>192</v>
       </c>
       <c r="B149">
-        <v>11999</v>
+        <v>6999</v>
       </c>
       <c r="C149" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="D149">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4115,13 +4112,13 @@
         <v>193</v>
       </c>
       <c r="B150">
-        <v>6999</v>
+        <v>8499</v>
       </c>
       <c r="C150" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D150">
-        <v>600</v>
+        <v>1312</v>
       </c>
       <c r="E150" t="s">
         <v>46</v>
@@ -4135,19 +4132,19 @@
         <v>194</v>
       </c>
       <c r="B151">
-        <v>8499</v>
+        <v>7999</v>
       </c>
       <c r="C151" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D151">
-        <v>1312</v>
+        <v>500</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4155,13 +4152,13 @@
         <v>195</v>
       </c>
       <c r="B152">
-        <v>7999</v>
+        <v>12999</v>
       </c>
       <c r="C152" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D152">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -4175,19 +4172,19 @@
         <v>196</v>
       </c>
       <c r="B153">
-        <v>12999</v>
+        <v>7499</v>
       </c>
       <c r="C153" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D153">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4195,10 +4192,10 @@
         <v>197</v>
       </c>
       <c r="B154">
-        <v>7499</v>
+        <v>7999</v>
       </c>
       <c r="C154" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D154">
         <v>700</v>
@@ -4212,36 +4209,36 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B155">
-        <v>7999</v>
+        <v>13999</v>
       </c>
       <c r="C155" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D155">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="B156">
-        <v>13999</v>
+        <v>10999</v>
       </c>
       <c r="C156" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D156">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -4255,36 +4252,36 @@
         <v>199</v>
       </c>
       <c r="B157">
-        <v>10999</v>
+        <v>12499</v>
       </c>
       <c r="C157" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D157">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B158">
-        <v>12499</v>
+        <v>8999</v>
       </c>
       <c r="C158" t="s">
+        <v>114</v>
+      </c>
+      <c r="D158">
+        <v>501</v>
+      </c>
+      <c r="E158" t="s">
         <v>201</v>
-      </c>
-      <c r="D158">
-        <v>700</v>
-      </c>
-      <c r="E158" t="s">
-        <v>202</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4295,39 +4292,39 @@
         <v>203</v>
       </c>
       <c r="B159">
-        <v>8999</v>
+        <v>12995</v>
       </c>
       <c r="C159" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D159">
-        <v>501</v>
+        <v>765</v>
       </c>
       <c r="E159" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160">
+        <v>17599</v>
+      </c>
+      <c r="C160" t="s">
         <v>204</v>
       </c>
-      <c r="B160">
-        <v>12995</v>
-      </c>
-      <c r="C160" t="s">
-        <v>118</v>
-      </c>
       <c r="D160">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4338,7 +4335,7 @@
         <v>17599</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D161">
         <v>998</v>
@@ -4352,16 +4349,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="B162">
-        <v>17599</v>
+        <v>28999</v>
       </c>
       <c r="C162" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="D162">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E162" t="s">
         <v>8</v>
@@ -4375,59 +4372,59 @@
         <v>206</v>
       </c>
       <c r="B163">
-        <v>28999</v>
+        <v>9799</v>
       </c>
       <c r="C163" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D163">
-        <v>999</v>
+        <v>450</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B164">
-        <v>9799</v>
+        <v>14999</v>
       </c>
       <c r="C164" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="D164">
-        <v>450</v>
+        <v>1084</v>
       </c>
       <c r="E164" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B165">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="C165" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D165">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E165" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4435,13 +4432,13 @@
         <v>212</v>
       </c>
       <c r="B166">
-        <v>19999</v>
+        <v>15495</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D166">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E166" t="s">
         <v>46</v>
@@ -4452,333 +4449,333 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="B167">
-        <v>15495</v>
+        <v>18499</v>
       </c>
       <c r="C167" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D167">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="B168">
-        <v>18499</v>
+        <v>17995</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D168">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="B169">
-        <v>17995</v>
+        <v>18499</v>
       </c>
       <c r="C169" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D169">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E169" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="B170">
-        <v>18499</v>
+        <v>9699</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="D170">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B171">
-        <v>9699</v>
+        <v>17995</v>
       </c>
       <c r="C171" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="D171">
-        <v>449</v>
+        <v>937</v>
       </c>
       <c r="E171" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F171">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B172">
-        <v>17995</v>
+        <v>14999</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D172">
-        <v>937</v>
+        <v>1084</v>
       </c>
       <c r="E172" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B173">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="C173" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D173">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F173">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B174">
-        <v>19999</v>
+        <v>25995</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="D174">
-        <v>1301</v>
+        <v>1158</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B175">
-        <v>25995</v>
+        <v>9799</v>
       </c>
       <c r="C175" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D175">
-        <v>1158</v>
+        <v>450</v>
       </c>
       <c r="E175" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F175">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B176">
-        <v>9799</v>
+        <v>12995</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="D176">
-        <v>450</v>
+        <v>765</v>
       </c>
       <c r="E176" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F176">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B177">
-        <v>12995</v>
+        <v>12499</v>
       </c>
       <c r="C177" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="D177">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B178">
-        <v>12499</v>
+        <v>28999</v>
       </c>
       <c r="C178" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="D178">
-        <v>692</v>
+        <v>999</v>
       </c>
       <c r="E178" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B179">
-        <v>28999</v>
+        <v>14999</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D179">
-        <v>999</v>
+        <v>1084</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="B180">
-        <v>14999</v>
+        <v>17399</v>
       </c>
       <c r="C180" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="D180">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="E180" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F180">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="B181">
-        <v>17399</v>
+        <v>17995</v>
       </c>
       <c r="C181" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="D181">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B182">
-        <v>17995</v>
+        <v>12995</v>
       </c>
       <c r="C182" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D182">
-        <v>937</v>
+        <v>765</v>
       </c>
       <c r="E182" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B183">
         <v>12995</v>
       </c>
       <c r="C183" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D183">
         <v>765</v>
@@ -4792,219 +4789,219 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B184">
-        <v>12995</v>
+        <v>20995</v>
       </c>
       <c r="C184" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D184">
-        <v>765</v>
+        <v>1254</v>
       </c>
       <c r="E184" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B185">
-        <v>20995</v>
+        <v>12499</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D185">
-        <v>1254</v>
+        <v>692</v>
       </c>
       <c r="E185" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F185">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B186">
-        <v>12499</v>
+        <v>11299</v>
       </c>
       <c r="C186" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D186">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E186" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="B187">
-        <v>11299</v>
+        <v>13999</v>
       </c>
       <c r="C187" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="D187">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E187" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F187">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="B188">
-        <v>13999</v>
+        <v>9699</v>
       </c>
       <c r="C188" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="D188">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E188" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B189">
-        <v>9699</v>
+        <v>20999</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="D189">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E189" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F189">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B190">
-        <v>20999</v>
+        <v>12499</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D190">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="E190" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F190">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B191">
-        <v>12499</v>
+        <v>9699</v>
       </c>
       <c r="C191" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D191">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E191" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B192">
-        <v>9699</v>
+        <v>12399</v>
       </c>
       <c r="C192" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="D192">
-        <v>449</v>
+        <v>690</v>
       </c>
       <c r="E192" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B193">
-        <v>12399</v>
+        <v>9699</v>
       </c>
       <c r="C193" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="D193">
-        <v>690</v>
+        <v>449</v>
       </c>
       <c r="E193" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B194">
-        <v>9699</v>
+        <v>9799</v>
       </c>
       <c r="C194" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D194">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F194">
         <v>4</v>
@@ -5012,79 +5009,79 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B195">
-        <v>9799</v>
+        <v>8999</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="D195">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="E195" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F195">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B196">
-        <v>8999</v>
+        <v>19999</v>
       </c>
       <c r="C196" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="D196">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E196" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B197">
-        <v>19999</v>
+        <v>9599</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="D197">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E197" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B198">
         <v>9599</v>
       </c>
       <c r="C198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D198">
         <v>449</v>
       </c>
       <c r="E198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F198">
         <v>4</v>
@@ -5092,173 +5089,173 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>9599</v>
+        <v>12499</v>
       </c>
       <c r="C199" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="D199">
-        <v>449</v>
+        <v>692</v>
       </c>
       <c r="E199" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F199">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="B200">
-        <v>12499</v>
+        <v>17599</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D200">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E200" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="B201">
-        <v>17599</v>
+        <v>12995</v>
       </c>
       <c r="C201" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="D201">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B202">
-        <v>12995</v>
+        <v>12499</v>
       </c>
       <c r="C202" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="D202">
-        <v>765</v>
+        <v>692</v>
       </c>
       <c r="E202" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="B203">
-        <v>12499</v>
+        <v>17599</v>
       </c>
       <c r="C203" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D203">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E203" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B204">
-        <v>17599</v>
+        <v>17995</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D204">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B205">
-        <v>17995</v>
+        <v>15495</v>
       </c>
       <c r="C205" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D205">
         <v>937</v>
       </c>
       <c r="E205" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="B206">
-        <v>15495</v>
+        <v>18499</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D206">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E206" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="B207">
-        <v>18499</v>
+        <v>28999</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D207">
         <v>999</v>
@@ -5272,13 +5269,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="B208">
-        <v>28999</v>
+        <v>18499</v>
       </c>
       <c r="C208" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D208">
         <v>999</v>
@@ -5292,99 +5289,99 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="B209">
-        <v>18499</v>
+        <v>8999</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D209">
-        <v>999</v>
+        <v>501</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B210">
-        <v>8999</v>
+        <v>13999</v>
       </c>
       <c r="C210" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D210">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E210" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="B211">
-        <v>13999</v>
+        <v>20999</v>
       </c>
       <c r="C211" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D211">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E211" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B212">
-        <v>20999</v>
+        <v>12499</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D212">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="E212" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F212">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B213">
         <v>12499</v>
       </c>
       <c r="C213" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D213">
         <v>692</v>
       </c>
       <c r="E213" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -5392,79 +5389,79 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B214">
-        <v>12499</v>
+        <v>14999</v>
       </c>
       <c r="C214" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="D214">
-        <v>692</v>
+        <v>1084</v>
       </c>
       <c r="E214" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B215">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="C215" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D215">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E215" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F215">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B216">
-        <v>19999</v>
+        <v>12499</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="D216">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="E216" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B217">
-        <v>12499</v>
+        <v>12399</v>
       </c>
       <c r="C217" t="s">
+        <v>125</v>
+      </c>
+      <c r="D217">
+        <v>690</v>
+      </c>
+      <c r="E217" t="s">
         <v>201</v>
-      </c>
-      <c r="D217">
-        <v>692</v>
-      </c>
-      <c r="E217" t="s">
-        <v>202</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -5472,56 +5469,56 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="B218">
-        <v>12399</v>
+        <v>17399</v>
       </c>
       <c r="C218" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="D218">
-        <v>690</v>
+        <v>998</v>
       </c>
       <c r="E218" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="B219">
-        <v>17399</v>
+        <v>19999</v>
       </c>
       <c r="C219" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="D219">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="B220">
-        <v>19999</v>
+        <v>13999</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="D220">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E220" t="s">
         <v>46</v>
@@ -5532,159 +5529,159 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="B221">
-        <v>13999</v>
+        <v>9599</v>
       </c>
       <c r="C221" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="D221">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E221" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="B222">
-        <v>9599</v>
+        <v>13999</v>
       </c>
       <c r="C222" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="D222">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E222" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F222">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B223">
-        <v>13999</v>
+        <v>17399</v>
       </c>
       <c r="C223" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="D223">
         <v>998</v>
       </c>
       <c r="E223" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="B224">
-        <v>17399</v>
+        <v>19999</v>
       </c>
       <c r="C224" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="D224">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B225">
-        <v>19999</v>
+        <v>12499</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="D225">
-        <v>1301</v>
+        <v>692</v>
       </c>
       <c r="E225" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="B226">
-        <v>12499</v>
+        <v>13999</v>
       </c>
       <c r="C226" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D226">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E226" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227">
+        <v>12399</v>
+      </c>
+      <c r="C227" t="s">
         <v>125</v>
       </c>
-      <c r="B227">
-        <v>13999</v>
-      </c>
-      <c r="C227" t="s">
-        <v>119</v>
-      </c>
       <c r="D227">
-        <v>998</v>
+        <v>690</v>
       </c>
       <c r="E227" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B228">
-        <v>12399</v>
+        <v>17995</v>
       </c>
       <c r="C228" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="D228">
-        <v>690</v>
+        <v>937</v>
       </c>
       <c r="E228" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -5692,393 +5689,393 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B229">
-        <v>17995</v>
+        <v>14999</v>
       </c>
       <c r="C229" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D229">
-        <v>937</v>
+        <v>1084</v>
       </c>
       <c r="E229" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="B230">
-        <v>14999</v>
+        <v>17399</v>
       </c>
       <c r="C230" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="D230">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="E230" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F230">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="B231">
-        <v>17399</v>
+        <v>20995</v>
       </c>
       <c r="C231" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="D231">
-        <v>998</v>
+        <v>1254</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B232">
-        <v>20995</v>
+        <v>19999</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D232">
-        <v>1254</v>
+        <v>1301</v>
       </c>
       <c r="E232" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F232">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B233">
-        <v>19999</v>
+        <v>9799</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="D233">
-        <v>1301</v>
+        <v>450</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B234">
-        <v>9799</v>
+        <v>19999</v>
       </c>
       <c r="C234" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="D234">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E234" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F234">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B235">
-        <v>19999</v>
+        <v>18499</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D235">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E235" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B236">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D236">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="B237">
-        <v>13999</v>
+        <v>20999</v>
       </c>
       <c r="C237" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D237">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E237" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B238">
-        <v>20999</v>
+        <v>15495</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D238">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E238" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F238">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B239">
-        <v>15495</v>
+        <v>9699</v>
       </c>
       <c r="C239" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="D239">
-        <v>937</v>
+        <v>449</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B240">
-        <v>9699</v>
+        <v>19999</v>
       </c>
       <c r="C240" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="D240">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E240" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F240">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B241">
-        <v>19999</v>
+        <v>9599</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="D241">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E241" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F241">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="B242">
-        <v>9599</v>
+        <v>17599</v>
       </c>
       <c r="C242" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D242">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E242" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F242">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="B243">
-        <v>17599</v>
+        <v>12995</v>
       </c>
       <c r="C243" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="D243">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B244">
-        <v>12995</v>
+        <v>9699</v>
       </c>
       <c r="C244" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="D244">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="E244" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="B245">
-        <v>9699</v>
+        <v>18499</v>
       </c>
       <c r="C245" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="D245">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E245" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F245">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="B246">
-        <v>18499</v>
+        <v>25995</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D246">
-        <v>999</v>
+        <v>1158</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="B247">
-        <v>25995</v>
+        <v>17399</v>
       </c>
       <c r="C247" t="s">
         <v>218</v>
       </c>
       <c r="D247">
-        <v>1158</v>
+        <v>998</v>
       </c>
       <c r="E247" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F247">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B248">
-        <v>17399</v>
+        <v>17599</v>
       </c>
       <c r="C248" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D248">
         <v>998</v>
@@ -6092,39 +6089,39 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="B249">
-        <v>17599</v>
+        <v>9599</v>
       </c>
       <c r="C249" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D249">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B250">
-        <v>9599</v>
+        <v>11299</v>
       </c>
       <c r="C250" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D250">
         <v>449</v>
       </c>
       <c r="E250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F250">
         <v>4</v>
@@ -6132,19 +6129,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B251">
-        <v>11299</v>
+        <v>9599</v>
       </c>
       <c r="C251" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D251">
         <v>449</v>
       </c>
       <c r="E251" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -6152,39 +6149,39 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B252">
-        <v>9599</v>
+        <v>20999</v>
       </c>
       <c r="C252" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="D252">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E252" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F252">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B253">
-        <v>20999</v>
+        <v>25995</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="D253">
-        <v>1301</v>
+        <v>1158</v>
       </c>
       <c r="E253" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F253">
         <v>7</v>
@@ -6192,99 +6189,99 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B254">
-        <v>25995</v>
+        <v>8999</v>
       </c>
       <c r="C254" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="D254">
-        <v>1158</v>
+        <v>501</v>
       </c>
       <c r="E254" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F254">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="B255">
-        <v>8999</v>
+        <v>17399</v>
       </c>
       <c r="C255" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="D255">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E255" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="B256">
-        <v>17399</v>
+        <v>12995</v>
       </c>
       <c r="C256" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="D256">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B257">
-        <v>12995</v>
+        <v>8999</v>
       </c>
       <c r="C257" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D257">
-        <v>765</v>
+        <v>501</v>
       </c>
       <c r="E257" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B258">
-        <v>8999</v>
+        <v>12399</v>
       </c>
       <c r="C258" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D258">
-        <v>501</v>
+        <v>690</v>
       </c>
       <c r="E258" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -6292,79 +6289,79 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B259">
-        <v>12399</v>
+        <v>20995</v>
       </c>
       <c r="C259" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="D259">
-        <v>690</v>
+        <v>1254</v>
       </c>
       <c r="E259" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="B260">
-        <v>20995</v>
+        <v>17399</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D260">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E260" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F260">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="B261">
-        <v>17399</v>
+        <v>9799</v>
       </c>
       <c r="C261" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D261">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E261" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B262">
-        <v>9799</v>
+        <v>9599</v>
       </c>
       <c r="C262" t="s">
+        <v>225</v>
+      </c>
+      <c r="D262">
+        <v>449</v>
+      </c>
+      <c r="E262" t="s">
         <v>208</v>
-      </c>
-      <c r="D262">
-        <v>450</v>
-      </c>
-      <c r="E262" t="s">
-        <v>209</v>
       </c>
       <c r="F262">
         <v>4</v>
@@ -6372,19 +6369,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>242</v>
+      </c>
+      <c r="B263">
+        <v>8900</v>
+      </c>
+      <c r="C263" t="s">
         <v>225</v>
-      </c>
-      <c r="B263">
-        <v>9599</v>
-      </c>
-      <c r="C263" t="s">
-        <v>226</v>
       </c>
       <c r="D263">
         <v>449</v>
       </c>
       <c r="E263" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F263">
         <v>4</v>
@@ -6392,19 +6389,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B264">
-        <v>8900</v>
+        <v>9799</v>
       </c>
       <c r="C264" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D264">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E264" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F264">
         <v>4</v>
@@ -6412,156 +6409,156 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B265">
-        <v>9799</v>
+        <v>12399</v>
       </c>
       <c r="C265" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="D265">
-        <v>450</v>
+        <v>690</v>
       </c>
       <c r="E265" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F265">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B266">
-        <v>12399</v>
+        <v>12995</v>
       </c>
       <c r="C266" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D266">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="E266" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="B267">
-        <v>12995</v>
+        <v>18499</v>
       </c>
       <c r="C267" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="D267">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E267" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B268">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C268" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D268">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E268" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="B269">
-        <v>13999</v>
+        <v>17995</v>
       </c>
       <c r="C269" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D269">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E269" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B270">
-        <v>17995</v>
+        <v>9799</v>
       </c>
       <c r="C270" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="D270">
-        <v>937</v>
+        <v>450</v>
       </c>
       <c r="E270" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B271">
-        <v>9799</v>
+        <v>12995</v>
       </c>
       <c r="C271" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="D271">
-        <v>450</v>
+        <v>765</v>
       </c>
       <c r="E271" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F271">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B272">
-        <v>12995</v>
+        <v>19999</v>
       </c>
       <c r="C272" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="D272">
-        <v>765</v>
+        <v>1301</v>
       </c>
       <c r="E272" t="s">
         <v>46</v>
@@ -6572,219 +6569,219 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B273">
-        <v>19999</v>
+        <v>18499</v>
       </c>
       <c r="C273" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D273">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E273" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="B274">
-        <v>18499</v>
+        <v>25995</v>
       </c>
       <c r="C274" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="D274">
-        <v>999</v>
+        <v>1158</v>
       </c>
       <c r="E274" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="B275">
-        <v>25995</v>
+        <v>17599</v>
       </c>
       <c r="C275" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D275">
-        <v>1158</v>
+        <v>998</v>
       </c>
       <c r="E275" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F275">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="B276">
-        <v>17599</v>
+        <v>17995</v>
       </c>
       <c r="C276" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="D276">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B277">
-        <v>17995</v>
+        <v>14999</v>
       </c>
       <c r="C277" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D277">
-        <v>937</v>
+        <v>1084</v>
       </c>
       <c r="E277" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="B278">
-        <v>14999</v>
+        <v>13999</v>
       </c>
       <c r="C278" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D278">
-        <v>1084</v>
+        <v>998</v>
       </c>
       <c r="E278" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F278">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="B279">
-        <v>13999</v>
+        <v>17995</v>
       </c>
       <c r="C279" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D279">
-        <v>998</v>
+        <v>937</v>
       </c>
       <c r="E279" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B280">
-        <v>17995</v>
+        <v>20995</v>
       </c>
       <c r="C280" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D280">
-        <v>937</v>
+        <v>1254</v>
       </c>
       <c r="E280" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="B281">
-        <v>20995</v>
+        <v>17599</v>
       </c>
       <c r="C281" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="D281">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E281" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F281">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="B282">
-        <v>17599</v>
+        <v>25995</v>
       </c>
       <c r="C282" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D282">
-        <v>998</v>
+        <v>1158</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F282">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B283">
-        <v>25995</v>
+        <v>20999</v>
       </c>
       <c r="C283" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="D283">
-        <v>1158</v>
+        <v>1301</v>
       </c>
       <c r="E283" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F283">
         <v>7</v>
@@ -6792,253 +6789,253 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B284">
-        <v>20999</v>
+        <v>8999</v>
       </c>
       <c r="C284" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D284">
-        <v>1301</v>
+        <v>501</v>
       </c>
       <c r="E284" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F284">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B285">
-        <v>8999</v>
+        <v>14999</v>
       </c>
       <c r="C285" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D285">
-        <v>501</v>
+        <v>1084</v>
       </c>
       <c r="E285" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B286">
-        <v>14999</v>
+        <v>9699</v>
       </c>
       <c r="C286" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="D286">
-        <v>1084</v>
+        <v>449</v>
       </c>
       <c r="E286" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F286">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B287">
-        <v>9699</v>
+        <v>12995</v>
       </c>
       <c r="C287" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D287">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="E287" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F287">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B288">
-        <v>12995</v>
+        <v>14999</v>
       </c>
       <c r="C288" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D288">
-        <v>765</v>
+        <v>1084</v>
       </c>
       <c r="E288" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F288">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B289">
-        <v>14999</v>
+        <v>19999</v>
       </c>
       <c r="C289" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D289">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E289" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F289">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B290">
-        <v>19999</v>
+        <v>8999</v>
       </c>
       <c r="C290" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D290">
-        <v>1301</v>
+        <v>501</v>
       </c>
       <c r="E290" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F290">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B291">
-        <v>8999</v>
+        <v>13999</v>
       </c>
       <c r="C291" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D291">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E291" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B292">
-        <v>13999</v>
+        <v>28999</v>
       </c>
       <c r="C292" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D292">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E292" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="B293">
-        <v>28999</v>
+        <v>13999</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D293">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E293" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="B294">
-        <v>13999</v>
+        <v>20995</v>
       </c>
       <c r="C294" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D294">
-        <v>998</v>
+        <v>1254</v>
       </c>
       <c r="E294" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="B295">
-        <v>20995</v>
+        <v>18499</v>
       </c>
       <c r="C295" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D295">
-        <v>1254</v>
+        <v>999</v>
       </c>
       <c r="E295" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F295">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="B296">
-        <v>18499</v>
+        <v>28999</v>
       </c>
       <c r="C296" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D296">
         <v>999</v>
@@ -7052,56 +7049,56 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B297">
-        <v>28999</v>
+        <v>20999</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D297">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E297" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F297">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="B298">
-        <v>20999</v>
+        <v>17399</v>
       </c>
       <c r="C298" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D298">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E298" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="F298">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B299">
-        <v>17399</v>
+        <v>28999</v>
       </c>
       <c r="C299" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="D299">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -7112,76 +7109,76 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B300">
-        <v>28999</v>
+        <v>19999</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D300">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E300" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B301">
-        <v>19999</v>
+        <v>9799</v>
       </c>
       <c r="C301" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="D301">
-        <v>1301</v>
+        <v>450</v>
       </c>
       <c r="E301" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B302">
-        <v>9799</v>
+        <v>28999</v>
       </c>
       <c r="C302" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="D302">
-        <v>450</v>
+        <v>999</v>
       </c>
       <c r="E302" t="s">
-        <v>209</v>
+        <v>8</v>
       </c>
       <c r="F302">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B303">
-        <v>28999</v>
+        <v>13000</v>
       </c>
       <c r="C303" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D303">
-        <v>999</v>
+        <v>890</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -7195,13 +7192,13 @@
         <v>227</v>
       </c>
       <c r="B304">
-        <v>13000</v>
+        <v>13999</v>
       </c>
       <c r="C304" t="s">
         <v>118</v>
       </c>
       <c r="D304">
-        <v>890</v>
+        <v>660</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -7215,36 +7212,36 @@
         <v>228</v>
       </c>
       <c r="B305">
-        <v>13999</v>
+        <v>9999</v>
       </c>
       <c r="C305" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D305">
-        <v>660</v>
+        <v>975</v>
       </c>
       <c r="E305" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>230</v>
+      </c>
+      <c r="B306">
+        <v>24395</v>
+      </c>
+      <c r="C306" t="s">
+        <v>231</v>
+      </c>
+      <c r="D306">
+        <v>1802</v>
+      </c>
+      <c r="E306" t="s">
         <v>229</v>
-      </c>
-      <c r="B306">
-        <v>9999</v>
-      </c>
-      <c r="C306" t="s">
-        <v>150</v>
-      </c>
-      <c r="D306">
-        <v>975</v>
-      </c>
-      <c r="E306" t="s">
-        <v>230</v>
       </c>
       <c r="F306">
         <v>5</v>
@@ -7252,19 +7249,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B307">
-        <v>24395</v>
+        <v>20000</v>
       </c>
       <c r="C307" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="D307">
-        <v>1802</v>
+        <v>1251</v>
       </c>
       <c r="E307" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F307">
         <v>5</v>
@@ -7275,36 +7272,36 @@
         <v>233</v>
       </c>
       <c r="B308">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="C308" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="D308">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E308" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F308">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B309">
-        <v>24000</v>
+        <v>13300</v>
       </c>
       <c r="C309" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="D309">
-        <v>1250</v>
+        <v>755</v>
       </c>
       <c r="E309" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F309">
         <v>7</v>
@@ -7315,16 +7312,16 @@
         <v>236</v>
       </c>
       <c r="B310">
-        <v>13300</v>
+        <v>4600</v>
       </c>
       <c r="C310" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="D310">
-        <v>755</v>
+        <v>296</v>
       </c>
       <c r="E310" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F310">
         <v>7</v>
@@ -7332,19 +7329,19 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B311">
-        <v>4600</v>
+        <v>12500</v>
       </c>
       <c r="C311" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D311">
-        <v>296</v>
+        <v>888</v>
       </c>
       <c r="E311" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F311">
         <v>7</v>
@@ -7355,16 +7352,16 @@
         <v>239</v>
       </c>
       <c r="B312">
-        <v>12500</v>
+        <v>12299</v>
       </c>
       <c r="C312" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="D312">
-        <v>888</v>
+        <v>660</v>
       </c>
       <c r="E312" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F312">
         <v>7</v>
@@ -7372,41 +7369,21 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B313">
-        <v>12299</v>
+        <v>6000</v>
       </c>
       <c r="C313" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="D313">
-        <v>660</v>
+        <v>471</v>
       </c>
       <c r="E313" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F313">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>242</v>
-      </c>
-      <c r="B314">
-        <v>6000</v>
-      </c>
-      <c r="C314" t="s">
-        <v>87</v>
-      </c>
-      <c r="D314">
-        <v>471</v>
-      </c>
-      <c r="E314" t="s">
-        <v>230</v>
-      </c>
-      <c r="F314">
         <v>5</v>
       </c>
     </row>

--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA07909-8447-4227-939D-0A51AC1A914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656E898-3642-4E4A-985A-F2D111C65E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,10 +2361,10 @@
         <v>750</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3141,10 +3141,10 @@
         <v>650</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3261,10 +3261,10 @@
         <v>650</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3281,10 +3281,10 @@
         <v>650</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3401,10 +3401,10 @@
         <v>650</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3761,10 +3761,10 @@
         <v>650</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3881,10 +3881,10 @@
         <v>650</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">

--- a/completed_bike_dataset.xlsx
+++ b/completed_bike_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree 3rd Year\FYP\bikeproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656E898-3642-4E4A-985A-F2D111C65E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A3E287-0338-4000-931D-A58F0BB6D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="249">
   <si>
     <t>bike_name</t>
   </si>
@@ -752,6 +752,21 @@
   </si>
   <si>
     <t>2022 KTM 1290 Super Adventure R</t>
+  </si>
+  <si>
+    <t>2022 Yamaha YZF-R7</t>
+  </si>
+  <si>
+    <t>2019 Yamaha YZ450F</t>
+  </si>
+  <si>
+    <t>2020 KTM 450 SX-F</t>
+  </si>
+  <si>
+    <t>2021 Husqvarna 701 Supermoto</t>
+  </si>
+  <si>
+    <t>2020 SWM SM 500R</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F313"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N223" sqref="N223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3189,36 +3204,36 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B104">
-        <v>9999</v>
+        <v>7999</v>
       </c>
       <c r="C104" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D104">
-        <v>700</v>
+        <v>1312</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="B105">
-        <v>7999</v>
+        <v>6999</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D105">
-        <v>1312</v>
+        <v>650</v>
       </c>
       <c r="E105" t="s">
         <v>46</v>
@@ -3229,7 +3244,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="B106">
         <v>6999</v>
@@ -3252,10 +3267,10 @@
         <v>159</v>
       </c>
       <c r="B107">
-        <v>6999</v>
+        <v>6499</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D107">
         <v>650</v>
@@ -3269,27 +3284,27 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B108">
-        <v>6499</v>
+        <v>10999</v>
       </c>
       <c r="C108" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="D108">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B109">
         <v>10999</v>
@@ -3309,13 +3324,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B110">
-        <v>10999</v>
+        <v>9999</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D110">
         <v>600</v>
@@ -3329,16 +3344,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B111">
-        <v>9999</v>
+        <v>11999</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D111">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E111" t="s">
         <v>8</v>
@@ -3349,36 +3364,36 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B112">
-        <v>11999</v>
+        <v>6499</v>
       </c>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D112">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B113">
-        <v>6499</v>
+        <v>9399</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D113">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E113" t="s">
         <v>46</v>
@@ -3389,107 +3404,107 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B114">
-        <v>9399</v>
+        <v>12999</v>
       </c>
       <c r="C114" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D114">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B115">
-        <v>12999</v>
+        <v>9499</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D115">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B116">
-        <v>9499</v>
+        <v>13999</v>
       </c>
       <c r="C116" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D116">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B117">
-        <v>13999</v>
+        <v>5999</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D117">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B118">
-        <v>5999</v>
+        <v>13999</v>
       </c>
       <c r="C118" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D118">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B119">
         <v>13999</v>
@@ -3498,7 +3513,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -3509,53 +3524,53 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B120">
-        <v>13999</v>
+        <v>8499</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D120">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B121">
-        <v>8499</v>
+        <v>13299</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="D121">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="E121" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B122">
-        <v>13299</v>
+        <v>10499</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D122">
         <v>600</v>
@@ -3569,13 +3584,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="B123">
-        <v>10499</v>
+        <v>13999</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D123">
         <v>600</v>
@@ -3589,13 +3604,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="B124">
-        <v>13999</v>
+        <v>14499</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D124">
         <v>600</v>
@@ -3609,16 +3624,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B125">
-        <v>14499</v>
+        <v>10999</v>
       </c>
       <c r="C125" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="D125">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -3629,16 +3644,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B126">
-        <v>10999</v>
+        <v>13999</v>
       </c>
       <c r="C126" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D126">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -3649,36 +3664,36 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B127">
-        <v>13999</v>
+        <v>10499</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D127">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B128">
-        <v>10499</v>
+        <v>8999</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D128">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E128" t="s">
         <v>46</v>
@@ -3689,16 +3704,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B129">
-        <v>8999</v>
+        <v>2999</v>
       </c>
       <c r="C129" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D129">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="E129" t="s">
         <v>46</v>
@@ -3709,16 +3724,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B130">
-        <v>2999</v>
+        <v>10499</v>
       </c>
       <c r="C130" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="D130">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="E130" t="s">
         <v>46</v>
@@ -3729,16 +3744,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B131">
-        <v>10499</v>
+        <v>7999</v>
       </c>
       <c r="C131" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D131">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E131" t="s">
         <v>46</v>
@@ -3749,56 +3764,56 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B132">
-        <v>7999</v>
+        <v>13999</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D132">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B133">
-        <v>13999</v>
+        <v>4499</v>
       </c>
       <c r="C133" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="D133">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B134">
-        <v>4499</v>
+        <v>12999</v>
       </c>
       <c r="C134" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D134">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E134" t="s">
         <v>46</v>
@@ -3809,13 +3824,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="B135">
-        <v>10999</v>
+        <v>10199</v>
       </c>
       <c r="C135" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D135">
         <v>700</v>
@@ -3829,16 +3844,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B136">
-        <v>12999</v>
+        <v>9199</v>
       </c>
       <c r="C136" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D136">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E136" t="s">
         <v>46</v>
@@ -3849,16 +3864,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B137">
-        <v>10499</v>
+        <v>14499</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="D137">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -3869,22 +3884,22 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B138">
-        <v>9199</v>
+        <v>13999</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D138">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3892,10 +3907,10 @@
         <v>65</v>
       </c>
       <c r="B139">
-        <v>14499</v>
+        <v>14299</v>
       </c>
       <c r="C139" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="D139">
         <v>600</v>
@@ -3909,16 +3924,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="B140">
-        <v>13999</v>
+        <v>12999</v>
       </c>
       <c r="C140" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -3929,56 +3944,56 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="B141">
-        <v>14299</v>
+        <v>9999</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="D141">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="B142">
-        <v>12999</v>
+        <v>11999</v>
       </c>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D142">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B143">
-        <v>9999</v>
+        <v>5999</v>
       </c>
       <c r="C143" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D143">
-        <v>900</v>
+        <v>125</v>
       </c>
       <c r="E143" t="s">
         <v>46</v>
@@ -3989,36 +4004,36 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="B144">
-        <v>11999</v>
+        <v>11499</v>
       </c>
       <c r="C144" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D144">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B145">
-        <v>5999</v>
+        <v>9999</v>
       </c>
       <c r="C145" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D145">
-        <v>125</v>
+        <v>600</v>
       </c>
       <c r="E145" t="s">
         <v>46</v>
@@ -4029,16 +4044,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B146">
-        <v>11499</v>
+        <v>11999</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D146">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -4049,13 +4064,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B147">
-        <v>9999</v>
+        <v>6999</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D147">
         <v>600</v>
@@ -4069,256 +4084,256 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B148">
-        <v>11999</v>
+        <v>8499</v>
       </c>
       <c r="C148" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D148">
-        <v>660</v>
+        <v>1312</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B149">
-        <v>6999</v>
+        <v>7999</v>
       </c>
       <c r="C149" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D149">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E149" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B150">
-        <v>8499</v>
+        <v>12999</v>
       </c>
       <c r="C150" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D150">
-        <v>1312</v>
+        <v>1000</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B151">
-        <v>7999</v>
+        <v>7499</v>
       </c>
       <c r="C151" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D151">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B152">
-        <v>12999</v>
+        <v>7999</v>
       </c>
       <c r="C152" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D152">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E152" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="B153">
-        <v>7499</v>
+        <v>13999</v>
       </c>
       <c r="C153" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D153">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B154">
-        <v>7999</v>
+        <v>10999</v>
       </c>
       <c r="C154" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="D154">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="B155">
-        <v>13999</v>
+        <v>12499</v>
       </c>
       <c r="C155" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="D155">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B156">
-        <v>10999</v>
+        <v>8999</v>
       </c>
       <c r="C156" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="D156">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B157">
-        <v>12499</v>
+        <v>12995</v>
       </c>
       <c r="C157" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D157">
-        <v>700</v>
+        <v>765</v>
       </c>
       <c r="E157" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="B158">
-        <v>8999</v>
+        <v>17599</v>
       </c>
       <c r="C158" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="D158">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E158" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="B159">
-        <v>12995</v>
+        <v>17599</v>
       </c>
       <c r="C159" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D159">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E159" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="B160">
-        <v>17599</v>
+        <v>28999</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D160">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E160" t="s">
         <v>8</v>
@@ -4329,122 +4344,122 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="B161">
-        <v>17599</v>
+        <v>9799</v>
       </c>
       <c r="C161" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D161">
-        <v>998</v>
+        <v>450</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B162">
-        <v>28999</v>
+        <v>14999</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D162">
-        <v>999</v>
+        <v>1084</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B163">
-        <v>9799</v>
+        <v>19999</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="D163">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E163" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F163">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B164">
-        <v>14999</v>
+        <v>15495</v>
       </c>
       <c r="C164" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D164">
-        <v>1084</v>
+        <v>937</v>
       </c>
       <c r="E164" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="F164">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="B165">
-        <v>19999</v>
+        <v>18499</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D165">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B166">
-        <v>15495</v>
+        <v>17995</v>
       </c>
       <c r="C166" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D166">
         <v>937</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4469,96 +4484,96 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B168">
-        <v>17995</v>
+        <v>9699</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="D168">
-        <v>937</v>
+        <v>449</v>
       </c>
       <c r="E168" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="B169">
-        <v>18499</v>
+        <v>17995</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D169">
-        <v>999</v>
+        <v>937</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B170">
-        <v>9699</v>
+        <v>14999</v>
       </c>
       <c r="C170" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="D170">
-        <v>449</v>
+        <v>1084</v>
       </c>
       <c r="E170" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F170">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B171">
-        <v>17995</v>
+        <v>19999</v>
       </c>
       <c r="C171" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D171">
-        <v>937</v>
+        <v>1301</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B172">
-        <v>14999</v>
+        <v>25995</v>
       </c>
       <c r="C172" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="D172">
-        <v>1084</v>
+        <v>1158</v>
       </c>
       <c r="E172" t="s">
         <v>210</v>
@@ -4569,116 +4584,116 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="B173">
-        <v>19999</v>
+        <v>7799</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="D173">
-        <v>1301</v>
+        <v>450</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B174">
-        <v>25995</v>
+        <v>12995</v>
       </c>
       <c r="C174" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="D174">
-        <v>1158</v>
+        <v>765</v>
       </c>
       <c r="E174" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="B175">
-        <v>9799</v>
+        <v>10499</v>
       </c>
       <c r="C175" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D175">
-        <v>450</v>
+        <v>692</v>
       </c>
       <c r="E175" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B176">
-        <v>12995</v>
+        <v>28999</v>
       </c>
       <c r="C176" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="D176">
-        <v>765</v>
+        <v>999</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B177">
-        <v>12499</v>
+        <v>14999</v>
       </c>
       <c r="C177" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="D177">
-        <v>692</v>
+        <v>1084</v>
       </c>
       <c r="E177" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="B178">
-        <v>28999</v>
+        <v>17399</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="D178">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E178" t="s">
         <v>8</v>
@@ -4689,253 +4704,253 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179">
-        <v>14999</v>
+        <v>17995</v>
       </c>
       <c r="C179" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D179">
-        <v>1084</v>
+        <v>937</v>
       </c>
       <c r="E179" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F179">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="B180">
-        <v>17399</v>
+        <v>12995</v>
       </c>
       <c r="C180" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="D180">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B181">
-        <v>17995</v>
+        <v>12995</v>
       </c>
       <c r="C181" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D181">
-        <v>937</v>
+        <v>765</v>
       </c>
       <c r="E181" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B182">
-        <v>12995</v>
+        <v>20995</v>
       </c>
       <c r="C182" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="D182">
-        <v>765</v>
+        <v>1254</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B183">
-        <v>12995</v>
+        <v>11299</v>
       </c>
       <c r="C183" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="D183">
-        <v>765</v>
+        <v>449</v>
       </c>
       <c r="E183" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="B184">
-        <v>20995</v>
+        <v>13999</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D184">
-        <v>1254</v>
+        <v>998</v>
       </c>
       <c r="E184" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="F184">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B185">
-        <v>12499</v>
+        <v>9699</v>
       </c>
       <c r="C185" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D185">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E185" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B186">
-        <v>11299</v>
+        <v>20999</v>
       </c>
       <c r="C186" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="D186">
-        <v>449</v>
+        <v>1301</v>
       </c>
       <c r="E186" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F186">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B187">
-        <v>13999</v>
+        <v>9699</v>
       </c>
       <c r="C187" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="D187">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E187" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B188">
-        <v>9699</v>
+        <v>12399</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="D188">
-        <v>449</v>
+        <v>690</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F188">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B189">
-        <v>20999</v>
+        <v>9699</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="D189">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E189" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F189">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B190">
-        <v>12499</v>
+        <v>19999</v>
       </c>
       <c r="C190" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="D190">
-        <v>692</v>
+        <v>1301</v>
       </c>
       <c r="E190" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B191">
-        <v>9699</v>
+        <v>9599</v>
       </c>
       <c r="C191" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D191">
         <v>449</v>
@@ -4949,176 +4964,176 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B192">
-        <v>12399</v>
+        <v>9599</v>
       </c>
       <c r="C192" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D192">
-        <v>690</v>
+        <v>449</v>
       </c>
       <c r="E192" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="B193">
-        <v>9699</v>
+        <v>17599</v>
       </c>
       <c r="C193" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D193">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E193" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B194">
-        <v>9799</v>
+        <v>12995</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="D194">
-        <v>450</v>
+        <v>765</v>
       </c>
       <c r="E194" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F194">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="B195">
-        <v>8999</v>
+        <v>17599</v>
       </c>
       <c r="C195" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="D195">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E195" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B196">
-        <v>19999</v>
+        <v>17995</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D196">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B197">
-        <v>9599</v>
+        <v>15495</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="D197">
-        <v>449</v>
+        <v>937</v>
       </c>
       <c r="E197" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F197">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="B198">
-        <v>9599</v>
+        <v>18499</v>
       </c>
       <c r="C198" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D198">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E198" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F198">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B199">
-        <v>12499</v>
+        <v>28999</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="D199">
-        <v>692</v>
+        <v>999</v>
       </c>
       <c r="E199" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B200">
-        <v>17599</v>
+        <v>18499</v>
       </c>
       <c r="C200" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="D200">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E200" t="s">
         <v>8</v>
@@ -5129,16 +5144,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B201">
-        <v>12995</v>
+        <v>13999</v>
       </c>
       <c r="C201" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D201">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E201" t="s">
         <v>46</v>
@@ -5149,96 +5164,96 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B202">
-        <v>12499</v>
+        <v>20999</v>
       </c>
       <c r="C202" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="D202">
-        <v>692</v>
+        <v>1301</v>
       </c>
       <c r="E202" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="B203">
-        <v>17599</v>
+        <v>14999</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="D203">
-        <v>998</v>
+        <v>1084</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B204">
-        <v>17995</v>
+        <v>19999</v>
       </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D204">
-        <v>937</v>
+        <v>1301</v>
       </c>
       <c r="E204" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B205">
-        <v>15495</v>
+        <v>12399</v>
       </c>
       <c r="C205" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D205">
-        <v>937</v>
+        <v>690</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B206">
-        <v>18499</v>
+        <v>17399</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="D206">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -5249,62 +5264,62 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B207">
-        <v>28999</v>
+        <v>19999</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D207">
-        <v>999</v>
+        <v>1301</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B208">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D208">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B209">
-        <v>8999</v>
+        <v>9599</v>
       </c>
       <c r="C209" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="D209">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="E209" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5329,162 +5344,162 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="B211">
-        <v>20999</v>
+        <v>17399</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D211">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E211" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="F211">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>12499</v>
+        <v>19999</v>
       </c>
       <c r="C212" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="D212">
-        <v>692</v>
+        <v>1301</v>
       </c>
       <c r="E212" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="B213">
-        <v>12499</v>
+        <v>13999</v>
       </c>
       <c r="C213" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="D213">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="E213" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B214">
-        <v>14999</v>
+        <v>12399</v>
       </c>
       <c r="C214" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D214">
-        <v>1084</v>
+        <v>690</v>
       </c>
       <c r="E214" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F214">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B215">
-        <v>19999</v>
+        <v>17995</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D215">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E215" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B216">
-        <v>12499</v>
+        <v>14999</v>
       </c>
       <c r="C216" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="D216">
-        <v>692</v>
+        <v>1084</v>
       </c>
       <c r="E216" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="B217">
-        <v>12399</v>
+        <v>17399</v>
       </c>
       <c r="C217" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="D217">
-        <v>690</v>
+        <v>998</v>
       </c>
       <c r="E217" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="B218">
-        <v>17399</v>
+        <v>20995</v>
       </c>
       <c r="C218" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="D218">
-        <v>998</v>
+        <v>1254</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5509,16 +5524,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="B220">
-        <v>13999</v>
+        <v>19999</v>
       </c>
       <c r="C220" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="D220">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E220" t="s">
         <v>46</v>
@@ -5529,22 +5544,22 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="B221">
-        <v>9599</v>
+        <v>18499</v>
       </c>
       <c r="C221" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D221">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E221" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -5569,36 +5584,36 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>17399</v>
+        <v>20999</v>
       </c>
       <c r="C223" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="D223">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B224">
-        <v>19999</v>
+        <v>15495</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D224">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E224" t="s">
         <v>46</v>
@@ -5609,416 +5624,416 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B225">
-        <v>12499</v>
+        <v>9699</v>
       </c>
       <c r="C225" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D225">
-        <v>692</v>
+        <v>449</v>
       </c>
       <c r="E225" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="B226">
-        <v>13999</v>
+        <v>19999</v>
       </c>
       <c r="C226" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D226">
-        <v>998</v>
+        <v>1301</v>
       </c>
       <c r="E226" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B227">
-        <v>12399</v>
+        <v>9599</v>
       </c>
       <c r="C227" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D227">
-        <v>690</v>
+        <v>449</v>
       </c>
       <c r="E227" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="B228">
-        <v>17995</v>
+        <v>17599</v>
       </c>
       <c r="C228" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="D228">
-        <v>937</v>
+        <v>998</v>
       </c>
       <c r="E228" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B229">
-        <v>14999</v>
+        <v>12995</v>
       </c>
       <c r="C229" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D229">
-        <v>1084</v>
+        <v>765</v>
       </c>
       <c r="E229" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="F229">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="B230">
-        <v>17399</v>
+        <v>9699</v>
       </c>
       <c r="C230" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D230">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="B231">
-        <v>20995</v>
+        <v>18499</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D231">
-        <v>1254</v>
+        <v>999</v>
       </c>
       <c r="E231" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="F231">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B232">
-        <v>19999</v>
+        <v>25995</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="D232">
-        <v>1301</v>
+        <v>1158</v>
       </c>
       <c r="E232" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F232">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="B233">
-        <v>9799</v>
+        <v>17399</v>
       </c>
       <c r="C233" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D233">
-        <v>450</v>
+        <v>998</v>
       </c>
       <c r="E233" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F233">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="B234">
-        <v>19999</v>
+        <v>17599</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="D234">
-        <v>1301</v>
+        <v>998</v>
       </c>
       <c r="E234" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="B235">
-        <v>18499</v>
+        <v>9599</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="D235">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="B236">
-        <v>13999</v>
+        <v>10199</v>
       </c>
       <c r="C236" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D236">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E236" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B237">
-        <v>20999</v>
+        <v>9599</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="D237">
-        <v>1301</v>
+        <v>449</v>
       </c>
       <c r="E237" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F237">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B238">
-        <v>15495</v>
+        <v>20999</v>
       </c>
       <c r="C238" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D238">
-        <v>937</v>
+        <v>1301</v>
       </c>
       <c r="E238" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B239">
-        <v>9699</v>
+        <v>25995</v>
       </c>
       <c r="C239" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D239">
-        <v>449</v>
+        <v>1158</v>
       </c>
       <c r="E239" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F239">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B240">
-        <v>19999</v>
+        <v>6000</v>
       </c>
       <c r="C240" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D240">
-        <v>1301</v>
+        <v>501</v>
       </c>
       <c r="E240" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F240">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="B241">
-        <v>9599</v>
+        <v>17399</v>
       </c>
       <c r="C241" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D241">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E241" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F241">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="B242">
-        <v>17599</v>
+        <v>12995</v>
       </c>
       <c r="C242" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="D242">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="B243">
-        <v>12995</v>
+        <v>12399</v>
       </c>
       <c r="C243" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D243">
-        <v>765</v>
+        <v>690</v>
       </c>
       <c r="E243" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B244">
-        <v>9699</v>
+        <v>20995</v>
       </c>
       <c r="C244" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="D244">
-        <v>449</v>
+        <v>1254</v>
       </c>
       <c r="E244" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F244">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B245">
-        <v>18499</v>
+        <v>17399</v>
       </c>
       <c r="C245" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="D245">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -6029,196 +6044,196 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B246">
-        <v>25995</v>
+        <v>9599</v>
       </c>
       <c r="C246" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D246">
-        <v>1158</v>
+        <v>449</v>
       </c>
       <c r="E246" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F246">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="B247">
-        <v>17399</v>
+        <v>8900</v>
       </c>
       <c r="C247" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D247">
-        <v>998</v>
+        <v>449</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="B248">
-        <v>17599</v>
+        <v>12399</v>
       </c>
       <c r="C248" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="D248">
-        <v>998</v>
+        <v>690</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B249">
-        <v>9599</v>
+        <v>12995</v>
       </c>
       <c r="C249" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="D249">
-        <v>449</v>
+        <v>765</v>
       </c>
       <c r="E249" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F249">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="B250">
-        <v>11299</v>
+        <v>18499</v>
       </c>
       <c r="C250" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="D250">
-        <v>449</v>
+        <v>999</v>
       </c>
       <c r="E250" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F250">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="B251">
-        <v>9599</v>
+        <v>13999</v>
       </c>
       <c r="C251" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="D251">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E251" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F251">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B252">
-        <v>20999</v>
+        <v>17995</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D252">
-        <v>1301</v>
+        <v>937</v>
       </c>
       <c r="E252" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F252">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B253">
-        <v>25995</v>
+        <v>12995</v>
       </c>
       <c r="C253" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="D253">
-        <v>1158</v>
+        <v>765</v>
       </c>
       <c r="E253" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="F253">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B254">
-        <v>8999</v>
+        <v>19999</v>
       </c>
       <c r="C254" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="D254">
-        <v>501</v>
+        <v>1301</v>
       </c>
       <c r="E254" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B255">
-        <v>17399</v>
+        <v>18499</v>
       </c>
       <c r="C255" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="D255">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -6229,56 +6244,56 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B256">
-        <v>12995</v>
+        <v>25995</v>
       </c>
       <c r="C256" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="D256">
-        <v>765</v>
+        <v>1158</v>
       </c>
       <c r="E256" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="B257">
-        <v>8999</v>
+        <v>17599</v>
       </c>
       <c r="C257" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="D257">
-        <v>501</v>
+        <v>998</v>
       </c>
       <c r="E257" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B258">
-        <v>12399</v>
+        <v>17995</v>
       </c>
       <c r="C258" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="D258">
-        <v>690</v>
+        <v>937</v>
       </c>
       <c r="E258" t="s">
         <v>201</v>
@@ -6289,16 +6304,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B259">
-        <v>20995</v>
+        <v>14999</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D259">
-        <v>1254</v>
+        <v>1084</v>
       </c>
       <c r="E259" t="s">
         <v>210</v>
@@ -6309,176 +6324,176 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B260">
-        <v>17399</v>
+        <v>13999</v>
       </c>
       <c r="C260" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="D260">
         <v>998</v>
       </c>
       <c r="E260" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B261">
-        <v>9799</v>
+        <v>17995</v>
       </c>
       <c r="C261" t="s">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="D261">
-        <v>450</v>
+        <v>937</v>
       </c>
       <c r="E261" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F261">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B262">
-        <v>9599</v>
+        <v>20995</v>
       </c>
       <c r="C262" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="D262">
-        <v>449</v>
+        <v>1254</v>
       </c>
       <c r="E262" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F262">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="B263">
-        <v>8900</v>
+        <v>17599</v>
       </c>
       <c r="C263" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D263">
-        <v>449</v>
+        <v>998</v>
       </c>
       <c r="E263" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F263">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B264">
-        <v>9799</v>
+        <v>25995</v>
       </c>
       <c r="C264" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D264">
-        <v>450</v>
+        <v>1158</v>
       </c>
       <c r="E264" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F264">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B265">
-        <v>12399</v>
+        <v>20999</v>
       </c>
       <c r="C265" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="D265">
-        <v>690</v>
+        <v>1301</v>
       </c>
       <c r="E265" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B266">
-        <v>12995</v>
+        <v>14999</v>
       </c>
       <c r="C266" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D266">
-        <v>765</v>
+        <v>1084</v>
       </c>
       <c r="E266" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="B267">
-        <v>18499</v>
+        <v>9699</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="D267">
-        <v>999</v>
+        <v>449</v>
       </c>
       <c r="E267" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="F267">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="B268">
-        <v>13999</v>
+        <v>12995</v>
       </c>
       <c r="C268" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D268">
-        <v>998</v>
+        <v>765</v>
       </c>
       <c r="E268" t="s">
         <v>46</v>
@@ -6489,56 +6504,56 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B269">
-        <v>17995</v>
+        <v>14999</v>
       </c>
       <c r="C269" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D269">
-        <v>937</v>
+        <v>1084</v>
       </c>
       <c r="E269" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B270">
-        <v>9799</v>
+        <v>19999</v>
       </c>
       <c r="C270" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="D270">
-        <v>450</v>
+        <v>1301</v>
       </c>
       <c r="E270" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="B271">
-        <v>12995</v>
+        <v>13999</v>
       </c>
       <c r="C271" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D271">
-        <v>765</v>
+        <v>998</v>
       </c>
       <c r="E271" t="s">
         <v>46</v>
@@ -6549,56 +6564,56 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B272">
-        <v>19999</v>
+        <v>28999</v>
       </c>
       <c r="C272" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D272">
-        <v>1301</v>
+        <v>999</v>
       </c>
       <c r="E272" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="B273">
-        <v>18499</v>
+        <v>13999</v>
       </c>
       <c r="C273" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D273">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E273" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B274">
-        <v>25995</v>
+        <v>20995</v>
       </c>
       <c r="C274" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="D274">
-        <v>1158</v>
+        <v>1254</v>
       </c>
       <c r="E274" t="s">
         <v>210</v>
@@ -6609,16 +6624,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B275">
-        <v>17599</v>
+        <v>18499</v>
       </c>
       <c r="C275" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="D275">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
@@ -6629,36 +6644,36 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B276">
-        <v>17995</v>
+        <v>28999</v>
       </c>
       <c r="C276" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D276">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E276" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B277">
-        <v>14999</v>
+        <v>20999</v>
       </c>
       <c r="C277" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D277">
-        <v>1084</v>
+        <v>1301</v>
       </c>
       <c r="E277" t="s">
         <v>210</v>
@@ -6669,76 +6684,76 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B278">
-        <v>13999</v>
+        <v>17399</v>
       </c>
       <c r="C278" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="D278">
         <v>998</v>
       </c>
       <c r="E278" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B279">
-        <v>17995</v>
+        <v>28999</v>
       </c>
       <c r="C279" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D279">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="E279" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B280">
-        <v>20995</v>
+        <v>19999</v>
       </c>
       <c r="C280" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D280">
-        <v>1254</v>
+        <v>1301</v>
       </c>
       <c r="E280" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="F280">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="B281">
-        <v>17599</v>
+        <v>28999</v>
       </c>
       <c r="C281" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D281">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -6749,136 +6764,136 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B282">
-        <v>25995</v>
+        <v>13000</v>
       </c>
       <c r="C282" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="D282">
-        <v>1158</v>
+        <v>890</v>
       </c>
       <c r="E282" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="F282">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B283">
-        <v>20999</v>
+        <v>13999</v>
       </c>
       <c r="C283" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D283">
-        <v>1301</v>
+        <v>660</v>
       </c>
       <c r="E283" t="s">
-        <v>210</v>
+        <v>8</v>
       </c>
       <c r="F283">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B284">
-        <v>8999</v>
+        <v>9999</v>
       </c>
       <c r="C284" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D284">
-        <v>501</v>
+        <v>975</v>
       </c>
       <c r="E284" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="B285">
-        <v>14999</v>
+        <v>24395</v>
       </c>
       <c r="C285" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="D285">
-        <v>1084</v>
+        <v>1802</v>
       </c>
       <c r="E285" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F285">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B286">
-        <v>9699</v>
+        <v>20000</v>
       </c>
       <c r="C286" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="D286">
-        <v>449</v>
+        <v>1251</v>
       </c>
       <c r="E286" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F286">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="B287">
-        <v>12995</v>
+        <v>24000</v>
       </c>
       <c r="C287" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="D287">
-        <v>765</v>
+        <v>1250</v>
       </c>
       <c r="E287" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="B288">
-        <v>14999</v>
+        <v>13300</v>
       </c>
       <c r="C288" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="D288">
-        <v>1084</v>
+        <v>755</v>
       </c>
       <c r="E288" t="s">
         <v>210</v>
@@ -6889,501 +6904,81 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B289">
-        <v>19999</v>
+        <v>4600</v>
       </c>
       <c r="C289" t="s">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D289">
-        <v>1301</v>
+        <v>296</v>
       </c>
       <c r="E289" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B290">
-        <v>8999</v>
+        <v>12500</v>
       </c>
       <c r="C290" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="D290">
-        <v>501</v>
+        <v>888</v>
       </c>
       <c r="E290" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="B291">
-        <v>13999</v>
+        <v>12299</v>
       </c>
       <c r="C291" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="D291">
-        <v>998</v>
+        <v>660</v>
       </c>
       <c r="E291" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B292">
-        <v>28999</v>
+        <v>6000</v>
       </c>
       <c r="C292" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D292">
-        <v>999</v>
+        <v>471</v>
       </c>
       <c r="E292" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="F292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>124</v>
-      </c>
-      <c r="B293">
-        <v>13999</v>
-      </c>
-      <c r="C293" t="s">
-        <v>118</v>
-      </c>
-      <c r="D293">
-        <v>998</v>
-      </c>
-      <c r="E293" t="s">
-        <v>46</v>
-      </c>
-      <c r="F293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>219</v>
-      </c>
-      <c r="B294">
-        <v>20995</v>
-      </c>
-      <c r="C294" t="s">
-        <v>24</v>
-      </c>
-      <c r="D294">
-        <v>1254</v>
-      </c>
-      <c r="E294" t="s">
-        <v>210</v>
-      </c>
-      <c r="F294">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>43</v>
-      </c>
-      <c r="B295">
-        <v>18499</v>
-      </c>
-      <c r="C295" t="s">
-        <v>35</v>
-      </c>
-      <c r="D295">
-        <v>999</v>
-      </c>
-      <c r="E295" t="s">
-        <v>8</v>
-      </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>205</v>
-      </c>
-      <c r="B296">
-        <v>28999</v>
-      </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296">
-        <v>999</v>
-      </c>
-      <c r="E296" t="s">
-        <v>8</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>222</v>
-      </c>
-      <c r="B297">
-        <v>20999</v>
-      </c>
-      <c r="C297" t="s">
-        <v>24</v>
-      </c>
-      <c r="D297">
-        <v>1301</v>
-      </c>
-      <c r="E297" t="s">
-        <v>210</v>
-      </c>
-      <c r="F297">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>39</v>
-      </c>
-      <c r="B298">
-        <v>17399</v>
-      </c>
-      <c r="C298" t="s">
-        <v>218</v>
-      </c>
-      <c r="D298">
-        <v>998</v>
-      </c>
-      <c r="E298" t="s">
-        <v>8</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>205</v>
-      </c>
-      <c r="B299">
-        <v>28999</v>
-      </c>
-      <c r="C299" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299">
-        <v>999</v>
-      </c>
-      <c r="E299" t="s">
-        <v>8</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>211</v>
-      </c>
-      <c r="B300">
-        <v>19999</v>
-      </c>
-      <c r="C300" t="s">
-        <v>27</v>
-      </c>
-      <c r="D300">
-        <v>1301</v>
-      </c>
-      <c r="E300" t="s">
-        <v>46</v>
-      </c>
-      <c r="F300">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>206</v>
-      </c>
-      <c r="B301">
-        <v>9799</v>
-      </c>
-      <c r="C301" t="s">
-        <v>207</v>
-      </c>
-      <c r="D301">
-        <v>450</v>
-      </c>
-      <c r="E301" t="s">
-        <v>208</v>
-      </c>
-      <c r="F301">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>205</v>
-      </c>
-      <c r="B302">
-        <v>28999</v>
-      </c>
-      <c r="C302" t="s">
-        <v>14</v>
-      </c>
-      <c r="D302">
-        <v>999</v>
-      </c>
-      <c r="E302" t="s">
-        <v>8</v>
-      </c>
-      <c r="F302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>226</v>
-      </c>
-      <c r="B303">
-        <v>13000</v>
-      </c>
-      <c r="C303" t="s">
-        <v>117</v>
-      </c>
-      <c r="D303">
-        <v>890</v>
-      </c>
-      <c r="E303" t="s">
-        <v>8</v>
-      </c>
-      <c r="F303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>227</v>
-      </c>
-      <c r="B304">
-        <v>13999</v>
-      </c>
-      <c r="C304" t="s">
-        <v>118</v>
-      </c>
-      <c r="D304">
-        <v>660</v>
-      </c>
-      <c r="E304" t="s">
-        <v>8</v>
-      </c>
-      <c r="F304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>228</v>
-      </c>
-      <c r="B305">
-        <v>9999</v>
-      </c>
-      <c r="C305" t="s">
-        <v>149</v>
-      </c>
-      <c r="D305">
-        <v>975</v>
-      </c>
-      <c r="E305" t="s">
-        <v>229</v>
-      </c>
-      <c r="F305">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>230</v>
-      </c>
-      <c r="B306">
-        <v>24395</v>
-      </c>
-      <c r="C306" t="s">
-        <v>231</v>
-      </c>
-      <c r="D306">
-        <v>1802</v>
-      </c>
-      <c r="E306" t="s">
-        <v>229</v>
-      </c>
-      <c r="F306">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>232</v>
-      </c>
-      <c r="B307">
-        <v>20000</v>
-      </c>
-      <c r="C307" t="s">
-        <v>27</v>
-      </c>
-      <c r="D307">
-        <v>1251</v>
-      </c>
-      <c r="E307" t="s">
-        <v>229</v>
-      </c>
-      <c r="F307">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>233</v>
-      </c>
-      <c r="B308">
-        <v>24000</v>
-      </c>
-      <c r="C308" t="s">
-        <v>234</v>
-      </c>
-      <c r="D308">
-        <v>1250</v>
-      </c>
-      <c r="E308" t="s">
-        <v>210</v>
-      </c>
-      <c r="F308">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>235</v>
-      </c>
-      <c r="B309">
-        <v>13300</v>
-      </c>
-      <c r="C309" t="s">
-        <v>171</v>
-      </c>
-      <c r="D309">
-        <v>755</v>
-      </c>
-      <c r="E309" t="s">
-        <v>210</v>
-      </c>
-      <c r="F309">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>236</v>
-      </c>
-      <c r="B310">
-        <v>4600</v>
-      </c>
-      <c r="C310" t="s">
-        <v>237</v>
-      </c>
-      <c r="D310">
-        <v>296</v>
-      </c>
-      <c r="E310" t="s">
-        <v>210</v>
-      </c>
-      <c r="F310">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>238</v>
-      </c>
-      <c r="B311">
-        <v>12500</v>
-      </c>
-      <c r="C311" t="s">
-        <v>200</v>
-      </c>
-      <c r="D311">
-        <v>888</v>
-      </c>
-      <c r="E311" t="s">
-        <v>210</v>
-      </c>
-      <c r="F311">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>239</v>
-      </c>
-      <c r="B312">
-        <v>12299</v>
-      </c>
-      <c r="C312" t="s">
-        <v>240</v>
-      </c>
-      <c r="D312">
-        <v>660</v>
-      </c>
-      <c r="E312" t="s">
-        <v>210</v>
-      </c>
-      <c r="F312">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>241</v>
-      </c>
-      <c r="B313">
-        <v>6000</v>
-      </c>
-      <c r="C313" t="s">
-        <v>86</v>
-      </c>
-      <c r="D313">
-        <v>471</v>
-      </c>
-      <c r="E313" t="s">
-        <v>229</v>
-      </c>
-      <c r="F313">
         <v>5</v>
       </c>
     </row>
